--- a/BackTest/2020-01-12 BackTest OGO.xlsx
+++ b/BackTest/2020-01-12 BackTest OGO.xlsx
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -2691,13 +2691,17 @@
         <v>9.583216666666667</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>9.227</v>
+      </c>
+      <c r="K66" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
@@ -2726,14 +2730,22 @@
         <v>9.577066666666667</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="K67" t="n">
+        <v>9.227</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2761,14 +2773,22 @@
         <v>9.573399999999999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>9.227</v>
+      </c>
+      <c r="K68" t="n">
+        <v>9.227</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2802,12 +2822,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>9.227</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
+        <v>9.250999999999999</v>
+      </c>
+      <c r="K69" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M69" t="n">
@@ -2843,9 +2865,11 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
+        <v>9.226000000000001</v>
+      </c>
+      <c r="K70" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2884,9 +2908,11 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>9.24</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
+        <v>9.25</v>
+      </c>
+      <c r="K71" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2919,15 +2945,15 @@
         <v>9.553499999999996</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>9.24</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2968,7 +2994,9 @@
       <c r="J73" t="n">
         <v>9.348000000000001</v>
       </c>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3001,15 +3029,15 @@
         <v>9.541733333333328</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>9.348000000000001</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3042,15 +3070,15 @@
         <v>9.536416666666662</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>9.260999999999999</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3083,15 +3111,15 @@
         <v>9.530216666666661</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>9.329000000000001</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3124,15 +3152,15 @@
         <v>9.524016666666659</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>9.327999999999999</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3165,15 +3193,15 @@
         <v>9.519183333333325</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>9.398999999999999</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3206,15 +3234,15 @@
         <v>9.516799999999991</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>9.41</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3247,15 +3275,15 @@
         <v>9.511033333333325</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>9.353999999999999</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3288,15 +3316,15 @@
         <v>9.506433333333325</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>9.381</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3329,15 +3357,15 @@
         <v>9.502499999999992</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3370,15 +3398,15 @@
         <v>9.497133333333325</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>9.571</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3411,15 +3439,15 @@
         <v>9.492249999999993</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>9.516999999999999</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3458,7 +3486,9 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3497,7 +3527,9 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3536,7 +3568,9 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3575,7 +3609,9 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3614,7 +3650,9 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3653,7 +3691,9 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3692,7 +3732,9 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3731,7 +3773,9 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3770,7 +3814,9 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3809,7 +3855,9 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3848,7 +3896,9 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3887,7 +3937,9 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3926,7 +3978,9 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3965,7 +4019,9 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4004,7 +4060,9 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4043,7 +4101,9 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4082,7 +4142,9 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4121,7 +4183,9 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4160,7 +4224,9 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4199,7 +4265,9 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4238,7 +4306,9 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4277,7 +4347,9 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4316,7 +4388,9 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4355,7 +4429,9 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4394,7 +4470,9 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4433,7 +4511,9 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4472,7 +4552,9 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4511,7 +4593,9 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4550,7 +4634,9 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4589,7 +4675,9 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4628,7 +4716,9 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4667,7 +4757,9 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4706,7 +4798,9 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4745,7 +4839,9 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4784,7 +4880,9 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4823,7 +4921,9 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4862,7 +4962,9 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4901,7 +5003,9 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4940,7 +5044,9 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4979,7 +5085,9 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5018,7 +5126,9 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5057,7 +5167,9 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5096,7 +5208,9 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5135,7 +5249,9 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>9.227</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2020-01-12 BackTest OGO.xlsx
+++ b/BackTest/2020-01-12 BackTest OGO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M128"/>
+  <dimension ref="A1:M129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>9.467000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>50000</v>
+        <v>410.1799</v>
       </c>
       <c r="G2" t="n">
-        <v>9.499450000000003</v>
+        <v>9.49951666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>9.467000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>9.596</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>9.596</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="E3" t="n">
         <v>9.467000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>747</v>
+        <v>50000</v>
       </c>
       <c r="G3" t="n">
-        <v>9.501533333333336</v>
+        <v>9.499450000000003</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,7 +503,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9.596</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="C4" t="n">
         <v>9.596</v>
@@ -512,13 +512,13 @@
         <v>9.596</v>
       </c>
       <c r="E4" t="n">
-        <v>9.596</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>5196.969</v>
+        <v>747</v>
       </c>
       <c r="G4" t="n">
-        <v>9.503950000000003</v>
+        <v>9.501533333333336</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9.597</v>
+        <v>9.596</v>
       </c>
       <c r="C5" t="n">
-        <v>9.597</v>
+        <v>9.596</v>
       </c>
       <c r="D5" t="n">
-        <v>9.597</v>
+        <v>9.596</v>
       </c>
       <c r="E5" t="n">
-        <v>9.597</v>
+        <v>9.596</v>
       </c>
       <c r="F5" t="n">
-        <v>137.3023</v>
+        <v>5196.969</v>
       </c>
       <c r="G5" t="n">
-        <v>9.505583333333336</v>
+        <v>9.503950000000003</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9.461</v>
+        <v>9.597</v>
       </c>
       <c r="C6" t="n">
-        <v>9.461</v>
+        <v>9.597</v>
       </c>
       <c r="D6" t="n">
-        <v>9.461</v>
+        <v>9.597</v>
       </c>
       <c r="E6" t="n">
-        <v>9.461</v>
+        <v>9.597</v>
       </c>
       <c r="F6" t="n">
         <v>137.3023</v>
       </c>
       <c r="G6" t="n">
-        <v>9.505750000000003</v>
+        <v>9.505583333333336</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9.596</v>
+        <v>9.461</v>
       </c>
       <c r="C7" t="n">
-        <v>9.596</v>
+        <v>9.461</v>
       </c>
       <c r="D7" t="n">
-        <v>9.596</v>
+        <v>9.461</v>
       </c>
       <c r="E7" t="n">
-        <v>9.596</v>
+        <v>9.461</v>
       </c>
       <c r="F7" t="n">
-        <v>151.3427</v>
+        <v>137.3023</v>
       </c>
       <c r="G7" t="n">
-        <v>9.510683333333336</v>
+        <v>9.505750000000003</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9.471</v>
+        <v>9.596</v>
       </c>
       <c r="C8" t="n">
-        <v>9.471</v>
+        <v>9.596</v>
       </c>
       <c r="D8" t="n">
-        <v>9.471</v>
+        <v>9.596</v>
       </c>
       <c r="E8" t="n">
-        <v>9.471</v>
+        <v>9.596</v>
       </c>
       <c r="F8" t="n">
-        <v>30483.581</v>
+        <v>151.3427</v>
       </c>
       <c r="G8" t="n">
-        <v>9.51186666666667</v>
+        <v>9.510683333333336</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>9.471</v>
       </c>
       <c r="C9" t="n">
-        <v>9.593999999999999</v>
+        <v>9.471</v>
       </c>
       <c r="D9" t="n">
-        <v>9.593999999999999</v>
+        <v>9.471</v>
       </c>
       <c r="E9" t="n">
         <v>9.471</v>
       </c>
       <c r="F9" t="n">
-        <v>29336</v>
+        <v>30483.581</v>
       </c>
       <c r="G9" t="n">
-        <v>9.515100000000006</v>
+        <v>9.51186666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9.441000000000001</v>
+        <v>9.471</v>
       </c>
       <c r="C10" t="n">
-        <v>9.441000000000001</v>
+        <v>9.593999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>9.441000000000001</v>
+        <v>9.593999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>9.441000000000001</v>
+        <v>9.471</v>
       </c>
       <c r="F10" t="n">
-        <v>222</v>
+        <v>29336</v>
       </c>
       <c r="G10" t="n">
-        <v>9.515783333333339</v>
+        <v>9.515100000000006</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9.584</v>
+        <v>9.441000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>9.710000000000001</v>
+        <v>9.441000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>9.710000000000001</v>
+        <v>9.441000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>9.584</v>
+        <v>9.441000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>140436.7568</v>
+        <v>222</v>
       </c>
       <c r="G11" t="n">
-        <v>9.520950000000006</v>
+        <v>9.515783333333339</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9.701000000000001</v>
+        <v>9.584</v>
       </c>
       <c r="C12" t="n">
-        <v>9.51</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>9.701000000000001</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>9.51</v>
+        <v>9.584</v>
       </c>
       <c r="F12" t="n">
-        <v>60819.17</v>
+        <v>140436.7568</v>
       </c>
       <c r="G12" t="n">
-        <v>9.522016666666673</v>
+        <v>9.520950000000006</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9.699999999999999</v>
+        <v>9.701000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>9.701000000000001</v>
+        <v>9.51</v>
       </c>
       <c r="D13" t="n">
         <v>9.701000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>9.699999999999999</v>
+        <v>9.51</v>
       </c>
       <c r="F13" t="n">
-        <v>18781.963</v>
+        <v>60819.17</v>
       </c>
       <c r="G13" t="n">
-        <v>9.526266666666674</v>
+        <v>9.522016666666673</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9.701000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C14" t="n">
         <v>9.701000000000001</v>
@@ -862,13 +862,13 @@
         <v>9.701000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>9.701000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>38000</v>
+        <v>18781.963</v>
       </c>
       <c r="G14" t="n">
-        <v>9.53258333333334</v>
+        <v>9.526266666666674</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9.800000000000001</v>
+        <v>9.701000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>9.545</v>
+        <v>9.701000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>9.800000000000001</v>
+        <v>9.701000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>9.544</v>
+        <v>9.701000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>28341.2</v>
+        <v>38000</v>
       </c>
       <c r="G15" t="n">
-        <v>9.534233333333338</v>
+        <v>9.53258333333334</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>9.699999999999999</v>
+        <v>9.545</v>
       </c>
       <c r="D16" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>9.699999999999999</v>
+        <v>9.544</v>
       </c>
       <c r="F16" t="n">
-        <v>2000</v>
+        <v>28341.2</v>
       </c>
       <c r="G16" t="n">
-        <v>9.538466666666672</v>
+        <v>9.534233333333338</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>9.699999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>55114.39</v>
+        <v>2000</v>
       </c>
       <c r="G17" t="n">
-        <v>9.541833333333338</v>
+        <v>9.538466666666672</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>9.699999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>4000</v>
+        <v>55114.39</v>
       </c>
       <c r="G18" t="n">
-        <v>9.545183333333339</v>
+        <v>9.541833333333338</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,16 +1040,16 @@
         <v>9.699999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>38885.61</v>
+        <v>4000</v>
       </c>
       <c r="G19" t="n">
-        <v>9.547350000000005</v>
+        <v>9.545183333333339</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1075,10 +1075,10 @@
         <v>9.699999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>2910.7562</v>
+        <v>38885.61</v>
       </c>
       <c r="G20" t="n">
-        <v>9.549516666666673</v>
+        <v>9.547350000000005</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9.635999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>9.630000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>9.635999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>9.630000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>43035.01</v>
+        <v>2910.7562</v>
       </c>
       <c r="G21" t="n">
-        <v>9.551700000000006</v>
+        <v>9.549516666666673</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>9.635999999999999</v>
+      </c>
+      <c r="C22" t="n">
         <v>9.630000000000001</v>
-      </c>
-      <c r="C22" t="n">
-        <v>9.635999999999999</v>
       </c>
       <c r="D22" t="n">
         <v>9.635999999999999</v>
@@ -1145,10 +1145,10 @@
         <v>9.630000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>69917.2228</v>
+        <v>43035.01</v>
       </c>
       <c r="G22" t="n">
-        <v>9.553983333333338</v>
+        <v>9.551700000000006</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>9.893000000000001</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>9.893000000000001</v>
+        <v>9.635999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>9.893000000000001</v>
+        <v>9.635999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>9.893000000000001</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>5090.0368</v>
+        <v>69917.2228</v>
       </c>
       <c r="G23" t="n">
-        <v>9.559033333333337</v>
+        <v>9.553983333333338</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9.81</v>
+        <v>9.893000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>9.81</v>
+        <v>9.893000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>9.81</v>
+        <v>9.893000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>9.81</v>
+        <v>9.893000000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>147.59</v>
+        <v>5090.0368</v>
       </c>
       <c r="G24" t="n">
-        <v>9.562700000000003</v>
+        <v>9.559033333333337</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>9.81</v>
       </c>
       <c r="F25" t="n">
-        <v>38361.5343</v>
+        <v>147.59</v>
       </c>
       <c r="G25" t="n">
-        <v>9.566533333333334</v>
+        <v>9.562700000000003</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>9.711</v>
+        <v>9.81</v>
       </c>
       <c r="C26" t="n">
-        <v>9.711</v>
+        <v>9.81</v>
       </c>
       <c r="D26" t="n">
-        <v>9.711</v>
+        <v>9.81</v>
       </c>
       <c r="E26" t="n">
-        <v>9.711</v>
+        <v>9.81</v>
       </c>
       <c r="F26" t="n">
-        <v>52</v>
+        <v>38361.5343</v>
       </c>
       <c r="G26" t="n">
-        <v>9.568716666666667</v>
+        <v>9.566533333333334</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,28 +1308,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>9.720000000000001</v>
+        <v>9.711</v>
       </c>
       <c r="C27" t="n">
         <v>9.711</v>
       </c>
       <c r="D27" t="n">
-        <v>9.720000000000001</v>
+        <v>9.711</v>
       </c>
       <c r="E27" t="n">
         <v>9.711</v>
       </c>
       <c r="F27" t="n">
-        <v>62349.2914</v>
+        <v>52</v>
       </c>
       <c r="G27" t="n">
-        <v>9.5709</v>
+        <v>9.568716666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>9.699999999999999</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>9.66</v>
+        <v>9.711</v>
       </c>
       <c r="D28" t="n">
-        <v>9.699999999999999</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>9.66</v>
+        <v>9.711</v>
       </c>
       <c r="F28" t="n">
-        <v>72795.0733</v>
+        <v>62349.2914</v>
       </c>
       <c r="G28" t="n">
-        <v>9.574083333333332</v>
+        <v>9.5709</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>9.635999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C29" t="n">
         <v>9.66</v>
       </c>
       <c r="D29" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="E29" t="n">
         <v>9.66</v>
       </c>
-      <c r="E29" t="n">
-        <v>9.6</v>
-      </c>
       <c r="F29" t="n">
-        <v>55888.8212</v>
+        <v>72795.0733</v>
       </c>
       <c r="G29" t="n">
-        <v>9.577066666666665</v>
+        <v>9.574083333333332</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>9.67</v>
+        <v>9.635999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>9.6</v>
+        <v>9.66</v>
       </c>
       <c r="D30" t="n">
-        <v>9.67</v>
+        <v>9.66</v>
       </c>
       <c r="E30" t="n">
         <v>9.6</v>
       </c>
       <c r="F30" t="n">
-        <v>83328.02370000001</v>
+        <v>55888.8212</v>
       </c>
       <c r="G30" t="n">
-        <v>9.579033333333333</v>
+        <v>9.577066666666665</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>9.550000000000001</v>
+        <v>9.67</v>
       </c>
       <c r="C31" t="n">
-        <v>9.550000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="D31" t="n">
-        <v>9.550000000000001</v>
+        <v>9.67</v>
       </c>
       <c r="E31" t="n">
-        <v>9.550000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="F31" t="n">
-        <v>2473.3955</v>
+        <v>83328.02370000001</v>
       </c>
       <c r="G31" t="n">
-        <v>9.580366666666665</v>
+        <v>9.579033333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>9.868</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>9.603</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>9.868</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>9.603</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="F32" t="n">
-        <v>71219.85799999999</v>
+        <v>2473.3955</v>
       </c>
       <c r="G32" t="n">
-        <v>9.582383333333331</v>
+        <v>9.580366666666665</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
+        <v>9.868</v>
+      </c>
+      <c r="C33" t="n">
         <v>9.603</v>
       </c>
-      <c r="C33" t="n">
-        <v>9.869999999999999</v>
-      </c>
       <c r="D33" t="n">
-        <v>9.879</v>
+        <v>9.868</v>
       </c>
       <c r="E33" t="n">
         <v>9.603</v>
       </c>
       <c r="F33" t="n">
-        <v>130054.3491</v>
+        <v>71219.85799999999</v>
       </c>
       <c r="G33" t="n">
-        <v>9.588849999999999</v>
+        <v>9.582383333333331</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>9.869999999999999</v>
+        <v>9.603</v>
       </c>
       <c r="C34" t="n">
         <v>9.869999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>9.869999999999999</v>
+        <v>9.879</v>
       </c>
       <c r="E34" t="n">
-        <v>9.869999999999999</v>
+        <v>9.603</v>
       </c>
       <c r="F34" t="n">
-        <v>48.1661</v>
+        <v>130054.3491</v>
       </c>
       <c r="G34" t="n">
-        <v>9.595316666666665</v>
+        <v>9.588849999999999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9.869</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>9.869</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>9.869</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>9.869</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>4396.0319</v>
+        <v>48.1661</v>
       </c>
       <c r="G35" t="n">
-        <v>9.601766666666666</v>
+        <v>9.595316666666665</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9.859999999999999</v>
+        <v>9.869</v>
       </c>
       <c r="C36" t="n">
-        <v>9.859999999999999</v>
+        <v>9.869</v>
       </c>
       <c r="D36" t="n">
-        <v>9.859999999999999</v>
+        <v>9.869</v>
       </c>
       <c r="E36" t="n">
-        <v>9.859999999999999</v>
+        <v>9.869</v>
       </c>
       <c r="F36" t="n">
-        <v>4400.1456</v>
+        <v>4396.0319</v>
       </c>
       <c r="G36" t="n">
-        <v>9.606483333333333</v>
+        <v>9.601766666666666</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9.661</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>9.601000000000001</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>9.661</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>9.601000000000001</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>90786.06939999999</v>
+        <v>4400.1456</v>
       </c>
       <c r="G37" t="n">
-        <v>9.606883333333334</v>
+        <v>9.606483333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>9.603</v>
+        <v>9.661</v>
       </c>
       <c r="C38" t="n">
-        <v>9.599</v>
+        <v>9.601000000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>9.603</v>
+        <v>9.661</v>
       </c>
       <c r="E38" t="n">
-        <v>9.599</v>
+        <v>9.601000000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>125727.889</v>
+        <v>90786.06939999999</v>
       </c>
       <c r="G38" t="n">
-        <v>9.607216666666668</v>
+        <v>9.606883333333334</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>9.603</v>
+      </c>
+      <c r="C39" t="n">
         <v>9.599</v>
       </c>
-      <c r="C39" t="n">
-        <v>9.789999999999999</v>
-      </c>
       <c r="D39" t="n">
-        <v>9.789999999999999</v>
+        <v>9.603</v>
       </c>
       <c r="E39" t="n">
         <v>9.599</v>
       </c>
       <c r="F39" t="n">
-        <v>21207</v>
+        <v>125727.889</v>
       </c>
       <c r="G39" t="n">
-        <v>9.610883333333334</v>
+        <v>9.607216666666668</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9.69</v>
+        <v>9.599</v>
       </c>
       <c r="C40" t="n">
-        <v>9.69</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>9.69</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>9.69</v>
+        <v>9.599</v>
       </c>
       <c r="F40" t="n">
-        <v>523.1575</v>
+        <v>21207</v>
       </c>
       <c r="G40" t="n">
-        <v>9.612900000000002</v>
+        <v>9.610883333333334</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>9.548</v>
+        <v>9.69</v>
       </c>
       <c r="C41" t="n">
-        <v>9.545</v>
+        <v>9.69</v>
       </c>
       <c r="D41" t="n">
-        <v>9.548</v>
+        <v>9.69</v>
       </c>
       <c r="E41" t="n">
-        <v>9.539999999999999</v>
+        <v>9.69</v>
       </c>
       <c r="F41" t="n">
-        <v>162930.3754</v>
+        <v>523.1575</v>
       </c>
       <c r="G41" t="n">
-        <v>9.614966666666668</v>
+        <v>9.612900000000002</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>9.545</v>
+        <v>9.548</v>
       </c>
       <c r="C42" t="n">
         <v>9.545</v>
       </c>
       <c r="D42" t="n">
-        <v>9.545</v>
+        <v>9.548</v>
       </c>
       <c r="E42" t="n">
-        <v>9.545</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>53917.6336</v>
+        <v>162930.3754</v>
       </c>
       <c r="G42" t="n">
-        <v>9.614566666666667</v>
+        <v>9.614966666666668</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1871,19 +1871,19 @@
         <v>9.545</v>
       </c>
       <c r="C43" t="n">
-        <v>9.41</v>
+        <v>9.545</v>
       </c>
       <c r="D43" t="n">
         <v>9.545</v>
       </c>
       <c r="E43" t="n">
-        <v>9.41</v>
+        <v>9.545</v>
       </c>
       <c r="F43" t="n">
-        <v>13714.89</v>
+        <v>53917.6336</v>
       </c>
       <c r="G43" t="n">
-        <v>9.611916666666668</v>
+        <v>9.614566666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>9.42</v>
+        <v>9.545</v>
       </c>
       <c r="C44" t="n">
-        <v>9.401999999999999</v>
+        <v>9.41</v>
       </c>
       <c r="D44" t="n">
-        <v>9.42</v>
+        <v>9.545</v>
       </c>
       <c r="E44" t="n">
-        <v>9.401999999999999</v>
+        <v>9.41</v>
       </c>
       <c r="F44" t="n">
-        <v>54893.6145</v>
+        <v>13714.89</v>
       </c>
       <c r="G44" t="n">
-        <v>9.609133333333336</v>
+        <v>9.611916666666668</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>9.538</v>
+        <v>9.42</v>
       </c>
       <c r="C45" t="n">
-        <v>9.538</v>
+        <v>9.401999999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>9.538</v>
+        <v>9.42</v>
       </c>
       <c r="E45" t="n">
-        <v>9.538</v>
+        <v>9.401999999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>3648.5546</v>
+        <v>54893.6145</v>
       </c>
       <c r="G45" t="n">
-        <v>9.60861666666667</v>
+        <v>9.609133333333336</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>9.528</v>
+        <v>9.538</v>
       </c>
       <c r="C46" t="n">
-        <v>9.528</v>
+        <v>9.538</v>
       </c>
       <c r="D46" t="n">
-        <v>9.528</v>
+        <v>9.538</v>
       </c>
       <c r="E46" t="n">
-        <v>9.528</v>
+        <v>9.538</v>
       </c>
       <c r="F46" t="n">
-        <v>32972.241</v>
+        <v>3648.5546</v>
       </c>
       <c r="G46" t="n">
-        <v>9.60791666666667</v>
+        <v>9.60861666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>9.532</v>
+        <v>9.528</v>
       </c>
       <c r="C47" t="n">
-        <v>9.532</v>
+        <v>9.528</v>
       </c>
       <c r="D47" t="n">
-        <v>9.532</v>
+        <v>9.528</v>
       </c>
       <c r="E47" t="n">
-        <v>9.532</v>
+        <v>9.528</v>
       </c>
       <c r="F47" t="n">
-        <v>2447.4526</v>
+        <v>32972.241</v>
       </c>
       <c r="G47" t="n">
-        <v>9.607150000000003</v>
+        <v>9.60791666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>9.532</v>
       </c>
       <c r="F48" t="n">
-        <v>10321.4168</v>
+        <v>2447.4526</v>
       </c>
       <c r="G48" t="n">
-        <v>9.606366666666672</v>
+        <v>9.607150000000003</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>9.558999999999999</v>
+        <v>9.532</v>
       </c>
       <c r="C49" t="n">
-        <v>9.558999999999999</v>
+        <v>9.532</v>
       </c>
       <c r="D49" t="n">
-        <v>9.558999999999999</v>
+        <v>9.532</v>
       </c>
       <c r="E49" t="n">
-        <v>9.558999999999999</v>
+        <v>9.532</v>
       </c>
       <c r="F49" t="n">
-        <v>15674</v>
+        <v>10321.4168</v>
       </c>
       <c r="G49" t="n">
-        <v>9.606033333333338</v>
+        <v>9.606366666666672</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>9.558999999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>15119.8981</v>
+        <v>15674</v>
       </c>
       <c r="G50" t="n">
-        <v>9.605850000000004</v>
+        <v>9.606033333333338</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>9.579000000000001</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>9.579000000000001</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>9.579000000000001</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>9.579000000000001</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>73375</v>
+        <v>15119.8981</v>
       </c>
       <c r="G51" t="n">
-        <v>9.606000000000002</v>
+        <v>9.605850000000004</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>9.579000000000001</v>
       </c>
       <c r="F52" t="n">
-        <v>5225.2488</v>
+        <v>73375</v>
       </c>
       <c r="G52" t="n">
-        <v>9.606150000000001</v>
+        <v>9.606000000000002</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2230,10 +2230,10 @@
         <v>9.579000000000001</v>
       </c>
       <c r="F53" t="n">
-        <v>22403.88</v>
+        <v>5225.2488</v>
       </c>
       <c r="G53" t="n">
-        <v>9.608000000000001</v>
+        <v>9.606150000000001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2256,19 +2256,19 @@
         <v>9.579000000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>9.470000000000001</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="D54" t="n">
         <v>9.579000000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>9.470000000000001</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="F54" t="n">
-        <v>6000</v>
+        <v>22403.88</v>
       </c>
       <c r="G54" t="n">
-        <v>9.60805</v>
+        <v>9.608000000000001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>9.449999999999999</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>9.4</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>9.619999999999999</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>9.394</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>319722.2921</v>
+        <v>6000</v>
       </c>
       <c r="G55" t="n">
-        <v>9.606933333333334</v>
+        <v>9.60805</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>9.484999999999999</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="D56" t="n">
-        <v>9.5</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>9.484</v>
+        <v>9.394</v>
       </c>
       <c r="F56" t="n">
-        <v>30751.94</v>
+        <v>319722.2921</v>
       </c>
       <c r="G56" t="n">
-        <v>9.607483333333334</v>
+        <v>9.606933333333334</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>9.49</v>
+        <v>9.484999999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>9.401999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="D57" t="n">
-        <v>9.49</v>
+        <v>9.5</v>
       </c>
       <c r="E57" t="n">
-        <v>9.4</v>
+        <v>9.484</v>
       </c>
       <c r="F57" t="n">
-        <v>25960.64</v>
+        <v>30751.94</v>
       </c>
       <c r="G57" t="n">
-        <v>9.60726666666667</v>
+        <v>9.607483333333334</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>9.420999999999999</v>
+        <v>9.49</v>
       </c>
       <c r="C58" t="n">
-        <v>9.4</v>
+        <v>9.401999999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>9.420999999999999</v>
+        <v>9.49</v>
       </c>
       <c r="E58" t="n">
         <v>9.4</v>
       </c>
       <c r="F58" t="n">
-        <v>240282.7586</v>
+        <v>25960.64</v>
       </c>
       <c r="G58" t="n">
-        <v>9.606150000000003</v>
+        <v>9.60726666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>9.420999999999999</v>
+      </c>
+      <c r="C59" t="n">
         <v>9.4</v>
       </c>
-      <c r="C59" t="n">
-        <v>9.227</v>
-      </c>
       <c r="D59" t="n">
+        <v>9.420999999999999</v>
+      </c>
+      <c r="E59" t="n">
         <v>9.4</v>
       </c>
-      <c r="E59" t="n">
-        <v>9.227</v>
-      </c>
       <c r="F59" t="n">
-        <v>396416.6184</v>
+        <v>240282.7586</v>
       </c>
       <c r="G59" t="n">
-        <v>9.602150000000002</v>
+        <v>9.606150000000003</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,32 +2463,38 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>9.348000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="C60" t="n">
-        <v>9.300000000000001</v>
+        <v>9.227</v>
       </c>
       <c r="D60" t="n">
-        <v>9.348000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="E60" t="n">
-        <v>9.300000000000001</v>
+        <v>9.227</v>
       </c>
       <c r="F60" t="n">
-        <v>21890</v>
+        <v>396416.6184</v>
       </c>
       <c r="G60" t="n">
-        <v>9.599366666666668</v>
+        <v>9.602150000000002</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>9.4</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2498,22 +2504,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>9.388</v>
+        <v>9.348000000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>9.388</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>9.388</v>
+        <v>9.348000000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>9.388</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F61" t="n">
-        <v>17553</v>
+        <v>21890</v>
       </c>
       <c r="G61" t="n">
-        <v>9.598050000000002</v>
+        <v>9.599366666666668</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2523,7 +2529,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2533,22 +2543,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>9.398999999999999</v>
+        <v>9.388</v>
       </c>
       <c r="C62" t="n">
-        <v>9.4</v>
+        <v>9.388</v>
       </c>
       <c r="D62" t="n">
-        <v>9.4</v>
+        <v>9.388</v>
       </c>
       <c r="E62" t="n">
-        <v>9.398999999999999</v>
+        <v>9.388</v>
       </c>
       <c r="F62" t="n">
-        <v>4149.232658191489</v>
+        <v>17553</v>
       </c>
       <c r="G62" t="n">
-        <v>9.596933333333336</v>
+        <v>9.598050000000002</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2558,7 +2568,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2568,7 +2582,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>9.228</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="C63" t="n">
         <v>9.4</v>
@@ -2577,13 +2591,13 @@
         <v>9.4</v>
       </c>
       <c r="E63" t="n">
-        <v>9.228</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="F63" t="n">
-        <v>40811.6461</v>
+        <v>4149.232658191489</v>
       </c>
       <c r="G63" t="n">
-        <v>9.593666666666669</v>
+        <v>9.596933333333336</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2593,7 +2607,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2603,7 +2621,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>9.4</v>
+        <v>9.228</v>
       </c>
       <c r="C64" t="n">
         <v>9.4</v>
@@ -2612,13 +2630,13 @@
         <v>9.4</v>
       </c>
       <c r="E64" t="n">
-        <v>9.4</v>
+        <v>9.228</v>
       </c>
       <c r="F64" t="n">
-        <v>5262.8227</v>
+        <v>40811.6461</v>
       </c>
       <c r="G64" t="n">
-        <v>9.590400000000001</v>
+        <v>9.593666666666669</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2628,7 +2646,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2638,22 +2660,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9.227</v>
+        <v>9.4</v>
       </c>
       <c r="C65" t="n">
-        <v>9.227</v>
+        <v>9.4</v>
       </c>
       <c r="D65" t="n">
-        <v>9.227</v>
+        <v>9.4</v>
       </c>
       <c r="E65" t="n">
-        <v>9.227</v>
+        <v>9.4</v>
       </c>
       <c r="F65" t="n">
-        <v>8500</v>
+        <v>5262.8227</v>
       </c>
       <c r="G65" t="n">
-        <v>9.584233333333335</v>
+        <v>9.590400000000001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2663,7 +2685,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2673,36 +2699,36 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>9.398999999999999</v>
+        <v>9.227</v>
       </c>
       <c r="C66" t="n">
-        <v>9.4</v>
+        <v>9.227</v>
       </c>
       <c r="D66" t="n">
-        <v>9.4</v>
+        <v>9.227</v>
       </c>
       <c r="E66" t="n">
-        <v>9.398999999999999</v>
+        <v>9.227</v>
       </c>
       <c r="F66" t="n">
-        <v>27278.2199</v>
+        <v>8500</v>
       </c>
       <c r="G66" t="n">
-        <v>9.583216666666667</v>
+        <v>9.584233333333335</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>9.227</v>
-      </c>
-      <c r="K66" t="n">
-        <v>9.227</v>
-      </c>
-      <c r="L66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2712,38 +2738,34 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>9.227</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>9.227</v>
+        <v>9.4</v>
       </c>
       <c r="D67" t="n">
-        <v>9.227</v>
+        <v>9.4</v>
       </c>
       <c r="E67" t="n">
-        <v>9.227</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="F67" t="n">
-        <v>2000</v>
+        <v>27278.2199</v>
       </c>
       <c r="G67" t="n">
-        <v>9.577066666666667</v>
+        <v>9.583216666666667</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="K67" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M67" t="n">
@@ -2755,38 +2777,34 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>9.250999999999999</v>
+        <v>9.227</v>
       </c>
       <c r="C68" t="n">
-        <v>9.250999999999999</v>
+        <v>9.227</v>
       </c>
       <c r="D68" t="n">
-        <v>9.250999999999999</v>
+        <v>9.227</v>
       </c>
       <c r="E68" t="n">
         <v>9.227</v>
       </c>
       <c r="F68" t="n">
-        <v>166015.9533</v>
+        <v>2000</v>
       </c>
       <c r="G68" t="n">
-        <v>9.573399999999999</v>
+        <v>9.577066666666667</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>9.227</v>
-      </c>
-      <c r="K68" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M68" t="n">
@@ -2798,35 +2816,31 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
+        <v>9.250999999999999</v>
+      </c>
+      <c r="C69" t="n">
+        <v>9.250999999999999</v>
+      </c>
+      <c r="D69" t="n">
+        <v>9.250999999999999</v>
+      </c>
+      <c r="E69" t="n">
         <v>9.227</v>
       </c>
-      <c r="C69" t="n">
-        <v>9.226000000000001</v>
-      </c>
-      <c r="D69" t="n">
-        <v>9.227</v>
-      </c>
-      <c r="E69" t="n">
-        <v>9.226000000000001</v>
-      </c>
       <c r="F69" t="n">
-        <v>80766.1548</v>
+        <v>166015.9533</v>
       </c>
       <c r="G69" t="n">
-        <v>9.567266666666665</v>
+        <v>9.573399999999999</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>9.250999999999999</v>
-      </c>
-      <c r="K69" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2841,35 +2855,31 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9.25</v>
+        <v>9.227</v>
       </c>
       <c r="C70" t="n">
-        <v>9.25</v>
+        <v>9.226000000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>9.25</v>
+        <v>9.227</v>
       </c>
       <c r="E70" t="n">
-        <v>9.25</v>
+        <v>9.226000000000001</v>
       </c>
       <c r="F70" t="n">
-        <v>1243</v>
+        <v>80766.1548</v>
       </c>
       <c r="G70" t="n">
-        <v>9.564083333333333</v>
+        <v>9.567266666666665</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>9.226000000000001</v>
-      </c>
-      <c r="K70" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2884,35 +2894,31 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>9.24</v>
+        <v>9.25</v>
       </c>
       <c r="C71" t="n">
-        <v>9.237</v>
+        <v>9.25</v>
       </c>
       <c r="D71" t="n">
-        <v>9.24</v>
+        <v>9.25</v>
       </c>
       <c r="E71" t="n">
-        <v>9.237</v>
+        <v>9.25</v>
       </c>
       <c r="F71" t="n">
-        <v>13032</v>
+        <v>1243</v>
       </c>
       <c r="G71" t="n">
-        <v>9.556199999999997</v>
+        <v>9.564083333333333</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="K71" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2930,19 +2936,19 @@
         <v>9.24</v>
       </c>
       <c r="C72" t="n">
-        <v>9.348000000000001</v>
+        <v>9.237</v>
       </c>
       <c r="D72" t="n">
-        <v>9.348000000000001</v>
+        <v>9.24</v>
       </c>
       <c r="E72" t="n">
-        <v>9.24</v>
+        <v>9.237</v>
       </c>
       <c r="F72" t="n">
-        <v>18025</v>
+        <v>13032</v>
       </c>
       <c r="G72" t="n">
-        <v>9.553499999999996</v>
+        <v>9.556199999999997</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2951,9 +2957,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2968,7 +2972,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9.348000000000001</v>
+        <v>9.24</v>
       </c>
       <c r="C73" t="n">
         <v>9.348000000000001</v>
@@ -2977,26 +2981,22 @@
         <v>9.348000000000001</v>
       </c>
       <c r="E73" t="n">
-        <v>9.348000000000001</v>
+        <v>9.24</v>
       </c>
       <c r="F73" t="n">
-        <v>5348.7377</v>
+        <v>18025</v>
       </c>
       <c r="G73" t="n">
-        <v>9.547616666666663</v>
+        <v>9.553499999999996</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>9.348000000000001</v>
-      </c>
-      <c r="K73" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3023,10 +3023,10 @@
         <v>9.348000000000001</v>
       </c>
       <c r="F74" t="n">
-        <v>75310.103</v>
+        <v>5348.7377</v>
       </c>
       <c r="G74" t="n">
-        <v>9.541733333333328</v>
+        <v>9.547616666666663</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3035,9 +3035,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3052,22 +3050,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>9.260999999999999</v>
+        <v>9.348000000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>9.226000000000001</v>
+        <v>9.348000000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>9.260999999999999</v>
+        <v>9.348000000000001</v>
       </c>
       <c r="E75" t="n">
-        <v>9.226000000000001</v>
+        <v>9.348000000000001</v>
       </c>
       <c r="F75" t="n">
-        <v>153787.3776</v>
+        <v>75310.103</v>
       </c>
       <c r="G75" t="n">
-        <v>9.536416666666662</v>
+        <v>9.541733333333328</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3076,9 +3074,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3093,22 +3089,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>9.329000000000001</v>
+        <v>9.260999999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>9.327999999999999</v>
+        <v>9.226000000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>9.33</v>
+        <v>9.260999999999999</v>
       </c>
       <c r="E76" t="n">
-        <v>9.32</v>
+        <v>9.226000000000001</v>
       </c>
       <c r="F76" t="n">
-        <v>89376</v>
+        <v>153787.3776</v>
       </c>
       <c r="G76" t="n">
-        <v>9.530216666666661</v>
+        <v>9.536416666666662</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3117,9 +3113,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3134,22 +3128,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>9.327999999999999</v>
+        <v>9.329000000000001</v>
       </c>
       <c r="C77" t="n">
         <v>9.327999999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>9.327999999999999</v>
+        <v>9.33</v>
       </c>
       <c r="E77" t="n">
-        <v>9.327999999999999</v>
+        <v>9.32</v>
       </c>
       <c r="F77" t="n">
-        <v>13298</v>
+        <v>89376</v>
       </c>
       <c r="G77" t="n">
-        <v>9.524016666666659</v>
+        <v>9.530216666666661</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3158,9 +3152,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3175,22 +3167,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>9.398999999999999</v>
+        <v>9.327999999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>9.41</v>
+        <v>9.327999999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>9.41</v>
+        <v>9.327999999999999</v>
       </c>
       <c r="E78" t="n">
-        <v>9.398999999999999</v>
+        <v>9.327999999999999</v>
       </c>
       <c r="F78" t="n">
-        <v>15689</v>
+        <v>13298</v>
       </c>
       <c r="G78" t="n">
-        <v>9.519183333333325</v>
+        <v>9.524016666666659</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3199,9 +3191,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3216,22 +3206,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
+        <v>9.398999999999999</v>
+      </c>
+      <c r="C79" t="n">
         <v>9.41</v>
       </c>
-      <c r="C79" t="n">
-        <v>9.557</v>
-      </c>
       <c r="D79" t="n">
-        <v>9.557</v>
+        <v>9.41</v>
       </c>
       <c r="E79" t="n">
-        <v>9.41</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="F79" t="n">
-        <v>1597</v>
+        <v>15689</v>
       </c>
       <c r="G79" t="n">
-        <v>9.516799999999991</v>
+        <v>9.519183333333325</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3240,9 +3230,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3257,22 +3245,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>9.353999999999999</v>
+        <v>9.41</v>
       </c>
       <c r="C80" t="n">
-        <v>9.353999999999999</v>
+        <v>9.557</v>
       </c>
       <c r="D80" t="n">
-        <v>9.353999999999999</v>
+        <v>9.557</v>
       </c>
       <c r="E80" t="n">
-        <v>9.353999999999999</v>
+        <v>9.41</v>
       </c>
       <c r="F80" t="n">
-        <v>129387.7176</v>
+        <v>1597</v>
       </c>
       <c r="G80" t="n">
-        <v>9.511033333333325</v>
+        <v>9.516799999999991</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3281,9 +3269,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3298,22 +3284,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>9.381</v>
+        <v>9.353999999999999</v>
       </c>
       <c r="C81" t="n">
         <v>9.353999999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>9.381</v>
+        <v>9.353999999999999</v>
       </c>
       <c r="E81" t="n">
         <v>9.353999999999999</v>
       </c>
       <c r="F81" t="n">
-        <v>60048.8107</v>
+        <v>129387.7176</v>
       </c>
       <c r="G81" t="n">
-        <v>9.506433333333325</v>
+        <v>9.511033333333325</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3322,9 +3308,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3339,22 +3323,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9.4</v>
+        <v>9.381</v>
       </c>
       <c r="C82" t="n">
-        <v>9.4</v>
+        <v>9.353999999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>9.4</v>
+        <v>9.381</v>
       </c>
       <c r="E82" t="n">
-        <v>9.4</v>
+        <v>9.353999999999999</v>
       </c>
       <c r="F82" t="n">
-        <v>800</v>
+        <v>60048.8107</v>
       </c>
       <c r="G82" t="n">
-        <v>9.502499999999992</v>
+        <v>9.506433333333325</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3363,9 +3347,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3380,22 +3362,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9.571</v>
+        <v>9.4</v>
       </c>
       <c r="C83" t="n">
-        <v>9.571</v>
+        <v>9.4</v>
       </c>
       <c r="D83" t="n">
-        <v>9.571</v>
+        <v>9.4</v>
       </c>
       <c r="E83" t="n">
-        <v>9.571</v>
+        <v>9.4</v>
       </c>
       <c r="F83" t="n">
-        <v>64.1121</v>
+        <v>800</v>
       </c>
       <c r="G83" t="n">
-        <v>9.497133333333325</v>
+        <v>9.502499999999992</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3404,9 +3386,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3421,22 +3401,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9.516999999999999</v>
+        <v>9.571</v>
       </c>
       <c r="C84" t="n">
-        <v>9.516999999999999</v>
+        <v>9.571</v>
       </c>
       <c r="D84" t="n">
-        <v>9.516999999999999</v>
+        <v>9.571</v>
       </c>
       <c r="E84" t="n">
-        <v>9.516999999999999</v>
+        <v>9.571</v>
       </c>
       <c r="F84" t="n">
-        <v>5789</v>
+        <v>64.1121</v>
       </c>
       <c r="G84" t="n">
-        <v>9.492249999999993</v>
+        <v>9.497133333333325</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3445,9 +3425,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3462,22 +3440,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9.398999999999999</v>
+        <v>9.516999999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>9.388</v>
+        <v>9.516999999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>9.398999999999999</v>
+        <v>9.516999999999999</v>
       </c>
       <c r="E85" t="n">
-        <v>9.353999999999999</v>
+        <v>9.516999999999999</v>
       </c>
       <c r="F85" t="n">
-        <v>74664.5131</v>
+        <v>5789</v>
       </c>
       <c r="G85" t="n">
-        <v>9.485216666666663</v>
+        <v>9.492249999999993</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3486,9 +3464,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3503,22 +3479,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
+        <v>9.398999999999999</v>
+      </c>
+      <c r="C86" t="n">
         <v>9.388</v>
       </c>
-      <c r="C86" t="n">
-        <v>9.478999999999999</v>
-      </c>
       <c r="D86" t="n">
-        <v>9.478999999999999</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="E86" t="n">
-        <v>9.388</v>
+        <v>9.353999999999999</v>
       </c>
       <c r="F86" t="n">
-        <v>10000</v>
+        <v>74664.5131</v>
       </c>
       <c r="G86" t="n">
-        <v>9.481349999999996</v>
+        <v>9.485216666666663</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3527,9 +3503,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3544,22 +3518,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>9.539</v>
+        <v>9.388</v>
       </c>
       <c r="C87" t="n">
-        <v>9.539</v>
+        <v>9.478999999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>9.539</v>
+        <v>9.478999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>9.539</v>
+        <v>9.388</v>
       </c>
       <c r="F87" t="n">
-        <v>102.2269</v>
+        <v>10000</v>
       </c>
       <c r="G87" t="n">
-        <v>9.478483333333328</v>
+        <v>9.481349999999996</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3568,9 +3542,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3585,22 +3557,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>9.359999999999999</v>
+        <v>9.539</v>
       </c>
       <c r="C88" t="n">
-        <v>9.471</v>
+        <v>9.539</v>
       </c>
       <c r="D88" t="n">
-        <v>9.545999999999999</v>
+        <v>9.539</v>
       </c>
       <c r="E88" t="n">
-        <v>9.359999999999999</v>
+        <v>9.539</v>
       </c>
       <c r="F88" t="n">
-        <v>46906.1453</v>
+        <v>102.2269</v>
       </c>
       <c r="G88" t="n">
-        <v>9.47533333333333</v>
+        <v>9.478483333333328</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3609,9 +3581,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3626,22 +3596,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9.355</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>9.355</v>
+        <v>9.471</v>
       </c>
       <c r="D89" t="n">
-        <v>9.355</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="E89" t="n">
-        <v>9.355</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="F89" t="n">
-        <v>59067.4799</v>
+        <v>46906.1453</v>
       </c>
       <c r="G89" t="n">
-        <v>9.470249999999997</v>
+        <v>9.47533333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3650,9 +3620,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3667,22 +3635,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>9.477</v>
+        <v>9.355</v>
       </c>
       <c r="C90" t="n">
-        <v>9.477</v>
+        <v>9.355</v>
       </c>
       <c r="D90" t="n">
-        <v>9.477</v>
+        <v>9.355</v>
       </c>
       <c r="E90" t="n">
-        <v>9.477</v>
+        <v>9.355</v>
       </c>
       <c r="F90" t="n">
-        <v>108</v>
+        <v>59067.4799</v>
       </c>
       <c r="G90" t="n">
-        <v>9.468199999999996</v>
+        <v>9.470249999999997</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3691,9 +3659,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3708,22 +3674,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9.355</v>
+        <v>9.477</v>
       </c>
       <c r="C91" t="n">
-        <v>9.355</v>
+        <v>9.477</v>
       </c>
       <c r="D91" t="n">
-        <v>9.355</v>
+        <v>9.477</v>
       </c>
       <c r="E91" t="n">
-        <v>9.355</v>
+        <v>9.477</v>
       </c>
       <c r="F91" t="n">
         <v>108</v>
       </c>
       <c r="G91" t="n">
-        <v>9.464949999999996</v>
+        <v>9.468199999999996</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3732,9 +3698,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3749,22 +3713,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>9.475</v>
+        <v>9.355</v>
       </c>
       <c r="C92" t="n">
-        <v>9.475</v>
+        <v>9.355</v>
       </c>
       <c r="D92" t="n">
-        <v>9.475</v>
+        <v>9.355</v>
       </c>
       <c r="E92" t="n">
-        <v>9.475</v>
+        <v>9.355</v>
       </c>
       <c r="F92" t="n">
-        <v>109.2177</v>
+        <v>108</v>
       </c>
       <c r="G92" t="n">
-        <v>9.462816666666665</v>
+        <v>9.464949999999996</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3773,9 +3737,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3790,22 +3752,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9.407999999999999</v>
+        <v>9.475</v>
       </c>
       <c r="C93" t="n">
-        <v>9.407999999999999</v>
+        <v>9.475</v>
       </c>
       <c r="D93" t="n">
-        <v>9.407999999999999</v>
+        <v>9.475</v>
       </c>
       <c r="E93" t="n">
-        <v>9.407999999999999</v>
+        <v>9.475</v>
       </c>
       <c r="F93" t="n">
-        <v>6351</v>
+        <v>109.2177</v>
       </c>
       <c r="G93" t="n">
-        <v>9.455116666666665</v>
+        <v>9.462816666666665</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3814,9 +3776,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3831,22 +3791,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>9.4</v>
+        <v>9.407999999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>9.398999999999999</v>
+        <v>9.407999999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>9.4</v>
+        <v>9.407999999999999</v>
       </c>
       <c r="E94" t="n">
-        <v>9.398999999999999</v>
+        <v>9.407999999999999</v>
       </c>
       <c r="F94" t="n">
-        <v>29152.9999</v>
+        <v>6351</v>
       </c>
       <c r="G94" t="n">
-        <v>9.447266666666666</v>
+        <v>9.455116666666665</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3855,9 +3815,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3872,22 +3830,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>9.470000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="C95" t="n">
-        <v>9.470000000000001</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>9.470000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="E95" t="n">
-        <v>9.470000000000001</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="F95" t="n">
-        <v>2000</v>
+        <v>29152.9999</v>
       </c>
       <c r="G95" t="n">
-        <v>9.440616666666665</v>
+        <v>9.447266666666666</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3896,9 +3854,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3913,22 +3869,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>9.467000000000001</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>9.467000000000001</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>9.467000000000001</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="E96" t="n">
-        <v>9.467000000000001</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="F96" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="G96" t="n">
-        <v>9.434066666666665</v>
+        <v>9.440616666666665</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3937,9 +3893,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3957,19 +3911,19 @@
         <v>9.467000000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>9.488</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>9.488</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="E97" t="n">
         <v>9.467000000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="G97" t="n">
-        <v>9.432183333333333</v>
+        <v>9.434066666666665</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3978,9 +3932,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3995,22 +3947,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>9.48</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>9.470000000000001</v>
+        <v>9.488</v>
       </c>
       <c r="D98" t="n">
-        <v>9.48</v>
+        <v>9.488</v>
       </c>
       <c r="E98" t="n">
-        <v>9.470000000000001</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="F98" t="n">
-        <v>37040.1478</v>
+        <v>8000</v>
       </c>
       <c r="G98" t="n">
-        <v>9.430033333333332</v>
+        <v>9.432183333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4019,9 +3971,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4036,10 +3986,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="C99" t="n">
         <v>9.470000000000001</v>
-      </c>
-      <c r="C99" t="n">
-        <v>9.48</v>
       </c>
       <c r="D99" t="n">
         <v>9.48</v>
@@ -4048,10 +3998,10 @@
         <v>9.470000000000001</v>
       </c>
       <c r="F99" t="n">
-        <v>21588</v>
+        <v>37040.1478</v>
       </c>
       <c r="G99" t="n">
-        <v>9.424866666666667</v>
+        <v>9.430033333333332</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4060,9 +4010,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4077,7 +4025,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>9.48</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="C100" t="n">
         <v>9.48</v>
@@ -4086,13 +4034,13 @@
         <v>9.48</v>
       </c>
       <c r="E100" t="n">
-        <v>9.48</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="F100" t="n">
-        <v>6000</v>
+        <v>21588</v>
       </c>
       <c r="G100" t="n">
-        <v>9.421366666666666</v>
+        <v>9.424866666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4101,9 +4049,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4133,7 +4079,7 @@
         <v>6000</v>
       </c>
       <c r="G101" t="n">
-        <v>9.420283333333334</v>
+        <v>9.421366666666666</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4142,9 +4088,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4171,10 +4115,10 @@
         <v>9.48</v>
       </c>
       <c r="F102" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G102" t="n">
-        <v>9.4192</v>
+        <v>9.420283333333334</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4183,9 +4127,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4215,7 +4157,7 @@
         <v>2000</v>
       </c>
       <c r="G103" t="n">
-        <v>9.420366666666668</v>
+        <v>9.4192</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4224,9 +4166,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4253,10 +4193,10 @@
         <v>9.48</v>
       </c>
       <c r="F104" t="n">
-        <v>165</v>
+        <v>2000</v>
       </c>
       <c r="G104" t="n">
-        <v>9.421666666666669</v>
+        <v>9.420366666666668</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4265,9 +4205,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4297,7 +4235,7 @@
         <v>165</v>
       </c>
       <c r="G105" t="n">
-        <v>9.420700000000002</v>
+        <v>9.421666666666669</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4306,9 +4244,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4335,10 +4271,10 @@
         <v>9.48</v>
       </c>
       <c r="F106" t="n">
-        <v>600</v>
+        <v>165</v>
       </c>
       <c r="G106" t="n">
-        <v>9.419900000000002</v>
+        <v>9.420700000000002</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4347,9 +4283,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4367,19 +4301,19 @@
         <v>9.48</v>
       </c>
       <c r="C107" t="n">
-        <v>9.539</v>
+        <v>9.48</v>
       </c>
       <c r="D107" t="n">
-        <v>9.539</v>
+        <v>9.48</v>
       </c>
       <c r="E107" t="n">
         <v>9.48</v>
       </c>
       <c r="F107" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="G107" t="n">
-        <v>9.420016666666667</v>
+        <v>9.419900000000002</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4388,9 +4322,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4405,22 +4337,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>9.449999999999999</v>
+        <v>9.48</v>
       </c>
       <c r="C108" t="n">
-        <v>9.535</v>
+        <v>9.539</v>
       </c>
       <c r="D108" t="n">
-        <v>9.535</v>
+        <v>9.539</v>
       </c>
       <c r="E108" t="n">
-        <v>9.449999999999999</v>
+        <v>9.48</v>
       </c>
       <c r="F108" t="n">
-        <v>10309.6884</v>
+        <v>100</v>
       </c>
       <c r="G108" t="n">
-        <v>9.420066666666665</v>
+        <v>9.420016666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4429,9 +4361,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4449,19 +4379,19 @@
         <v>9.449999999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>9.481</v>
+        <v>9.535</v>
       </c>
       <c r="D109" t="n">
-        <v>9.526999999999999</v>
+        <v>9.535</v>
       </c>
       <c r="E109" t="n">
         <v>9.449999999999999</v>
       </c>
       <c r="F109" t="n">
-        <v>15886.236</v>
+        <v>10309.6884</v>
       </c>
       <c r="G109" t="n">
-        <v>9.418766666666667</v>
+        <v>9.420066666666665</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4470,9 +4400,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4487,22 +4415,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>9.468</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>9.526999999999999</v>
+        <v>9.481</v>
       </c>
       <c r="D110" t="n">
         <v>9.526999999999999</v>
       </c>
       <c r="E110" t="n">
-        <v>9.468</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="F110" t="n">
-        <v>261.6698</v>
+        <v>15886.236</v>
       </c>
       <c r="G110" t="n">
-        <v>9.418233333333335</v>
+        <v>9.418766666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4511,9 +4439,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4528,7 +4454,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>9.526999999999999</v>
+        <v>9.468</v>
       </c>
       <c r="C111" t="n">
         <v>9.526999999999999</v>
@@ -4537,13 +4463,13 @@
         <v>9.526999999999999</v>
       </c>
       <c r="E111" t="n">
-        <v>9.526999999999999</v>
+        <v>9.468</v>
       </c>
       <c r="F111" t="n">
-        <v>165</v>
+        <v>261.6698</v>
       </c>
       <c r="G111" t="n">
-        <v>9.41736666666667</v>
+        <v>9.418233333333335</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4552,9 +4478,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4569,22 +4493,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>9.481</v>
+        <v>9.526999999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>9.44</v>
+        <v>9.526999999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>9.481</v>
+        <v>9.526999999999999</v>
       </c>
       <c r="E112" t="n">
-        <v>9.44</v>
+        <v>9.526999999999999</v>
       </c>
       <c r="F112" t="n">
-        <v>15674</v>
+        <v>165</v>
       </c>
       <c r="G112" t="n">
-        <v>9.415050000000004</v>
+        <v>9.41736666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4593,9 +4517,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4610,22 +4532,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>9.44</v>
+        <v>9.481</v>
       </c>
       <c r="C113" t="n">
         <v>9.44</v>
       </c>
       <c r="D113" t="n">
-        <v>9.44</v>
+        <v>9.481</v>
       </c>
       <c r="E113" t="n">
         <v>9.44</v>
       </c>
       <c r="F113" t="n">
-        <v>7001.651</v>
+        <v>15674</v>
       </c>
       <c r="G113" t="n">
-        <v>9.412733333333339</v>
+        <v>9.415050000000004</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4634,9 +4556,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4651,22 +4571,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>9.433</v>
+        <v>9.44</v>
       </c>
       <c r="C114" t="n">
-        <v>9.433</v>
+        <v>9.44</v>
       </c>
       <c r="D114" t="n">
-        <v>9.433</v>
+        <v>9.44</v>
       </c>
       <c r="E114" t="n">
-        <v>9.433</v>
+        <v>9.44</v>
       </c>
       <c r="F114" t="n">
-        <v>72674</v>
+        <v>7001.651</v>
       </c>
       <c r="G114" t="n">
-        <v>9.412116666666671</v>
+        <v>9.412733333333339</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4675,9 +4595,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4695,19 +4613,19 @@
         <v>9.433</v>
       </c>
       <c r="C115" t="n">
-        <v>9.432</v>
+        <v>9.433</v>
       </c>
       <c r="D115" t="n">
         <v>9.433</v>
       </c>
       <c r="E115" t="n">
-        <v>9.432</v>
+        <v>9.433</v>
       </c>
       <c r="F115" t="n">
-        <v>838.3200000000001</v>
+        <v>72674</v>
       </c>
       <c r="G115" t="n">
-        <v>9.412650000000006</v>
+        <v>9.412116666666671</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4716,9 +4634,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4733,22 +4649,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>9.369999999999999</v>
+        <v>9.433</v>
       </c>
       <c r="C116" t="n">
-        <v>9.369999999999999</v>
+        <v>9.432</v>
       </c>
       <c r="D116" t="n">
-        <v>9.369999999999999</v>
+        <v>9.433</v>
       </c>
       <c r="E116" t="n">
-        <v>9.369999999999999</v>
+        <v>9.432</v>
       </c>
       <c r="F116" t="n">
-        <v>822.0015</v>
+        <v>838.3200000000001</v>
       </c>
       <c r="G116" t="n">
-        <v>9.410483333333339</v>
+        <v>9.412650000000006</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4757,9 +4673,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4774,22 +4688,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>9.523</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>9.523999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>9.523999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="E117" t="n">
-        <v>9.523</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="F117" t="n">
-        <v>7781.834</v>
+        <v>822.0015</v>
       </c>
       <c r="G117" t="n">
-        <v>9.412516666666672</v>
+        <v>9.410483333333339</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4798,9 +4712,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4815,22 +4727,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>9.539999999999999</v>
+        <v>9.523</v>
       </c>
       <c r="C118" t="n">
-        <v>9.539999999999999</v>
+        <v>9.523999999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>9.539999999999999</v>
+        <v>9.523999999999999</v>
       </c>
       <c r="E118" t="n">
-        <v>9.539999999999999</v>
+        <v>9.523</v>
       </c>
       <c r="F118" t="n">
-        <v>1868</v>
+        <v>7781.834</v>
       </c>
       <c r="G118" t="n">
-        <v>9.414850000000005</v>
+        <v>9.412516666666672</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4839,9 +4751,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4856,22 +4766,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>9.545</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>9.545</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>9.545</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="E119" t="n">
-        <v>9.545</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="F119" t="n">
-        <v>2567.0774</v>
+        <v>1868</v>
       </c>
       <c r="G119" t="n">
-        <v>9.420150000000005</v>
+        <v>9.414850000000005</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4880,9 +4790,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4897,22 +4805,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>9.545999999999999</v>
+        <v>9.545</v>
       </c>
       <c r="C120" t="n">
         <v>9.545</v>
       </c>
       <c r="D120" t="n">
-        <v>9.545999999999999</v>
+        <v>9.545</v>
       </c>
       <c r="E120" t="n">
         <v>9.545</v>
       </c>
       <c r="F120" t="n">
-        <v>47238.9371</v>
+        <v>2567.0774</v>
       </c>
       <c r="G120" t="n">
-        <v>9.424233333333339</v>
+        <v>9.420150000000005</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4921,9 +4829,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4941,19 +4847,19 @@
         <v>9.545999999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>9.545999999999999</v>
+        <v>9.545</v>
       </c>
       <c r="D121" t="n">
         <v>9.545999999999999</v>
       </c>
       <c r="E121" t="n">
-        <v>9.545999999999999</v>
+        <v>9.545</v>
       </c>
       <c r="F121" t="n">
-        <v>15000</v>
+        <v>47238.9371</v>
       </c>
       <c r="G121" t="n">
-        <v>9.426866666666673</v>
+        <v>9.424233333333339</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4962,9 +4868,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4979,22 +4883,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>9.449999999999999</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>9.460000000000001</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="D122" t="n">
-        <v>9.460000000000001</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="E122" t="n">
-        <v>9.449999999999999</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="F122" t="n">
-        <v>25645.5252</v>
+        <v>15000</v>
       </c>
       <c r="G122" t="n">
-        <v>9.427866666666672</v>
+        <v>9.426866666666673</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5003,9 +4907,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5020,22 +4922,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>9.433</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>9.422000000000001</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>9.433</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="E123" t="n">
-        <v>9.422000000000001</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="F123" t="n">
-        <v>15674</v>
+        <v>25645.5252</v>
       </c>
       <c r="G123" t="n">
-        <v>9.42823333333334</v>
+        <v>9.427866666666672</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5044,9 +4946,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5061,13 +4961,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>9.422000000000001</v>
+        <v>9.433</v>
       </c>
       <c r="C124" t="n">
         <v>9.422000000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>9.422000000000001</v>
+        <v>9.433</v>
       </c>
       <c r="E124" t="n">
         <v>9.422000000000001</v>
@@ -5076,7 +4976,7 @@
         <v>15674</v>
       </c>
       <c r="G124" t="n">
-        <v>9.428600000000008</v>
+        <v>9.42823333333334</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5085,9 +4985,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5102,22 +5000,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>9.449</v>
+        <v>9.422000000000001</v>
       </c>
       <c r="C125" t="n">
-        <v>9.449</v>
+        <v>9.422000000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>9.449</v>
+        <v>9.422000000000001</v>
       </c>
       <c r="E125" t="n">
-        <v>9.449</v>
+        <v>9.422000000000001</v>
       </c>
       <c r="F125" t="n">
-        <v>130654.7648</v>
+        <v>15674</v>
       </c>
       <c r="G125" t="n">
-        <v>9.432300000000007</v>
+        <v>9.428600000000008</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5126,9 +5024,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5146,19 +5042,19 @@
         <v>9.449</v>
       </c>
       <c r="C126" t="n">
-        <v>9.5</v>
+        <v>9.449</v>
       </c>
       <c r="D126" t="n">
-        <v>9.5</v>
+        <v>9.449</v>
       </c>
       <c r="E126" t="n">
         <v>9.449</v>
       </c>
       <c r="F126" t="n">
-        <v>63365</v>
+        <v>130654.7648</v>
       </c>
       <c r="G126" t="n">
-        <v>9.433966666666674</v>
+        <v>9.432300000000007</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5167,9 +5063,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5184,7 +5078,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>9.5</v>
+        <v>9.449</v>
       </c>
       <c r="C127" t="n">
         <v>9.5</v>
@@ -5193,13 +5087,13 @@
         <v>9.5</v>
       </c>
       <c r="E127" t="n">
-        <v>9.5</v>
+        <v>9.449</v>
       </c>
       <c r="F127" t="n">
-        <v>54.0998</v>
+        <v>63365</v>
       </c>
       <c r="G127" t="n">
-        <v>9.438516666666676</v>
+        <v>9.433966666666674</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5208,9 +5102,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>9.227</v>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5237,27 +5129,64 @@
         <v>9.5</v>
       </c>
       <c r="F128" t="n">
+        <v>54.0998</v>
+      </c>
+      <c r="G128" t="n">
+        <v>9.438516666666676</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C129" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="D129" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E129" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F129" t="n">
         <v>19890.9002</v>
       </c>
-      <c r="G128" t="n">
+      <c r="G129" t="n">
         <v>9.442666666666675</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>9.227</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-12 BackTest OGO.xlsx
+++ b/BackTest/2020-01-12 BackTest OGO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M129"/>
+  <dimension ref="A1:N139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>410.1799</v>
       </c>
       <c r="G2" t="n">
+        <v>9.506533333333342</v>
+      </c>
+      <c r="H2" t="n">
         <v>9.49951666666667</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>50000</v>
       </c>
       <c r="G3" t="n">
+        <v>9.499133333333342</v>
+      </c>
+      <c r="H3" t="n">
         <v>9.499450000000003</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="L3" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,29 @@
         <v>747</v>
       </c>
       <c r="G4" t="n">
+        <v>9.500266666666676</v>
+      </c>
+      <c r="H4" t="n">
         <v>9.501533333333336</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,29 @@
         <v>5196.969</v>
       </c>
       <c r="G5" t="n">
+        <v>9.501400000000009</v>
+      </c>
+      <c r="H5" t="n">
         <v>9.503950000000003</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>9.596</v>
+      </c>
+      <c r="L5" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +625,27 @@
         <v>137.3023</v>
       </c>
       <c r="G6" t="n">
+        <v>9.50320000000001</v>
+      </c>
+      <c r="H6" t="n">
         <v>9.505583333333336</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="L6" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +669,27 @@
         <v>137.3023</v>
       </c>
       <c r="G7" t="n">
+        <v>9.495933333333344</v>
+      </c>
+      <c r="H7" t="n">
         <v>9.505750000000003</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="L7" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +713,27 @@
         <v>151.3427</v>
       </c>
       <c r="G8" t="n">
+        <v>9.497666666666678</v>
+      </c>
+      <c r="H8" t="n">
         <v>9.510683333333336</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="L8" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +757,27 @@
         <v>30483.581</v>
       </c>
       <c r="G9" t="n">
+        <v>9.497866666666679</v>
+      </c>
+      <c r="H9" t="n">
         <v>9.51186666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="L9" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +801,27 @@
         <v>29336</v>
       </c>
       <c r="G10" t="n">
+        <v>9.506333333333345</v>
+      </c>
+      <c r="H10" t="n">
         <v>9.515100000000006</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="L10" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +845,27 @@
         <v>222</v>
       </c>
       <c r="G11" t="n">
+        <v>9.504600000000011</v>
+      </c>
+      <c r="H11" t="n">
         <v>9.515783333333339</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="L11" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +889,29 @@
         <v>140436.7568</v>
       </c>
       <c r="G12" t="n">
+        <v>9.52080000000001</v>
+      </c>
+      <c r="H12" t="n">
         <v>9.520950000000006</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>9.441000000000001</v>
+      </c>
+      <c r="L12" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +935,27 @@
         <v>60819.17</v>
       </c>
       <c r="G13" t="n">
+        <v>9.527133333333344</v>
+      </c>
+      <c r="H13" t="n">
         <v>9.522016666666673</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="L13" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +979,27 @@
         <v>18781.963</v>
       </c>
       <c r="G14" t="n">
+        <v>9.542733333333342</v>
+      </c>
+      <c r="H14" t="n">
         <v>9.526266666666674</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="L14" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1023,27 @@
         <v>38000</v>
       </c>
       <c r="G15" t="n">
+        <v>9.558333333333341</v>
+      </c>
+      <c r="H15" t="n">
         <v>9.53258333333334</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="L15" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1067,27 @@
         <v>28341.2</v>
       </c>
       <c r="G16" t="n">
+        <v>9.563533333333339</v>
+      </c>
+      <c r="H16" t="n">
         <v>9.534233333333338</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="L16" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1111,27 @@
         <v>2000</v>
       </c>
       <c r="G17" t="n">
+        <v>9.579066666666671</v>
+      </c>
+      <c r="H17" t="n">
         <v>9.538466666666672</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="L17" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1155,27 @@
         <v>55114.39</v>
       </c>
       <c r="G18" t="n">
+        <v>9.594600000000003</v>
+      </c>
+      <c r="H18" t="n">
         <v>9.541833333333338</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="L18" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1199,27 @@
         <v>4000</v>
       </c>
       <c r="G19" t="n">
+        <v>9.601533333333334</v>
+      </c>
+      <c r="H19" t="n">
         <v>9.545183333333339</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="L19" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1243,27 @@
         <v>38885.61</v>
       </c>
       <c r="G20" t="n">
+        <v>9.608466666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>9.547350000000005</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1287,27 @@
         <v>2910.7562</v>
       </c>
       <c r="G21" t="n">
+        <v>9.615333333333332</v>
+      </c>
+      <c r="H21" t="n">
         <v>9.549516666666673</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="L21" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1331,27 @@
         <v>43035.01</v>
       </c>
       <c r="G22" t="n">
+        <v>9.626599999999998</v>
+      </c>
+      <c r="H22" t="n">
         <v>9.551700000000006</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1375,27 @@
         <v>69917.2228</v>
       </c>
       <c r="G23" t="n">
+        <v>9.629266666666664</v>
+      </c>
+      <c r="H23" t="n">
         <v>9.553983333333338</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1419,27 @@
         <v>5090.0368</v>
       </c>
       <c r="G24" t="n">
+        <v>9.657399999999997</v>
+      </c>
+      <c r="H24" t="n">
         <v>9.559033333333337</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1463,27 @@
         <v>147.59</v>
       </c>
       <c r="G25" t="n">
+        <v>9.671799999999998</v>
+      </c>
+      <c r="H25" t="n">
         <v>9.562700000000003</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1507,27 @@
         <v>38361.5343</v>
       </c>
       <c r="G26" t="n">
+        <v>9.696399999999999</v>
+      </c>
+      <c r="H26" t="n">
         <v>9.566533333333334</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1551,27 @@
         <v>52</v>
       </c>
       <c r="G27" t="n">
+        <v>9.696466666666664</v>
+      </c>
+      <c r="H27" t="n">
         <v>9.568716666666667</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1595,27 @@
         <v>62349.2914</v>
       </c>
       <c r="G28" t="n">
+        <v>9.709866666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>9.5709</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1639,27 @@
         <v>72795.0733</v>
       </c>
       <c r="G29" t="n">
+        <v>9.707133333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>9.574083333333332</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1683,27 @@
         <v>55888.8212</v>
       </c>
       <c r="G30" t="n">
+        <v>9.7044</v>
+      </c>
+      <c r="H30" t="n">
         <v>9.577066666666665</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1727,27 @@
         <v>83328.02370000001</v>
       </c>
       <c r="G31" t="n">
+        <v>9.708066666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>9.579033333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1771,27 @@
         <v>2473.3955</v>
       </c>
       <c r="G32" t="n">
+        <v>9.698066666666669</v>
+      </c>
+      <c r="H32" t="n">
         <v>9.580366666666665</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1815,27 @@
         <v>71219.85799999999</v>
       </c>
       <c r="G33" t="n">
+        <v>9.691600000000003</v>
+      </c>
+      <c r="H33" t="n">
         <v>9.582383333333331</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1859,27 @@
         <v>130054.3491</v>
       </c>
       <c r="G34" t="n">
+        <v>9.702933333333338</v>
+      </c>
+      <c r="H34" t="n">
         <v>9.588849999999999</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1903,27 @@
         <v>48.1661</v>
       </c>
       <c r="G35" t="n">
+        <v>9.714266666666672</v>
+      </c>
+      <c r="H35" t="n">
         <v>9.595316666666665</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,19 +1947,28 @@
         <v>4396.0319</v>
       </c>
       <c r="G36" t="n">
+        <v>9.72553333333334</v>
+      </c>
+      <c r="H36" t="n">
         <v>9.601766666666666</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
+      <c r="L36" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>1.037463293546002</v>
       </c>
     </row>
     <row r="37">
@@ -1673,18 +1991,21 @@
         <v>4400.1456</v>
       </c>
       <c r="G37" t="n">
+        <v>9.740866666666674</v>
+      </c>
+      <c r="H37" t="n">
         <v>9.606483333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +2029,21 @@
         <v>90786.06939999999</v>
       </c>
       <c r="G38" t="n">
+        <v>9.738533333333342</v>
+      </c>
+      <c r="H38" t="n">
         <v>9.606883333333334</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2067,21 @@
         <v>125727.889</v>
       </c>
       <c r="G39" t="n">
+        <v>9.718933333333341</v>
+      </c>
+      <c r="H39" t="n">
         <v>9.607216666666668</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2105,21 @@
         <v>21207</v>
       </c>
       <c r="G40" t="n">
+        <v>9.717600000000006</v>
+      </c>
+      <c r="H40" t="n">
         <v>9.610883333333334</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2143,21 @@
         <v>523.1575</v>
       </c>
       <c r="G41" t="n">
+        <v>9.709600000000005</v>
+      </c>
+      <c r="H41" t="n">
         <v>9.612900000000002</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2181,21 @@
         <v>162930.3754</v>
       </c>
       <c r="G42" t="n">
+        <v>9.698533333333337</v>
+      </c>
+      <c r="H42" t="n">
         <v>9.614966666666668</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2219,21 @@
         <v>53917.6336</v>
       </c>
       <c r="G43" t="n">
+        <v>9.687466666666669</v>
+      </c>
+      <c r="H43" t="n">
         <v>9.614566666666667</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2257,21 @@
         <v>13714.89</v>
       </c>
       <c r="G44" t="n">
+        <v>9.670800000000003</v>
+      </c>
+      <c r="H44" t="n">
         <v>9.611916666666668</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2295,21 @@
         <v>54893.6145</v>
       </c>
       <c r="G45" t="n">
+        <v>9.653600000000003</v>
+      </c>
+      <c r="H45" t="n">
         <v>9.609133333333336</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2333,21 @@
         <v>3648.5546</v>
       </c>
       <c r="G46" t="n">
+        <v>9.649466666666671</v>
+      </c>
+      <c r="H46" t="n">
         <v>9.60861666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2371,21 @@
         <v>32972.241</v>
       </c>
       <c r="G47" t="n">
+        <v>9.648000000000001</v>
+      </c>
+      <c r="H47" t="n">
         <v>9.60791666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2409,21 @@
         <v>2447.4526</v>
       </c>
       <c r="G48" t="n">
+        <v>9.643266666666669</v>
+      </c>
+      <c r="H48" t="n">
         <v>9.607150000000003</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2447,21 @@
         <v>10321.4168</v>
       </c>
       <c r="G49" t="n">
+        <v>9.620733333333336</v>
+      </c>
+      <c r="H49" t="n">
         <v>9.606366666666672</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2485,21 @@
         <v>15674</v>
       </c>
       <c r="G50" t="n">
+        <v>9.600000000000001</v>
+      </c>
+      <c r="H50" t="n">
         <v>9.606033333333338</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2523,21 @@
         <v>15119.8981</v>
       </c>
       <c r="G51" t="n">
+        <v>9.579333333333334</v>
+      </c>
+      <c r="H51" t="n">
         <v>9.605850000000004</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2561,21 @@
         <v>73375</v>
       </c>
       <c r="G52" t="n">
+        <v>9.560600000000003</v>
+      </c>
+      <c r="H52" t="n">
         <v>9.606000000000002</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2599,21 @@
         <v>5225.2488</v>
       </c>
       <c r="G53" t="n">
+        <v>9.559133333333337</v>
+      </c>
+      <c r="H53" t="n">
         <v>9.606150000000001</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2637,21 @@
         <v>22403.88</v>
       </c>
       <c r="G54" t="n">
+        <v>9.557800000000006</v>
+      </c>
+      <c r="H54" t="n">
         <v>9.608000000000001</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2675,21 @@
         <v>6000</v>
       </c>
       <c r="G55" t="n">
+        <v>9.536466666666673</v>
+      </c>
+      <c r="H55" t="n">
         <v>9.60805</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2713,21 @@
         <v>319722.2921</v>
       </c>
       <c r="G56" t="n">
+        <v>9.517133333333339</v>
+      </c>
+      <c r="H56" t="n">
         <v>9.606933333333334</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2751,21 @@
         <v>30751.94</v>
       </c>
       <c r="G57" t="n">
+        <v>9.514133333333341</v>
+      </c>
+      <c r="H57" t="n">
         <v>9.607483333333334</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2789,21 @@
         <v>25960.64</v>
       </c>
       <c r="G58" t="n">
+        <v>9.504600000000007</v>
+      </c>
+      <c r="H58" t="n">
         <v>9.60726666666667</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2827,21 @@
         <v>240282.7586</v>
       </c>
       <c r="G59" t="n">
+        <v>9.503933333333341</v>
+      </c>
+      <c r="H59" t="n">
         <v>9.606150000000003</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,24 +2865,21 @@
         <v>396416.6184</v>
       </c>
       <c r="G60" t="n">
+        <v>9.492266666666675</v>
+      </c>
+      <c r="H60" t="n">
         <v>9.602150000000002</v>
       </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2519,22 +2903,21 @@
         <v>21890</v>
       </c>
       <c r="G61" t="n">
+        <v>9.476400000000009</v>
+      </c>
+      <c r="H61" t="n">
         <v>9.599366666666668</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2558,22 +2941,21 @@
         <v>17553</v>
       </c>
       <c r="G62" t="n">
+        <v>9.467066666666677</v>
+      </c>
+      <c r="H62" t="n">
         <v>9.598050000000002</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2597,22 +2979,21 @@
         <v>4149.232658191489</v>
       </c>
       <c r="G63" t="n">
+        <v>9.458266666666676</v>
+      </c>
+      <c r="H63" t="n">
         <v>9.596933333333336</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2636,22 +3017,21 @@
         <v>40811.6461</v>
       </c>
       <c r="G64" t="n">
+        <v>9.449466666666675</v>
+      </c>
+      <c r="H64" t="n">
         <v>9.593666666666669</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2675,22 +3055,21 @@
         <v>5262.8227</v>
       </c>
       <c r="G65" t="n">
+        <v>9.438866666666677</v>
+      </c>
+      <c r="H65" t="n">
         <v>9.590400000000001</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2714,22 +3093,21 @@
         <v>8500</v>
       </c>
       <c r="G66" t="n">
+        <v>9.416733333333344</v>
+      </c>
+      <c r="H66" t="n">
         <v>9.584233333333335</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2753,22 +3131,21 @@
         <v>27278.2199</v>
       </c>
       <c r="G67" t="n">
+        <v>9.40480000000001</v>
+      </c>
+      <c r="H67" t="n">
         <v>9.583216666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2792,22 +3169,21 @@
         <v>2000</v>
       </c>
       <c r="G68" t="n">
+        <v>9.381333333333343</v>
+      </c>
+      <c r="H68" t="n">
         <v>9.577066666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2831,22 +3207,21 @@
         <v>166015.9533</v>
       </c>
       <c r="G69" t="n">
+        <v>9.359466666666675</v>
+      </c>
+      <c r="H69" t="n">
         <v>9.573399999999999</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,22 +3245,21 @@
         <v>80766.1548</v>
       </c>
       <c r="G70" t="n">
+        <v>9.343200000000008</v>
+      </c>
+      <c r="H70" t="n">
         <v>9.567266666666665</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2909,22 +3283,21 @@
         <v>1243</v>
       </c>
       <c r="G71" t="n">
+        <v>9.333200000000009</v>
+      </c>
+      <c r="H71" t="n">
         <v>9.564083333333333</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2948,22 +3321,21 @@
         <v>13032</v>
       </c>
       <c r="G72" t="n">
+        <v>9.315666666666676</v>
+      </c>
+      <c r="H72" t="n">
         <v>9.556199999999997</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2987,22 +3359,21 @@
         <v>18025</v>
       </c>
       <c r="G73" t="n">
+        <v>9.312066666666677</v>
+      </c>
+      <c r="H73" t="n">
         <v>9.553499999999996</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3026,22 +3397,21 @@
         <v>5348.7377</v>
       </c>
       <c r="G74" t="n">
+        <v>9.308600000000011</v>
+      </c>
+      <c r="H74" t="n">
         <v>9.547616666666663</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3065,22 +3435,21 @@
         <v>75310.103</v>
       </c>
       <c r="G75" t="n">
+        <v>9.316666666666679</v>
+      </c>
+      <c r="H75" t="n">
         <v>9.541733333333328</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3104,22 +3473,21 @@
         <v>153787.3776</v>
       </c>
       <c r="G76" t="n">
+        <v>9.311733333333343</v>
+      </c>
+      <c r="H76" t="n">
         <v>9.536416666666662</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,22 +3511,21 @@
         <v>89376</v>
       </c>
       <c r="G77" t="n">
+        <v>9.307733333333344</v>
+      </c>
+      <c r="H77" t="n">
         <v>9.530216666666661</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3182,22 +3549,21 @@
         <v>13298</v>
       </c>
       <c r="G78" t="n">
+        <v>9.302933333333344</v>
+      </c>
+      <c r="H78" t="n">
         <v>9.524016666666659</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3221,22 +3587,21 @@
         <v>15689</v>
       </c>
       <c r="G79" t="n">
+        <v>9.30360000000001</v>
+      </c>
+      <c r="H79" t="n">
         <v>9.519183333333325</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3260,22 +3625,21 @@
         <v>1597</v>
       </c>
       <c r="G80" t="n">
+        <v>9.314066666666674</v>
+      </c>
+      <c r="H80" t="n">
         <v>9.516799999999991</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3299,22 +3663,21 @@
         <v>129387.7176</v>
       </c>
       <c r="G81" t="n">
+        <v>9.322533333333341</v>
+      </c>
+      <c r="H81" t="n">
         <v>9.511033333333325</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3338,22 +3701,21 @@
         <v>60048.8107</v>
       </c>
       <c r="G82" t="n">
+        <v>9.319466666666674</v>
+      </c>
+      <c r="H82" t="n">
         <v>9.506433333333325</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3377,22 +3739,21 @@
         <v>800</v>
       </c>
       <c r="G83" t="n">
+        <v>9.331000000000008</v>
+      </c>
+      <c r="H83" t="n">
         <v>9.502499999999992</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3416,22 +3777,21 @@
         <v>64.1121</v>
       </c>
       <c r="G84" t="n">
+        <v>9.352333333333341</v>
+      </c>
+      <c r="H84" t="n">
         <v>9.497133333333325</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3455,22 +3815,21 @@
         <v>5789</v>
       </c>
       <c r="G85" t="n">
+        <v>9.37173333333334</v>
+      </c>
+      <c r="H85" t="n">
         <v>9.492249999999993</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3494,22 +3853,21 @@
         <v>74664.5131</v>
       </c>
       <c r="G86" t="n">
+        <v>9.38093333333334</v>
+      </c>
+      <c r="H86" t="n">
         <v>9.485216666666663</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3533,22 +3891,21 @@
         <v>10000</v>
       </c>
       <c r="G87" t="n">
+        <v>9.397066666666673</v>
+      </c>
+      <c r="H87" t="n">
         <v>9.481349999999996</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3572,22 +3929,21 @@
         <v>102.2269</v>
       </c>
       <c r="G88" t="n">
+        <v>9.409800000000006</v>
+      </c>
+      <c r="H88" t="n">
         <v>9.478483333333328</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3611,22 +3967,21 @@
         <v>46906.1453</v>
       </c>
       <c r="G89" t="n">
+        <v>9.418000000000005</v>
+      </c>
+      <c r="H89" t="n">
         <v>9.47533333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3650,22 +4005,21 @@
         <v>59067.4799</v>
       </c>
       <c r="G90" t="n">
+        <v>9.418466666666669</v>
+      </c>
+      <c r="H90" t="n">
         <v>9.470249999999997</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3689,22 +4043,21 @@
         <v>108</v>
       </c>
       <c r="G91" t="n">
+        <v>9.435200000000004</v>
+      </c>
+      <c r="H91" t="n">
         <v>9.468199999999996</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3728,22 +4081,21 @@
         <v>108</v>
       </c>
       <c r="G92" t="n">
+        <v>9.437000000000003</v>
+      </c>
+      <c r="H92" t="n">
         <v>9.464949999999996</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3767,22 +4119,21 @@
         <v>109.2177</v>
       </c>
       <c r="G93" t="n">
+        <v>9.446800000000001</v>
+      </c>
+      <c r="H93" t="n">
         <v>9.462816666666665</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3806,22 +4157,21 @@
         <v>6351</v>
       </c>
       <c r="G94" t="n">
+        <v>9.446666666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>9.455116666666665</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3845,22 +4195,21 @@
         <v>29152.9999</v>
       </c>
       <c r="G95" t="n">
+        <v>9.436133333333336</v>
+      </c>
+      <c r="H95" t="n">
         <v>9.447266666666666</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3884,22 +4233,21 @@
         <v>2000</v>
       </c>
       <c r="G96" t="n">
+        <v>9.443866666666668</v>
+      </c>
+      <c r="H96" t="n">
         <v>9.440616666666665</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3923,22 +4271,21 @@
         <v>6000</v>
       </c>
       <c r="G97" t="n">
+        <v>9.451400000000001</v>
+      </c>
+      <c r="H97" t="n">
         <v>9.434066666666665</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3962,22 +4309,21 @@
         <v>8000</v>
       </c>
       <c r="G98" t="n">
+        <v>9.457266666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>9.432183333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4001,22 +4347,21 @@
         <v>37040.1478</v>
       </c>
       <c r="G99" t="n">
+        <v>9.450533333333334</v>
+      </c>
+      <c r="H99" t="n">
         <v>9.430033333333332</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4040,22 +4385,21 @@
         <v>21588</v>
       </c>
       <c r="G100" t="n">
+        <v>9.448066666666668</v>
+      </c>
+      <c r="H100" t="n">
         <v>9.424866666666667</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4079,22 +4423,21 @@
         <v>6000</v>
       </c>
       <c r="G101" t="n">
+        <v>9.454199999999998</v>
+      </c>
+      <c r="H101" t="n">
         <v>9.421366666666666</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4118,22 +4461,21 @@
         <v>6000</v>
       </c>
       <c r="G102" t="n">
+        <v>9.454266666666664</v>
+      </c>
+      <c r="H102" t="n">
         <v>9.420283333333334</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4157,22 +4499,21 @@
         <v>2000</v>
       </c>
       <c r="G103" t="n">
+        <v>9.450333333333331</v>
+      </c>
+      <c r="H103" t="n">
         <v>9.4192</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4196,22 +4537,21 @@
         <v>2000</v>
       </c>
       <c r="G104" t="n">
+        <v>9.45093333333333</v>
+      </c>
+      <c r="H104" t="n">
         <v>9.420366666666668</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4235,22 +4575,21 @@
         <v>165</v>
       </c>
       <c r="G105" t="n">
+        <v>9.459266666666663</v>
+      </c>
+      <c r="H105" t="n">
         <v>9.421666666666669</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4274,22 +4613,21 @@
         <v>165</v>
       </c>
       <c r="G106" t="n">
+        <v>9.459466666666662</v>
+      </c>
+      <c r="H106" t="n">
         <v>9.420700000000002</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4313,22 +4651,21 @@
         <v>600</v>
       </c>
       <c r="G107" t="n">
+        <v>9.467799999999995</v>
+      </c>
+      <c r="H107" t="n">
         <v>9.419900000000002</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4352,22 +4689,21 @@
         <v>100</v>
       </c>
       <c r="G108" t="n">
+        <v>9.472066666666661</v>
+      </c>
+      <c r="H108" t="n">
         <v>9.420016666666667</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4391,22 +4727,21 @@
         <v>10309.6884</v>
       </c>
       <c r="G109" t="n">
+        <v>9.48053333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>9.420066666666665</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4430,22 +4765,21 @@
         <v>15886.236</v>
       </c>
       <c r="G110" t="n">
+        <v>9.485999999999995</v>
+      </c>
+      <c r="H110" t="n">
         <v>9.418766666666667</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4469,22 +4803,21 @@
         <v>261.6698</v>
       </c>
       <c r="G111" t="n">
+        <v>9.489799999999995</v>
+      </c>
+      <c r="H111" t="n">
         <v>9.418233333333335</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,22 +4841,21 @@
         <v>165</v>
       </c>
       <c r="G112" t="n">
+        <v>9.493799999999993</v>
+      </c>
+      <c r="H112" t="n">
         <v>9.41736666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4547,22 +4879,21 @@
         <v>15674</v>
       </c>
       <c r="G113" t="n">
+        <v>9.490599999999993</v>
+      </c>
+      <c r="H113" t="n">
         <v>9.415050000000004</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4586,22 +4917,21 @@
         <v>7001.651</v>
       </c>
       <c r="G114" t="n">
+        <v>9.488599999999993</v>
+      </c>
+      <c r="H114" t="n">
         <v>9.412733333333339</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4625,22 +4955,21 @@
         <v>72674</v>
       </c>
       <c r="G115" t="n">
+        <v>9.48546666666666</v>
+      </c>
+      <c r="H115" t="n">
         <v>9.412116666666671</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4664,22 +4993,21 @@
         <v>838.3200000000001</v>
       </c>
       <c r="G116" t="n">
+        <v>9.482266666666659</v>
+      </c>
+      <c r="H116" t="n">
         <v>9.412650000000006</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4703,22 +5031,21 @@
         <v>822.0015</v>
       </c>
       <c r="G117" t="n">
+        <v>9.474933333333327</v>
+      </c>
+      <c r="H117" t="n">
         <v>9.410483333333339</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4742,22 +5069,25 @@
         <v>7781.834</v>
       </c>
       <c r="G118" t="n">
+        <v>9.477866666666662</v>
+      </c>
+      <c r="H118" t="n">
         <v>9.412516666666672</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="L118" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4781,22 +5111,27 @@
         <v>1868</v>
       </c>
       <c r="G119" t="n">
+        <v>9.481866666666662</v>
+      </c>
+      <c r="H119" t="n">
         <v>9.414850000000005</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
+      <c r="L119" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="M119" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4820,22 +5155,27 @@
         <v>2567.0774</v>
       </c>
       <c r="G120" t="n">
+        <v>9.486199999999995</v>
+      </c>
+      <c r="H120" t="n">
         <v>9.420150000000005</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
+      <c r="L120" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="M120" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4859,22 +5199,21 @@
         <v>47238.9371</v>
       </c>
       <c r="G121" t="n">
+        <v>9.490533333333328</v>
+      </c>
+      <c r="H121" t="n">
         <v>9.424233333333339</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4898,22 +5237,21 @@
         <v>15000</v>
       </c>
       <c r="G122" t="n">
+        <v>9.494933333333329</v>
+      </c>
+      <c r="H122" t="n">
         <v>9.426866666666673</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4937,22 +5275,21 @@
         <v>25645.5252</v>
       </c>
       <c r="G123" t="n">
+        <v>9.489666666666663</v>
+      </c>
+      <c r="H123" t="n">
         <v>9.427866666666672</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4976,22 +5313,21 @@
         <v>15674</v>
       </c>
       <c r="G124" t="n">
+        <v>9.48213333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>9.42823333333334</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5015,22 +5351,21 @@
         <v>15674</v>
       </c>
       <c r="G125" t="n">
+        <v>9.478199999999996</v>
+      </c>
+      <c r="H125" t="n">
         <v>9.428600000000008</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5054,22 +5389,21 @@
         <v>130654.7648</v>
       </c>
       <c r="G126" t="n">
+        <v>9.472999999999997</v>
+      </c>
+      <c r="H126" t="n">
         <v>9.432300000000007</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5093,22 +5427,21 @@
         <v>63365</v>
       </c>
       <c r="G127" t="n">
+        <v>9.4712</v>
+      </c>
+      <c r="H127" t="n">
         <v>9.433966666666674</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5132,22 +5465,25 @@
         <v>54.0998</v>
       </c>
       <c r="G128" t="n">
+        <v>9.475199999999999</v>
+      </c>
+      <c r="H128" t="n">
         <v>9.438516666666676</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L128" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5171,22 +5507,437 @@
         <v>19890.9002</v>
       </c>
       <c r="G129" t="n">
+        <v>9.479199999999999</v>
+      </c>
+      <c r="H129" t="n">
         <v>9.442666666666675</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
+      <c r="L129" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M129" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
+      <c r="N129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C130" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="D130" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E130" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F130" t="n">
+        <v>17400.55</v>
+      </c>
+      <c r="G130" t="n">
+        <v>9.483666666666666</v>
+      </c>
+      <c r="H130" t="n">
+        <v>9.447233333333342</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>9.547000000000001</v>
+      </c>
+      <c r="C131" t="n">
+        <v>9.547000000000001</v>
+      </c>
+      <c r="D131" t="n">
+        <v>9.547000000000001</v>
+      </c>
+      <c r="E131" t="n">
+        <v>9.547000000000001</v>
+      </c>
+      <c r="F131" t="n">
+        <v>66.93680000000001</v>
+      </c>
+      <c r="G131" t="n">
+        <v>9.491333333333333</v>
+      </c>
+      <c r="H131" t="n">
+        <v>9.452183333333343</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="C132" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="D132" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="E132" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="F132" t="n">
+        <v>6060</v>
+      </c>
+      <c r="G132" t="n">
+        <v>9.496666666666666</v>
+      </c>
+      <c r="H132" t="n">
+        <v>9.455733333333344</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="C133" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="D133" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="E133" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2200</v>
+      </c>
+      <c r="G133" t="n">
+        <v>9.491733333333332</v>
+      </c>
+      <c r="H133" t="n">
+        <v>9.457433333333345</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>9.423</v>
+      </c>
+      <c r="C134" t="n">
+        <v>9.422000000000001</v>
+      </c>
+      <c r="D134" t="n">
+        <v>9.423</v>
+      </c>
+      <c r="E134" t="n">
+        <v>9.422000000000001</v>
+      </c>
+      <c r="F134" t="n">
+        <v>30379.53</v>
+      </c>
+      <c r="G134" t="n">
+        <v>9.483866666666666</v>
+      </c>
+      <c r="H134" t="n">
+        <v>9.45866666666668</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>9.422000000000001</v>
+      </c>
+      <c r="C135" t="n">
+        <v>9.403</v>
+      </c>
+      <c r="D135" t="n">
+        <v>9.422000000000001</v>
+      </c>
+      <c r="E135" t="n">
+        <v>9.403</v>
+      </c>
+      <c r="F135" t="n">
+        <v>129303.01</v>
+      </c>
+      <c r="G135" t="n">
+        <v>9.474399999999999</v>
+      </c>
+      <c r="H135" t="n">
+        <v>9.459583333333347</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>9.403</v>
+      </c>
+      <c r="C136" t="n">
+        <v>9.403</v>
+      </c>
+      <c r="D136" t="n">
+        <v>9.403</v>
+      </c>
+      <c r="E136" t="n">
+        <v>9.403</v>
+      </c>
+      <c r="F136" t="n">
+        <v>47.1657</v>
+      </c>
+      <c r="G136" t="n">
+        <v>9.464933333333333</v>
+      </c>
+      <c r="H136" t="n">
+        <v>9.462533333333347</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>9.403</v>
+      </c>
+      <c r="L136" t="n">
+        <v>9.403</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>9.356</v>
+      </c>
+      <c r="C137" t="n">
+        <v>9.356</v>
+      </c>
+      <c r="D137" t="n">
+        <v>9.356</v>
+      </c>
+      <c r="E137" t="n">
+        <v>9.356</v>
+      </c>
+      <c r="F137" t="n">
+        <v>20062.4446</v>
+      </c>
+      <c r="G137" t="n">
+        <v>9.452266666666667</v>
+      </c>
+      <c r="H137" t="n">
+        <v>9.463000000000015</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>9.403</v>
+      </c>
+      <c r="L137" t="n">
+        <v>9.403</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="C138" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="D138" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="E138" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="F138" t="n">
+        <v>10601.081</v>
+      </c>
+      <c r="G138" t="n">
+        <v>9.445600000000001</v>
+      </c>
+      <c r="H138" t="n">
+        <v>9.463533333333348</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>9.356</v>
+      </c>
+      <c r="L138" t="n">
+        <v>9.403</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>9.497</v>
+      </c>
+      <c r="C139" t="n">
+        <v>9.497</v>
+      </c>
+      <c r="D139" t="n">
+        <v>9.497</v>
+      </c>
+      <c r="E139" t="n">
+        <v>9.497</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2472.6538</v>
+      </c>
+      <c r="G139" t="n">
+        <v>9.4506</v>
+      </c>
+      <c r="H139" t="n">
+        <v>9.464983333333349</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="L139" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-12 BackTest OGO.xlsx
+++ b/BackTest/2020-01-12 BackTest OGO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N139"/>
+  <dimension ref="A1:M168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MA60</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9.467000000000001</v>
+        <v>9.481999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>9.467000000000001</v>
+        <v>9.481999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>9.467000000000001</v>
+        <v>9.481999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>9.467000000000001</v>
+        <v>9.481999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>410.1799</v>
+        <v>16913.8827</v>
       </c>
       <c r="G2" t="n">
-        <v>9.506533333333342</v>
+        <v>1114868.017538404</v>
       </c>
       <c r="H2" t="n">
-        <v>9.49951666666667</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,40 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9.467000000000001</v>
+        <v>9.481999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>9.467000000000001</v>
+        <v>9.481999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>9.467000000000001</v>
+        <v>9.481999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>9.467000000000001</v>
+        <v>9.481999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>50000</v>
+        <v>19572.6755</v>
       </c>
       <c r="G3" t="n">
-        <v>9.499133333333342</v>
+        <v>1114868.017538404</v>
       </c>
       <c r="H3" t="n">
-        <v>9.499450000000003</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>9.467000000000001</v>
-      </c>
-      <c r="L3" t="n">
-        <v>9.467000000000001</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,44 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9.467000000000001</v>
+        <v>9.481999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>9.596</v>
+        <v>9.481999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>9.596</v>
+        <v>9.481999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>9.467000000000001</v>
+        <v>9.481999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>747</v>
+        <v>20000</v>
       </c>
       <c r="G4" t="n">
-        <v>9.500266666666676</v>
+        <v>1114868.017538404</v>
       </c>
       <c r="H4" t="n">
-        <v>9.501533333333336</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9.467000000000001</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9.467000000000001</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -564,44 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9.596</v>
+        <v>9.481999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>9.596</v>
+        <v>9.481999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>9.596</v>
+        <v>9.481999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>9.596</v>
+        <v>9.481999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>5196.969</v>
+        <v>17249.1297</v>
       </c>
       <c r="G5" t="n">
-        <v>9.501400000000009</v>
+        <v>1114868.017538404</v>
       </c>
       <c r="H5" t="n">
-        <v>9.503950000000003</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>9.596</v>
-      </c>
-      <c r="L5" t="n">
-        <v>9.467000000000001</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -610,42 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9.597</v>
+        <v>9.577</v>
       </c>
       <c r="C6" t="n">
-        <v>9.597</v>
+        <v>9.577</v>
       </c>
       <c r="D6" t="n">
-        <v>9.597</v>
+        <v>9.577</v>
       </c>
       <c r="E6" t="n">
-        <v>9.597</v>
+        <v>9.577</v>
       </c>
       <c r="F6" t="n">
-        <v>137.3023</v>
+        <v>198.7817</v>
       </c>
       <c r="G6" t="n">
-        <v>9.50320000000001</v>
+        <v>1115066.799238404</v>
       </c>
       <c r="H6" t="n">
-        <v>9.505583333333336</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>9.467000000000001</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -654,42 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9.461</v>
+        <v>9.577</v>
       </c>
       <c r="C7" t="n">
-        <v>9.461</v>
+        <v>9.577</v>
       </c>
       <c r="D7" t="n">
-        <v>9.461</v>
+        <v>9.577</v>
       </c>
       <c r="E7" t="n">
-        <v>9.461</v>
+        <v>9.577</v>
       </c>
       <c r="F7" t="n">
-        <v>137.3023</v>
+        <v>9603.4553</v>
       </c>
       <c r="G7" t="n">
-        <v>9.495933333333344</v>
+        <v>1115066.799238404</v>
       </c>
       <c r="H7" t="n">
-        <v>9.505750000000003</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>9.467000000000001</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -698,42 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9.596</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>9.596</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>9.596</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>9.596</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>151.3427</v>
+        <v>663.1233999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>9.497666666666678</v>
+        <v>1115729.922638404</v>
       </c>
       <c r="H8" t="n">
-        <v>9.510683333333336</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>9.467000000000001</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,42 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9.471</v>
+        <v>9.577</v>
       </c>
       <c r="C9" t="n">
-        <v>9.471</v>
+        <v>9.57</v>
       </c>
       <c r="D9" t="n">
-        <v>9.471</v>
+        <v>9.577</v>
       </c>
       <c r="E9" t="n">
-        <v>9.471</v>
+        <v>9.395</v>
       </c>
       <c r="F9" t="n">
-        <v>30483.581</v>
+        <v>102979.6475</v>
       </c>
       <c r="G9" t="n">
-        <v>9.497866666666679</v>
+        <v>1012750.275138404</v>
       </c>
       <c r="H9" t="n">
-        <v>9.51186666666667</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>9.467000000000001</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -786,42 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9.471</v>
+        <v>9.411</v>
       </c>
       <c r="C10" t="n">
-        <v>9.593999999999999</v>
+        <v>9.569000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>9.593999999999999</v>
+        <v>9.569000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>9.471</v>
+        <v>9.411</v>
       </c>
       <c r="F10" t="n">
-        <v>29336</v>
+        <v>36522.9283</v>
       </c>
       <c r="G10" t="n">
-        <v>9.506333333333345</v>
+        <v>976227.346838404</v>
       </c>
       <c r="H10" t="n">
-        <v>9.515100000000006</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>9.467000000000001</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -830,42 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9.441000000000001</v>
+        <v>9.420999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>9.441000000000001</v>
+        <v>9.420999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>9.441000000000001</v>
+        <v>9.420999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>9.441000000000001</v>
+        <v>9.420999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>222</v>
+        <v>11488.4402</v>
       </c>
       <c r="G11" t="n">
-        <v>9.504600000000011</v>
+        <v>964738.906638404</v>
       </c>
       <c r="H11" t="n">
-        <v>9.515783333333339</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>9.467000000000001</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -874,44 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9.584</v>
+        <v>9.569000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>9.710000000000001</v>
+        <v>9.569000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>9.710000000000001</v>
+        <v>9.569000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>9.584</v>
+        <v>9.569000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>140436.7568</v>
+        <v>8000</v>
       </c>
       <c r="G12" t="n">
-        <v>9.52080000000001</v>
+        <v>972738.906638404</v>
       </c>
       <c r="H12" t="n">
-        <v>9.520950000000006</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>9.441000000000001</v>
-      </c>
-      <c r="L12" t="n">
-        <v>9.467000000000001</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -920,42 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9.701000000000001</v>
+        <v>9.569000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>9.51</v>
+        <v>9.569000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>9.701000000000001</v>
+        <v>9.569000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>9.51</v>
+        <v>9.569000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>60819.17</v>
+        <v>2000</v>
       </c>
       <c r="G13" t="n">
-        <v>9.527133333333344</v>
+        <v>972738.906638404</v>
       </c>
       <c r="H13" t="n">
-        <v>9.522016666666673</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>9.467000000000001</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -964,42 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9.699999999999999</v>
+        <v>9.569000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>9.701000000000001</v>
+        <v>9.569000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>9.701000000000001</v>
+        <v>9.569000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>9.699999999999999</v>
+        <v>9.569000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>18781.963</v>
+        <v>68.9689</v>
       </c>
       <c r="G14" t="n">
-        <v>9.542733333333342</v>
+        <v>972738.906638404</v>
       </c>
       <c r="H14" t="n">
-        <v>9.526266666666674</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>9.467000000000001</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,42 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9.701000000000001</v>
+        <v>9.569000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>9.701000000000001</v>
+        <v>9.569000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>9.701000000000001</v>
+        <v>9.569000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>9.701000000000001</v>
+        <v>9.569000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>38000</v>
+        <v>2000</v>
       </c>
       <c r="G15" t="n">
-        <v>9.558333333333341</v>
+        <v>972738.906638404</v>
       </c>
       <c r="H15" t="n">
-        <v>9.53258333333334</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>9.467000000000001</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1052,42 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9.800000000000001</v>
+        <v>9.569000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>9.545</v>
+        <v>9.57</v>
       </c>
       <c r="D16" t="n">
-        <v>9.800000000000001</v>
+        <v>9.57</v>
       </c>
       <c r="E16" t="n">
-        <v>9.544</v>
+        <v>9.569000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>28341.2</v>
+        <v>99828.52099999999</v>
       </c>
       <c r="G16" t="n">
-        <v>9.563533333333339</v>
+        <v>1072567.427638404</v>
       </c>
       <c r="H16" t="n">
-        <v>9.534233333333338</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>9.467000000000001</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1096,42 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9.699999999999999</v>
+        <v>9.577999999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>9.699999999999999</v>
+        <v>9.577999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>9.699999999999999</v>
+        <v>9.577999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>9.699999999999999</v>
+        <v>9.577999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>2000</v>
+        <v>220</v>
       </c>
       <c r="G17" t="n">
-        <v>9.579066666666671</v>
+        <v>1072787.427638404</v>
       </c>
       <c r="H17" t="n">
-        <v>9.538466666666672</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>9.467000000000001</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1140,42 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9.699999999999999</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>9.699999999999999</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>9.699999999999999</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>9.699999999999999</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>55114.39</v>
+        <v>55</v>
       </c>
       <c r="G18" t="n">
-        <v>9.594600000000003</v>
+        <v>1072842.427638404</v>
       </c>
       <c r="H18" t="n">
-        <v>9.541833333333338</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>9.467000000000001</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1184,42 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9.699999999999999</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>9.699999999999999</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>9.699999999999999</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>9.699999999999999</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>4000</v>
+        <v>110</v>
       </c>
       <c r="G19" t="n">
-        <v>9.601533333333334</v>
+        <v>1072842.427638404</v>
       </c>
       <c r="H19" t="n">
-        <v>9.545183333333339</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>9.467000000000001</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1228,42 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9.699999999999999</v>
+        <v>9.57</v>
       </c>
       <c r="C20" t="n">
-        <v>9.699999999999999</v>
+        <v>9.57</v>
       </c>
       <c r="D20" t="n">
-        <v>9.699999999999999</v>
+        <v>9.57</v>
       </c>
       <c r="E20" t="n">
-        <v>9.699999999999999</v>
+        <v>9.57</v>
       </c>
       <c r="F20" t="n">
-        <v>38885.61</v>
+        <v>171.479</v>
       </c>
       <c r="G20" t="n">
-        <v>9.608466666666667</v>
+        <v>1072670.948638404</v>
       </c>
       <c r="H20" t="n">
-        <v>9.547350000000005</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>9.467000000000001</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1272,42 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9.699999999999999</v>
+        <v>9.57</v>
       </c>
       <c r="C21" t="n">
-        <v>9.699999999999999</v>
+        <v>9.57</v>
       </c>
       <c r="D21" t="n">
-        <v>9.699999999999999</v>
+        <v>9.57</v>
       </c>
       <c r="E21" t="n">
-        <v>9.699999999999999</v>
+        <v>9.57</v>
       </c>
       <c r="F21" t="n">
-        <v>2910.7562</v>
+        <v>110</v>
       </c>
       <c r="G21" t="n">
-        <v>9.615333333333332</v>
+        <v>1072670.948638404</v>
       </c>
       <c r="H21" t="n">
-        <v>9.549516666666673</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>9.467000000000001</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1316,42 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>9.635999999999999</v>
+        <v>9.57</v>
       </c>
       <c r="C22" t="n">
-        <v>9.630000000000001</v>
+        <v>9.57</v>
       </c>
       <c r="D22" t="n">
-        <v>9.635999999999999</v>
+        <v>9.57</v>
       </c>
       <c r="E22" t="n">
-        <v>9.630000000000001</v>
+        <v>9.57</v>
       </c>
       <c r="F22" t="n">
-        <v>43035.01</v>
+        <v>165</v>
       </c>
       <c r="G22" t="n">
-        <v>9.626599999999998</v>
+        <v>1072670.948638404</v>
       </c>
       <c r="H22" t="n">
-        <v>9.551700000000006</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>9.467000000000001</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1360,42 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>9.630000000000001</v>
+        <v>9.468</v>
       </c>
       <c r="C23" t="n">
-        <v>9.635999999999999</v>
+        <v>9.468</v>
       </c>
       <c r="D23" t="n">
-        <v>9.635999999999999</v>
+        <v>9.468</v>
       </c>
       <c r="E23" t="n">
-        <v>9.630000000000001</v>
+        <v>9.468</v>
       </c>
       <c r="F23" t="n">
-        <v>69917.2228</v>
+        <v>2115.0354</v>
       </c>
       <c r="G23" t="n">
-        <v>9.629266666666664</v>
+        <v>1070555.913238404</v>
       </c>
       <c r="H23" t="n">
-        <v>9.553983333333338</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>9.467000000000001</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1404,42 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9.893000000000001</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>9.893000000000001</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>9.893000000000001</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>9.893000000000001</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>5090.0368</v>
+        <v>48398.006</v>
       </c>
       <c r="G24" t="n">
-        <v>9.657399999999997</v>
+        <v>1022157.907238404</v>
       </c>
       <c r="H24" t="n">
-        <v>9.559033333333337</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>9.467000000000001</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1448,42 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>9.81</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>9.81</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>9.81</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>9.81</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>147.59</v>
+        <v>33177</v>
       </c>
       <c r="G25" t="n">
-        <v>9.671799999999998</v>
+        <v>1022157.907238404</v>
       </c>
       <c r="H25" t="n">
-        <v>9.562700000000003</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>9.467000000000001</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1492,42 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>9.81</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>9.81</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>9.81</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>9.81</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="F26" t="n">
-        <v>38361.5343</v>
+        <v>1989</v>
       </c>
       <c r="G26" t="n">
-        <v>9.696399999999999</v>
+        <v>1022157.907238404</v>
       </c>
       <c r="H26" t="n">
-        <v>9.566533333333334</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>9.467000000000001</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1536,42 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>9.711</v>
+        <v>9.414999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>9.711</v>
+        <v>9.414999999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>9.711</v>
+        <v>9.414999999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>9.711</v>
+        <v>9.414999999999999</v>
       </c>
       <c r="F27" t="n">
-        <v>52</v>
+        <v>10023.8705</v>
       </c>
       <c r="G27" t="n">
-        <v>9.696466666666664</v>
+        <v>1012134.036738404</v>
       </c>
       <c r="H27" t="n">
-        <v>9.568716666666667</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>9.467000000000001</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,42 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>9.720000000000001</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>9.711</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>9.720000000000001</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>9.711</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>62349.2914</v>
+        <v>24291</v>
       </c>
       <c r="G28" t="n">
-        <v>9.709866666666667</v>
+        <v>1036425.036738404</v>
       </c>
       <c r="H28" t="n">
-        <v>9.5709</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>9.467000000000001</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1624,42 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>9.699999999999999</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>9.66</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>9.699999999999999</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>9.66</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>72795.0733</v>
+        <v>34411</v>
       </c>
       <c r="G29" t="n">
-        <v>9.707133333333333</v>
+        <v>1036425.036738404</v>
       </c>
       <c r="H29" t="n">
-        <v>9.574083333333332</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>9.467000000000001</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1668,42 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>9.635999999999999</v>
+        <v>9.412000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>9.66</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>9.66</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>9.6</v>
+        <v>9.412000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>55888.8212</v>
+        <v>30106.1943</v>
       </c>
       <c r="G30" t="n">
-        <v>9.7044</v>
+        <v>1036425.036738404</v>
       </c>
       <c r="H30" t="n">
-        <v>9.577066666666665</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>9.467000000000001</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1712,42 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>9.67</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>9.6</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>9.67</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>9.6</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>83328.02370000001</v>
+        <v>410.1799</v>
       </c>
       <c r="G31" t="n">
-        <v>9.708066666666667</v>
+        <v>1036425.036738404</v>
       </c>
       <c r="H31" t="n">
-        <v>9.579033333333333</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>9.467000000000001</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1756,42 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>9.550000000000001</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>9.550000000000001</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>9.550000000000001</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>9.550000000000001</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="F32" t="n">
-        <v>2473.3955</v>
+        <v>50000</v>
       </c>
       <c r="G32" t="n">
-        <v>9.698066666666669</v>
+        <v>1036425.036738404</v>
       </c>
       <c r="H32" t="n">
-        <v>9.580366666666665</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>9.467000000000001</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1800,42 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9.868</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>9.603</v>
+        <v>9.596</v>
       </c>
       <c r="D33" t="n">
-        <v>9.868</v>
+        <v>9.596</v>
       </c>
       <c r="E33" t="n">
-        <v>9.603</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>71219.85799999999</v>
+        <v>747</v>
       </c>
       <c r="G33" t="n">
-        <v>9.691600000000003</v>
+        <v>1037172.036738404</v>
       </c>
       <c r="H33" t="n">
-        <v>9.582383333333331</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>9.467000000000001</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,42 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>9.603</v>
+        <v>9.596</v>
       </c>
       <c r="C34" t="n">
-        <v>9.869999999999999</v>
+        <v>9.596</v>
       </c>
       <c r="D34" t="n">
-        <v>9.879</v>
+        <v>9.596</v>
       </c>
       <c r="E34" t="n">
-        <v>9.603</v>
+        <v>9.596</v>
       </c>
       <c r="F34" t="n">
-        <v>130054.3491</v>
+        <v>5196.969</v>
       </c>
       <c r="G34" t="n">
-        <v>9.702933333333338</v>
+        <v>1037172.036738404</v>
       </c>
       <c r="H34" t="n">
-        <v>9.588849999999999</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>9.467000000000001</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1888,42 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9.869999999999999</v>
+        <v>9.597</v>
       </c>
       <c r="C35" t="n">
-        <v>9.869999999999999</v>
+        <v>9.597</v>
       </c>
       <c r="D35" t="n">
-        <v>9.869999999999999</v>
+        <v>9.597</v>
       </c>
       <c r="E35" t="n">
-        <v>9.869999999999999</v>
+        <v>9.597</v>
       </c>
       <c r="F35" t="n">
-        <v>48.1661</v>
+        <v>137.3023</v>
       </c>
       <c r="G35" t="n">
-        <v>9.714266666666672</v>
+        <v>1037309.339038404</v>
       </c>
       <c r="H35" t="n">
-        <v>9.595316666666665</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>9.467000000000001</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1932,43 +1623,34 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9.869</v>
+        <v>9.461</v>
       </c>
       <c r="C36" t="n">
-        <v>9.869</v>
+        <v>9.461</v>
       </c>
       <c r="D36" t="n">
-        <v>9.869</v>
+        <v>9.461</v>
       </c>
       <c r="E36" t="n">
-        <v>9.869</v>
+        <v>9.461</v>
       </c>
       <c r="F36" t="n">
-        <v>4396.0319</v>
+        <v>137.3023</v>
       </c>
       <c r="G36" t="n">
-        <v>9.72553333333334</v>
+        <v>1037172.036738404</v>
       </c>
       <c r="H36" t="n">
-        <v>9.601766666666666</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>1</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>9.467000000000001</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
-        <v>1.037463293546002</v>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1976,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9.859999999999999</v>
+        <v>9.596</v>
       </c>
       <c r="C37" t="n">
-        <v>9.859999999999999</v>
+        <v>9.596</v>
       </c>
       <c r="D37" t="n">
-        <v>9.859999999999999</v>
+        <v>9.596</v>
       </c>
       <c r="E37" t="n">
-        <v>9.859999999999999</v>
+        <v>9.596</v>
       </c>
       <c r="F37" t="n">
-        <v>4400.1456</v>
+        <v>151.3427</v>
       </c>
       <c r="G37" t="n">
-        <v>9.740866666666674</v>
+        <v>1037323.379438404</v>
       </c>
       <c r="H37" t="n">
-        <v>9.606483333333333</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>1</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2014,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>9.661</v>
+        <v>9.471</v>
       </c>
       <c r="C38" t="n">
-        <v>9.601000000000001</v>
+        <v>9.471</v>
       </c>
       <c r="D38" t="n">
-        <v>9.661</v>
+        <v>9.471</v>
       </c>
       <c r="E38" t="n">
-        <v>9.601000000000001</v>
+        <v>9.471</v>
       </c>
       <c r="F38" t="n">
-        <v>90786.06939999999</v>
+        <v>30483.581</v>
       </c>
       <c r="G38" t="n">
-        <v>9.738533333333342</v>
+        <v>1006839.798438404</v>
       </c>
       <c r="H38" t="n">
-        <v>9.606883333333334</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>1</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2052,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>9.603</v>
+        <v>9.471</v>
       </c>
       <c r="C39" t="n">
-        <v>9.599</v>
+        <v>9.593999999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>9.603</v>
+        <v>9.593999999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>9.599</v>
+        <v>9.471</v>
       </c>
       <c r="F39" t="n">
-        <v>125727.889</v>
+        <v>29336</v>
       </c>
       <c r="G39" t="n">
-        <v>9.718933333333341</v>
+        <v>1036175.798438404</v>
       </c>
       <c r="H39" t="n">
-        <v>9.607216666666668</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>1</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2090,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9.599</v>
+        <v>9.441000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>9.789999999999999</v>
+        <v>9.441000000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>9.789999999999999</v>
+        <v>9.441000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>9.599</v>
+        <v>9.441000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>21207</v>
+        <v>222</v>
       </c>
       <c r="G40" t="n">
-        <v>9.717600000000006</v>
+        <v>1035953.798438404</v>
       </c>
       <c r="H40" t="n">
-        <v>9.610883333333334</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>1</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>9.69</v>
+        <v>9.584</v>
       </c>
       <c r="C41" t="n">
-        <v>9.69</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>9.69</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>9.69</v>
+        <v>9.584</v>
       </c>
       <c r="F41" t="n">
-        <v>523.1575</v>
+        <v>140436.7568</v>
       </c>
       <c r="G41" t="n">
-        <v>9.709600000000005</v>
+        <v>1176390.555238404</v>
       </c>
       <c r="H41" t="n">
-        <v>9.612900000000002</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>1</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2166,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>9.548</v>
+        <v>9.701000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>9.545</v>
+        <v>9.51</v>
       </c>
       <c r="D42" t="n">
-        <v>9.548</v>
+        <v>9.701000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>9.539999999999999</v>
+        <v>9.51</v>
       </c>
       <c r="F42" t="n">
-        <v>162930.3754</v>
+        <v>60819.17</v>
       </c>
       <c r="G42" t="n">
-        <v>9.698533333333337</v>
+        <v>1115571.385238404</v>
       </c>
       <c r="H42" t="n">
-        <v>9.614966666666668</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2204,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>9.545</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>9.545</v>
+        <v>9.701000000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>9.545</v>
+        <v>9.701000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>9.545</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>53917.6336</v>
+        <v>18781.963</v>
       </c>
       <c r="G43" t="n">
-        <v>9.687466666666669</v>
+        <v>1134353.348238404</v>
       </c>
       <c r="H43" t="n">
-        <v>9.614566666666667</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2242,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>9.545</v>
+        <v>9.701000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>9.41</v>
+        <v>9.701000000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>9.545</v>
+        <v>9.701000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>9.41</v>
+        <v>9.701000000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>13714.89</v>
+        <v>38000</v>
       </c>
       <c r="G44" t="n">
-        <v>9.670800000000003</v>
+        <v>1134353.348238404</v>
       </c>
       <c r="H44" t="n">
-        <v>9.611916666666668</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2280,36 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>9.42</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>9.401999999999999</v>
+        <v>9.545</v>
       </c>
       <c r="D45" t="n">
-        <v>9.42</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>9.401999999999999</v>
+        <v>9.544</v>
       </c>
       <c r="F45" t="n">
-        <v>54893.6145</v>
+        <v>28341.2</v>
       </c>
       <c r="G45" t="n">
-        <v>9.653600000000003</v>
+        <v>1106012.148238404</v>
       </c>
       <c r="H45" t="n">
-        <v>9.609133333333336</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2318,36 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>9.538</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>9.538</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>9.538</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>9.538</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F46" t="n">
-        <v>3648.5546</v>
+        <v>2000</v>
       </c>
       <c r="G46" t="n">
-        <v>9.649466666666671</v>
+        <v>1108012.148238404</v>
       </c>
       <c r="H46" t="n">
-        <v>9.60861666666667</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2356,36 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>9.528</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>9.528</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>9.528</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>9.528</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>32972.241</v>
+        <v>55114.39</v>
       </c>
       <c r="G47" t="n">
-        <v>9.648000000000001</v>
+        <v>1108012.148238404</v>
       </c>
       <c r="H47" t="n">
-        <v>9.60791666666667</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2394,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>9.532</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>9.532</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>9.532</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>9.532</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>2447.4526</v>
+        <v>4000</v>
       </c>
       <c r="G48" t="n">
-        <v>9.643266666666669</v>
+        <v>1108012.148238404</v>
       </c>
       <c r="H48" t="n">
-        <v>9.607150000000003</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2432,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>9.532</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>9.532</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>9.532</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>9.532</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>10321.4168</v>
+        <v>38885.61</v>
       </c>
       <c r="G49" t="n">
-        <v>9.620733333333336</v>
+        <v>1108012.148238404</v>
       </c>
       <c r="H49" t="n">
-        <v>9.606366666666672</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2470,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>9.558999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>9.558999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>9.558999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>9.558999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>15674</v>
+        <v>2910.7562</v>
       </c>
       <c r="G50" t="n">
-        <v>9.600000000000001</v>
+        <v>1108012.148238404</v>
       </c>
       <c r="H50" t="n">
-        <v>9.606033333333338</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2508,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>9.558999999999999</v>
+        <v>9.635999999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>9.558999999999999</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>9.558999999999999</v>
+        <v>9.635999999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>9.558999999999999</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>15119.8981</v>
+        <v>43035.01</v>
       </c>
       <c r="G51" t="n">
-        <v>9.579333333333334</v>
+        <v>1064977.138238404</v>
       </c>
       <c r="H51" t="n">
-        <v>9.605850000000004</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2546,36 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>9.579000000000001</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>9.579000000000001</v>
+        <v>9.635999999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>9.579000000000001</v>
+        <v>9.635999999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>9.579000000000001</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="F52" t="n">
-        <v>73375</v>
+        <v>69917.2228</v>
       </c>
       <c r="G52" t="n">
-        <v>9.560600000000003</v>
+        <v>1134894.361038404</v>
       </c>
       <c r="H52" t="n">
-        <v>9.606000000000002</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2584,36 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>9.579000000000001</v>
+        <v>9.893000000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>9.579000000000001</v>
+        <v>9.893000000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>9.579000000000001</v>
+        <v>9.893000000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>9.579000000000001</v>
+        <v>9.893000000000001</v>
       </c>
       <c r="F53" t="n">
-        <v>5225.2488</v>
+        <v>5090.0368</v>
       </c>
       <c r="G53" t="n">
-        <v>9.559133333333337</v>
+        <v>1139984.397838404</v>
       </c>
       <c r="H53" t="n">
-        <v>9.606150000000001</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2622,36 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>9.579000000000001</v>
+        <v>9.81</v>
       </c>
       <c r="C54" t="n">
-        <v>9.579000000000001</v>
+        <v>9.81</v>
       </c>
       <c r="D54" t="n">
-        <v>9.579000000000001</v>
+        <v>9.81</v>
       </c>
       <c r="E54" t="n">
-        <v>9.579000000000001</v>
+        <v>9.81</v>
       </c>
       <c r="F54" t="n">
-        <v>22403.88</v>
+        <v>147.59</v>
       </c>
       <c r="G54" t="n">
-        <v>9.557800000000006</v>
+        <v>1139836.807838404</v>
       </c>
       <c r="H54" t="n">
-        <v>9.608000000000001</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2660,36 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>9.579000000000001</v>
+        <v>9.81</v>
       </c>
       <c r="C55" t="n">
-        <v>9.470000000000001</v>
+        <v>9.81</v>
       </c>
       <c r="D55" t="n">
-        <v>9.579000000000001</v>
+        <v>9.81</v>
       </c>
       <c r="E55" t="n">
-        <v>9.470000000000001</v>
+        <v>9.81</v>
       </c>
       <c r="F55" t="n">
-        <v>6000</v>
+        <v>38361.5343</v>
       </c>
       <c r="G55" t="n">
-        <v>9.536466666666673</v>
+        <v>1139836.807838404</v>
       </c>
       <c r="H55" t="n">
-        <v>9.60805</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2698,36 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>9.449999999999999</v>
+        <v>9.711</v>
       </c>
       <c r="C56" t="n">
-        <v>9.4</v>
+        <v>9.711</v>
       </c>
       <c r="D56" t="n">
-        <v>9.619999999999999</v>
+        <v>9.711</v>
       </c>
       <c r="E56" t="n">
-        <v>9.394</v>
+        <v>9.711</v>
       </c>
       <c r="F56" t="n">
-        <v>319722.2921</v>
+        <v>52</v>
       </c>
       <c r="G56" t="n">
-        <v>9.517133333333339</v>
+        <v>1139784.807838404</v>
       </c>
       <c r="H56" t="n">
-        <v>9.606933333333334</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2736,36 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>9.484999999999999</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>9.5</v>
+        <v>9.711</v>
       </c>
       <c r="D57" t="n">
-        <v>9.5</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>9.484</v>
+        <v>9.711</v>
       </c>
       <c r="F57" t="n">
-        <v>30751.94</v>
+        <v>62349.2914</v>
       </c>
       <c r="G57" t="n">
-        <v>9.514133333333341</v>
+        <v>1139784.807838404</v>
       </c>
       <c r="H57" t="n">
-        <v>9.607483333333334</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2774,36 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>9.49</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>9.401999999999999</v>
+        <v>9.66</v>
       </c>
       <c r="D58" t="n">
-        <v>9.49</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E58" t="n">
-        <v>9.4</v>
+        <v>9.66</v>
       </c>
       <c r="F58" t="n">
-        <v>25960.64</v>
+        <v>72795.0733</v>
       </c>
       <c r="G58" t="n">
-        <v>9.504600000000007</v>
+        <v>1066989.734538404</v>
       </c>
       <c r="H58" t="n">
-        <v>9.60726666666667</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2812,36 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>9.420999999999999</v>
+        <v>9.635999999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>9.4</v>
+        <v>9.66</v>
       </c>
       <c r="D59" t="n">
-        <v>9.420999999999999</v>
+        <v>9.66</v>
       </c>
       <c r="E59" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="F59" t="n">
-        <v>240282.7586</v>
+        <v>55888.8212</v>
       </c>
       <c r="G59" t="n">
-        <v>9.503933333333341</v>
+        <v>1066989.734538404</v>
       </c>
       <c r="H59" t="n">
-        <v>9.606150000000003</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2850,36 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>9.4</v>
+        <v>9.67</v>
       </c>
       <c r="C60" t="n">
-        <v>9.227</v>
+        <v>9.6</v>
       </c>
       <c r="D60" t="n">
-        <v>9.4</v>
+        <v>9.67</v>
       </c>
       <c r="E60" t="n">
-        <v>9.227</v>
+        <v>9.6</v>
       </c>
       <c r="F60" t="n">
-        <v>396416.6184</v>
+        <v>83328.02370000001</v>
       </c>
       <c r="G60" t="n">
-        <v>9.492266666666675</v>
+        <v>983661.710838404</v>
       </c>
       <c r="H60" t="n">
-        <v>9.602150000000002</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2888,36 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>9.348000000000001</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>9.300000000000001</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>9.348000000000001</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>9.300000000000001</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="F61" t="n">
-        <v>21890</v>
+        <v>2473.3955</v>
       </c>
       <c r="G61" t="n">
-        <v>9.476400000000009</v>
+        <v>981188.315338404</v>
       </c>
       <c r="H61" t="n">
-        <v>9.599366666666668</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2926,36 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>9.388</v>
+        <v>9.868</v>
       </c>
       <c r="C62" t="n">
-        <v>9.388</v>
+        <v>9.603</v>
       </c>
       <c r="D62" t="n">
-        <v>9.388</v>
+        <v>9.868</v>
       </c>
       <c r="E62" t="n">
-        <v>9.388</v>
+        <v>9.603</v>
       </c>
       <c r="F62" t="n">
-        <v>17553</v>
+        <v>71219.85799999999</v>
       </c>
       <c r="G62" t="n">
-        <v>9.467066666666677</v>
+        <v>1052408.173338404</v>
       </c>
       <c r="H62" t="n">
-        <v>9.598050000000002</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2964,36 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>9.398999999999999</v>
+        <v>9.603</v>
       </c>
       <c r="C63" t="n">
-        <v>9.4</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>9.4</v>
+        <v>9.879</v>
       </c>
       <c r="E63" t="n">
-        <v>9.398999999999999</v>
+        <v>9.603</v>
       </c>
       <c r="F63" t="n">
-        <v>4149.232658191489</v>
+        <v>130054.3491</v>
       </c>
       <c r="G63" t="n">
-        <v>9.458266666666676</v>
+        <v>1182462.522438404</v>
       </c>
       <c r="H63" t="n">
-        <v>9.596933333333336</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3002,36 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>9.228</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>9.4</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>9.4</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="E64" t="n">
-        <v>9.228</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="F64" t="n">
-        <v>40811.6461</v>
+        <v>48.1661</v>
       </c>
       <c r="G64" t="n">
-        <v>9.449466666666675</v>
+        <v>1182462.522438404</v>
       </c>
       <c r="H64" t="n">
-        <v>9.593666666666669</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3040,36 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9.4</v>
+        <v>9.869</v>
       </c>
       <c r="C65" t="n">
-        <v>9.4</v>
+        <v>9.869</v>
       </c>
       <c r="D65" t="n">
-        <v>9.4</v>
+        <v>9.869</v>
       </c>
       <c r="E65" t="n">
-        <v>9.4</v>
+        <v>9.869</v>
       </c>
       <c r="F65" t="n">
-        <v>5262.8227</v>
+        <v>4396.0319</v>
       </c>
       <c r="G65" t="n">
-        <v>9.438866666666677</v>
+        <v>1178066.490538404</v>
       </c>
       <c r="H65" t="n">
-        <v>9.590400000000001</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3078,36 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>9.227</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>9.227</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>9.227</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>9.227</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="F66" t="n">
-        <v>8500</v>
+        <v>4400.1456</v>
       </c>
       <c r="G66" t="n">
-        <v>9.416733333333344</v>
+        <v>1173666.344938404</v>
       </c>
       <c r="H66" t="n">
-        <v>9.584233333333335</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3116,36 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>9.398999999999999</v>
+        <v>9.661</v>
       </c>
       <c r="C67" t="n">
-        <v>9.4</v>
+        <v>9.601000000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>9.4</v>
+        <v>9.661</v>
       </c>
       <c r="E67" t="n">
-        <v>9.398999999999999</v>
+        <v>9.601000000000001</v>
       </c>
       <c r="F67" t="n">
-        <v>27278.2199</v>
+        <v>90786.06939999999</v>
       </c>
       <c r="G67" t="n">
-        <v>9.40480000000001</v>
+        <v>1082880.275538404</v>
       </c>
       <c r="H67" t="n">
-        <v>9.583216666666667</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3154,36 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>9.227</v>
+        <v>9.603</v>
       </c>
       <c r="C68" t="n">
-        <v>9.227</v>
+        <v>9.599</v>
       </c>
       <c r="D68" t="n">
-        <v>9.227</v>
+        <v>9.603</v>
       </c>
       <c r="E68" t="n">
-        <v>9.227</v>
+        <v>9.599</v>
       </c>
       <c r="F68" t="n">
-        <v>2000</v>
+        <v>125727.889</v>
       </c>
       <c r="G68" t="n">
-        <v>9.381333333333343</v>
+        <v>957152.386538404</v>
       </c>
       <c r="H68" t="n">
-        <v>9.577066666666667</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3192,36 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>9.250999999999999</v>
+        <v>9.599</v>
       </c>
       <c r="C69" t="n">
-        <v>9.250999999999999</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>9.250999999999999</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>9.227</v>
+        <v>9.599</v>
       </c>
       <c r="F69" t="n">
-        <v>166015.9533</v>
+        <v>21207</v>
       </c>
       <c r="G69" t="n">
-        <v>9.359466666666675</v>
+        <v>978359.386538404</v>
       </c>
       <c r="H69" t="n">
-        <v>9.573399999999999</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3230,36 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9.227</v>
+        <v>9.69</v>
       </c>
       <c r="C70" t="n">
-        <v>9.226000000000001</v>
+        <v>9.69</v>
       </c>
       <c r="D70" t="n">
-        <v>9.227</v>
+        <v>9.69</v>
       </c>
       <c r="E70" t="n">
-        <v>9.226000000000001</v>
+        <v>9.69</v>
       </c>
       <c r="F70" t="n">
-        <v>80766.1548</v>
+        <v>523.1575</v>
       </c>
       <c r="G70" t="n">
-        <v>9.343200000000008</v>
+        <v>977836.2290384041</v>
       </c>
       <c r="H70" t="n">
-        <v>9.567266666666665</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3268,36 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>9.25</v>
+        <v>9.548</v>
       </c>
       <c r="C71" t="n">
-        <v>9.25</v>
+        <v>9.545</v>
       </c>
       <c r="D71" t="n">
-        <v>9.25</v>
+        <v>9.548</v>
       </c>
       <c r="E71" t="n">
-        <v>9.25</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="F71" t="n">
-        <v>1243</v>
+        <v>162930.3754</v>
       </c>
       <c r="G71" t="n">
-        <v>9.333200000000009</v>
+        <v>814905.853638404</v>
       </c>
       <c r="H71" t="n">
-        <v>9.564083333333333</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3306,36 +2883,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>9.24</v>
+        <v>9.545</v>
       </c>
       <c r="C72" t="n">
-        <v>9.237</v>
+        <v>9.545</v>
       </c>
       <c r="D72" t="n">
-        <v>9.24</v>
+        <v>9.545</v>
       </c>
       <c r="E72" t="n">
-        <v>9.237</v>
+        <v>9.545</v>
       </c>
       <c r="F72" t="n">
-        <v>13032</v>
+        <v>53917.6336</v>
       </c>
       <c r="G72" t="n">
-        <v>9.315666666666676</v>
+        <v>814905.853638404</v>
       </c>
       <c r="H72" t="n">
-        <v>9.556199999999997</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3344,36 +2918,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9.24</v>
+        <v>9.545</v>
       </c>
       <c r="C73" t="n">
-        <v>9.348000000000001</v>
+        <v>9.41</v>
       </c>
       <c r="D73" t="n">
-        <v>9.348000000000001</v>
+        <v>9.545</v>
       </c>
       <c r="E73" t="n">
-        <v>9.24</v>
+        <v>9.41</v>
       </c>
       <c r="F73" t="n">
-        <v>18025</v>
+        <v>13714.89</v>
       </c>
       <c r="G73" t="n">
-        <v>9.312066666666677</v>
+        <v>801190.963638404</v>
       </c>
       <c r="H73" t="n">
-        <v>9.553499999999996</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3382,36 +2953,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>9.348000000000001</v>
+        <v>9.42</v>
       </c>
       <c r="C74" t="n">
-        <v>9.348000000000001</v>
+        <v>9.401999999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>9.348000000000001</v>
+        <v>9.42</v>
       </c>
       <c r="E74" t="n">
-        <v>9.348000000000001</v>
+        <v>9.401999999999999</v>
       </c>
       <c r="F74" t="n">
-        <v>5348.7377</v>
+        <v>54893.6145</v>
       </c>
       <c r="G74" t="n">
-        <v>9.308600000000011</v>
+        <v>746297.349138404</v>
       </c>
       <c r="H74" t="n">
-        <v>9.547616666666663</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3420,36 +2988,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>9.348000000000001</v>
+        <v>9.538</v>
       </c>
       <c r="C75" t="n">
-        <v>9.348000000000001</v>
+        <v>9.538</v>
       </c>
       <c r="D75" t="n">
-        <v>9.348000000000001</v>
+        <v>9.538</v>
       </c>
       <c r="E75" t="n">
-        <v>9.348000000000001</v>
+        <v>9.538</v>
       </c>
       <c r="F75" t="n">
-        <v>75310.103</v>
+        <v>3648.5546</v>
       </c>
       <c r="G75" t="n">
-        <v>9.316666666666679</v>
+        <v>749945.903738404</v>
       </c>
       <c r="H75" t="n">
-        <v>9.541733333333328</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,36 +3023,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>9.260999999999999</v>
+        <v>9.528</v>
       </c>
       <c r="C76" t="n">
-        <v>9.226000000000001</v>
+        <v>9.528</v>
       </c>
       <c r="D76" t="n">
-        <v>9.260999999999999</v>
+        <v>9.528</v>
       </c>
       <c r="E76" t="n">
-        <v>9.226000000000001</v>
+        <v>9.528</v>
       </c>
       <c r="F76" t="n">
-        <v>153787.3776</v>
+        <v>32972.241</v>
       </c>
       <c r="G76" t="n">
-        <v>9.311733333333343</v>
+        <v>716973.662738404</v>
       </c>
       <c r="H76" t="n">
-        <v>9.536416666666662</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3496,36 +3058,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>9.329000000000001</v>
+        <v>9.532</v>
       </c>
       <c r="C77" t="n">
-        <v>9.327999999999999</v>
+        <v>9.532</v>
       </c>
       <c r="D77" t="n">
-        <v>9.33</v>
+        <v>9.532</v>
       </c>
       <c r="E77" t="n">
-        <v>9.32</v>
+        <v>9.532</v>
       </c>
       <c r="F77" t="n">
-        <v>89376</v>
+        <v>2447.4526</v>
       </c>
       <c r="G77" t="n">
-        <v>9.307733333333344</v>
+        <v>719421.115338404</v>
       </c>
       <c r="H77" t="n">
-        <v>9.530216666666661</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3534,36 +3093,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>9.327999999999999</v>
+        <v>9.532</v>
       </c>
       <c r="C78" t="n">
-        <v>9.327999999999999</v>
+        <v>9.532</v>
       </c>
       <c r="D78" t="n">
-        <v>9.327999999999999</v>
+        <v>9.532</v>
       </c>
       <c r="E78" t="n">
-        <v>9.327999999999999</v>
+        <v>9.532</v>
       </c>
       <c r="F78" t="n">
-        <v>13298</v>
+        <v>10321.4168</v>
       </c>
       <c r="G78" t="n">
-        <v>9.302933333333344</v>
+        <v>719421.115338404</v>
       </c>
       <c r="H78" t="n">
-        <v>9.524016666666659</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3572,36 +3128,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>9.398999999999999</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>9.41</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>9.41</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="E79" t="n">
-        <v>9.398999999999999</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="F79" t="n">
-        <v>15689</v>
+        <v>15674</v>
       </c>
       <c r="G79" t="n">
-        <v>9.30360000000001</v>
+        <v>735095.115338404</v>
       </c>
       <c r="H79" t="n">
-        <v>9.519183333333325</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,36 +3163,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>9.41</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>9.557</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>9.557</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="E80" t="n">
-        <v>9.41</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="F80" t="n">
-        <v>1597</v>
+        <v>15119.8981</v>
       </c>
       <c r="G80" t="n">
-        <v>9.314066666666674</v>
+        <v>735095.115338404</v>
       </c>
       <c r="H80" t="n">
-        <v>9.516799999999991</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3648,36 +3198,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>9.353999999999999</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>9.353999999999999</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>9.353999999999999</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>9.353999999999999</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="F81" t="n">
-        <v>129387.7176</v>
+        <v>73375</v>
       </c>
       <c r="G81" t="n">
-        <v>9.322533333333341</v>
+        <v>808470.115338404</v>
       </c>
       <c r="H81" t="n">
-        <v>9.511033333333325</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3686,36 +3233,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9.381</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>9.353999999999999</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>9.381</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="E82" t="n">
-        <v>9.353999999999999</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="F82" t="n">
-        <v>60048.8107</v>
+        <v>5225.2488</v>
       </c>
       <c r="G82" t="n">
-        <v>9.319466666666674</v>
+        <v>808470.115338404</v>
       </c>
       <c r="H82" t="n">
-        <v>9.506433333333325</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3724,36 +3268,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9.4</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>9.4</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>9.4</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>9.4</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>800</v>
+        <v>22403.88</v>
       </c>
       <c r="G83" t="n">
-        <v>9.331000000000008</v>
+        <v>808470.115338404</v>
       </c>
       <c r="H83" t="n">
-        <v>9.502499999999992</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3762,36 +3303,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9.571</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>9.571</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>9.571</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="E84" t="n">
-        <v>9.571</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="F84" t="n">
-        <v>64.1121</v>
+        <v>6000</v>
       </c>
       <c r="G84" t="n">
-        <v>9.352333333333341</v>
+        <v>802470.115338404</v>
       </c>
       <c r="H84" t="n">
-        <v>9.497133333333325</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3800,36 +3338,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9.516999999999999</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>9.516999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="D85" t="n">
-        <v>9.516999999999999</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="E85" t="n">
-        <v>9.516999999999999</v>
+        <v>9.394</v>
       </c>
       <c r="F85" t="n">
-        <v>5789</v>
+        <v>319722.2921</v>
       </c>
       <c r="G85" t="n">
-        <v>9.37173333333334</v>
+        <v>482747.8232384039</v>
       </c>
       <c r="H85" t="n">
-        <v>9.492249999999993</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3838,36 +3373,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9.398999999999999</v>
+        <v>9.484999999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>9.388</v>
+        <v>9.5</v>
       </c>
       <c r="D86" t="n">
-        <v>9.398999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="E86" t="n">
-        <v>9.353999999999999</v>
+        <v>9.484</v>
       </c>
       <c r="F86" t="n">
-        <v>74664.5131</v>
+        <v>30751.94</v>
       </c>
       <c r="G86" t="n">
-        <v>9.38093333333334</v>
+        <v>513499.7632384039</v>
       </c>
       <c r="H86" t="n">
-        <v>9.485216666666663</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3876,36 +3408,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>9.388</v>
+        <v>9.49</v>
       </c>
       <c r="C87" t="n">
-        <v>9.478999999999999</v>
+        <v>9.401999999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>9.478999999999999</v>
+        <v>9.49</v>
       </c>
       <c r="E87" t="n">
-        <v>9.388</v>
+        <v>9.4</v>
       </c>
       <c r="F87" t="n">
-        <v>10000</v>
+        <v>25960.64</v>
       </c>
       <c r="G87" t="n">
-        <v>9.397066666666673</v>
+        <v>487539.1232384039</v>
       </c>
       <c r="H87" t="n">
-        <v>9.481349999999996</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3914,36 +3443,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>9.539</v>
+        <v>9.420999999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>9.539</v>
+        <v>9.4</v>
       </c>
       <c r="D88" t="n">
-        <v>9.539</v>
+        <v>9.420999999999999</v>
       </c>
       <c r="E88" t="n">
-        <v>9.539</v>
+        <v>9.4</v>
       </c>
       <c r="F88" t="n">
-        <v>102.2269</v>
+        <v>240282.7586</v>
       </c>
       <c r="G88" t="n">
-        <v>9.409800000000006</v>
+        <v>247256.3646384039</v>
       </c>
       <c r="H88" t="n">
-        <v>9.478483333333328</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3952,36 +3478,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9.359999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="C89" t="n">
-        <v>9.471</v>
+        <v>9.227</v>
       </c>
       <c r="D89" t="n">
-        <v>9.545999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="E89" t="n">
-        <v>9.359999999999999</v>
+        <v>9.227</v>
       </c>
       <c r="F89" t="n">
-        <v>46906.1453</v>
+        <v>396416.6184</v>
       </c>
       <c r="G89" t="n">
-        <v>9.418000000000005</v>
+        <v>-149160.253761596</v>
       </c>
       <c r="H89" t="n">
-        <v>9.47533333333333</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3990,36 +3513,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>9.355</v>
+        <v>9.348000000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>9.355</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>9.355</v>
+        <v>9.348000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>9.355</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F90" t="n">
-        <v>59067.4799</v>
+        <v>21890</v>
       </c>
       <c r="G90" t="n">
-        <v>9.418466666666669</v>
+        <v>-127270.253761596</v>
       </c>
       <c r="H90" t="n">
-        <v>9.470249999999997</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4028,36 +3548,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9.477</v>
+        <v>9.388</v>
       </c>
       <c r="C91" t="n">
-        <v>9.477</v>
+        <v>9.388</v>
       </c>
       <c r="D91" t="n">
-        <v>9.477</v>
+        <v>9.388</v>
       </c>
       <c r="E91" t="n">
-        <v>9.477</v>
+        <v>9.388</v>
       </c>
       <c r="F91" t="n">
-        <v>108</v>
+        <v>17553</v>
       </c>
       <c r="G91" t="n">
-        <v>9.435200000000004</v>
+        <v>-109717.253761596</v>
       </c>
       <c r="H91" t="n">
-        <v>9.468199999999996</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4066,36 +3583,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>9.355</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>9.355</v>
+        <v>9.4</v>
       </c>
       <c r="D92" t="n">
-        <v>9.355</v>
+        <v>9.4</v>
       </c>
       <c r="E92" t="n">
-        <v>9.355</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="F92" t="n">
-        <v>108</v>
+        <v>4149.232658191489</v>
       </c>
       <c r="G92" t="n">
-        <v>9.437000000000003</v>
+        <v>-105568.0211034046</v>
       </c>
       <c r="H92" t="n">
-        <v>9.464949999999996</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4104,36 +3618,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9.475</v>
+        <v>9.228</v>
       </c>
       <c r="C93" t="n">
-        <v>9.475</v>
+        <v>9.4</v>
       </c>
       <c r="D93" t="n">
-        <v>9.475</v>
+        <v>9.4</v>
       </c>
       <c r="E93" t="n">
-        <v>9.475</v>
+        <v>9.228</v>
       </c>
       <c r="F93" t="n">
-        <v>109.2177</v>
+        <v>40811.6461</v>
       </c>
       <c r="G93" t="n">
-        <v>9.446800000000001</v>
+        <v>-105568.0211034046</v>
       </c>
       <c r="H93" t="n">
-        <v>9.462816666666665</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4142,36 +3653,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>9.407999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="C94" t="n">
-        <v>9.407999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="D94" t="n">
-        <v>9.407999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="E94" t="n">
-        <v>9.407999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="F94" t="n">
-        <v>6351</v>
+        <v>5262.8227</v>
       </c>
       <c r="G94" t="n">
-        <v>9.446666666666667</v>
+        <v>-105568.0211034046</v>
       </c>
       <c r="H94" t="n">
-        <v>9.455116666666665</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4180,36 +3688,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>9.4</v>
+        <v>9.227</v>
       </c>
       <c r="C95" t="n">
-        <v>9.398999999999999</v>
+        <v>9.227</v>
       </c>
       <c r="D95" t="n">
-        <v>9.4</v>
+        <v>9.227</v>
       </c>
       <c r="E95" t="n">
-        <v>9.398999999999999</v>
+        <v>9.227</v>
       </c>
       <c r="F95" t="n">
-        <v>29152.9999</v>
+        <v>8500</v>
       </c>
       <c r="G95" t="n">
-        <v>9.436133333333336</v>
+        <v>-114068.0211034046</v>
       </c>
       <c r="H95" t="n">
-        <v>9.447266666666666</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4218,36 +3723,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>9.470000000000001</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>9.470000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="D96" t="n">
-        <v>9.470000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="E96" t="n">
-        <v>9.470000000000001</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="F96" t="n">
-        <v>2000</v>
+        <v>27278.2199</v>
       </c>
       <c r="G96" t="n">
-        <v>9.443866666666668</v>
+        <v>-86789.80120340457</v>
       </c>
       <c r="H96" t="n">
-        <v>9.440616666666665</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4256,36 +3758,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>9.467000000000001</v>
+        <v>9.227</v>
       </c>
       <c r="C97" t="n">
-        <v>9.467000000000001</v>
+        <v>9.227</v>
       </c>
       <c r="D97" t="n">
-        <v>9.467000000000001</v>
+        <v>9.227</v>
       </c>
       <c r="E97" t="n">
-        <v>9.467000000000001</v>
+        <v>9.227</v>
       </c>
       <c r="F97" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="G97" t="n">
-        <v>9.451400000000001</v>
+        <v>-88789.80120340457</v>
       </c>
       <c r="H97" t="n">
-        <v>9.434066666666665</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4294,36 +3793,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>9.467000000000001</v>
+        <v>9.250999999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>9.488</v>
+        <v>9.250999999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>9.488</v>
+        <v>9.250999999999999</v>
       </c>
       <c r="E98" t="n">
-        <v>9.467000000000001</v>
+        <v>9.227</v>
       </c>
       <c r="F98" t="n">
-        <v>8000</v>
+        <v>166015.9533</v>
       </c>
       <c r="G98" t="n">
-        <v>9.457266666666667</v>
+        <v>77226.15209659543</v>
       </c>
       <c r="H98" t="n">
-        <v>9.432183333333333</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4332,36 +3828,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>9.48</v>
+        <v>9.227</v>
       </c>
       <c r="C99" t="n">
-        <v>9.470000000000001</v>
+        <v>9.226000000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>9.48</v>
+        <v>9.227</v>
       </c>
       <c r="E99" t="n">
-        <v>9.470000000000001</v>
+        <v>9.226000000000001</v>
       </c>
       <c r="F99" t="n">
-        <v>37040.1478</v>
+        <v>80766.1548</v>
       </c>
       <c r="G99" t="n">
-        <v>9.450533333333334</v>
+        <v>-3540.002703404578</v>
       </c>
       <c r="H99" t="n">
-        <v>9.430033333333332</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4370,36 +3863,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>9.470000000000001</v>
+        <v>9.25</v>
       </c>
       <c r="C100" t="n">
-        <v>9.48</v>
+        <v>9.25</v>
       </c>
       <c r="D100" t="n">
-        <v>9.48</v>
+        <v>9.25</v>
       </c>
       <c r="E100" t="n">
-        <v>9.470000000000001</v>
+        <v>9.25</v>
       </c>
       <c r="F100" t="n">
-        <v>21588</v>
+        <v>1243</v>
       </c>
       <c r="G100" t="n">
-        <v>9.448066666666668</v>
+        <v>-2297.002703404578</v>
       </c>
       <c r="H100" t="n">
-        <v>9.424866666666667</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4408,36 +3898,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>9.48</v>
+        <v>9.24</v>
       </c>
       <c r="C101" t="n">
-        <v>9.48</v>
+        <v>9.237</v>
       </c>
       <c r="D101" t="n">
-        <v>9.48</v>
+        <v>9.24</v>
       </c>
       <c r="E101" t="n">
-        <v>9.48</v>
+        <v>9.237</v>
       </c>
       <c r="F101" t="n">
-        <v>6000</v>
+        <v>13032</v>
       </c>
       <c r="G101" t="n">
-        <v>9.454199999999998</v>
+        <v>-15329.00270340458</v>
       </c>
       <c r="H101" t="n">
-        <v>9.421366666666666</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4446,36 +3933,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>9.48</v>
+        <v>9.24</v>
       </c>
       <c r="C102" t="n">
-        <v>9.48</v>
+        <v>9.348000000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>9.48</v>
+        <v>9.348000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>9.48</v>
+        <v>9.24</v>
       </c>
       <c r="F102" t="n">
-        <v>6000</v>
+        <v>18025</v>
       </c>
       <c r="G102" t="n">
-        <v>9.454266666666664</v>
+        <v>2695.997296595422</v>
       </c>
       <c r="H102" t="n">
-        <v>9.420283333333334</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4484,36 +3968,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>9.48</v>
+        <v>9.348000000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>9.48</v>
+        <v>9.348000000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>9.48</v>
+        <v>9.348000000000001</v>
       </c>
       <c r="E103" t="n">
-        <v>9.48</v>
+        <v>9.348000000000001</v>
       </c>
       <c r="F103" t="n">
-        <v>2000</v>
+        <v>5348.7377</v>
       </c>
       <c r="G103" t="n">
-        <v>9.450333333333331</v>
+        <v>2695.997296595422</v>
       </c>
       <c r="H103" t="n">
-        <v>9.4192</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4522,36 +4003,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>9.48</v>
+        <v>9.348000000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>9.48</v>
+        <v>9.348000000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>9.48</v>
+        <v>9.348000000000001</v>
       </c>
       <c r="E104" t="n">
-        <v>9.48</v>
+        <v>9.348000000000001</v>
       </c>
       <c r="F104" t="n">
-        <v>2000</v>
+        <v>75310.103</v>
       </c>
       <c r="G104" t="n">
-        <v>9.45093333333333</v>
+        <v>2695.997296595422</v>
       </c>
       <c r="H104" t="n">
-        <v>9.420366666666668</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4560,36 +4038,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>9.48</v>
+        <v>9.260999999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>9.48</v>
+        <v>9.226000000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>9.48</v>
+        <v>9.260999999999999</v>
       </c>
       <c r="E105" t="n">
-        <v>9.48</v>
+        <v>9.226000000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>165</v>
+        <v>153787.3776</v>
       </c>
       <c r="G105" t="n">
-        <v>9.459266666666663</v>
+        <v>-151091.3803034046</v>
       </c>
       <c r="H105" t="n">
-        <v>9.421666666666669</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4598,36 +4073,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>9.48</v>
+        <v>9.329000000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>9.48</v>
+        <v>9.327999999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>9.48</v>
+        <v>9.33</v>
       </c>
       <c r="E106" t="n">
-        <v>9.48</v>
+        <v>9.32</v>
       </c>
       <c r="F106" t="n">
-        <v>165</v>
+        <v>89376</v>
       </c>
       <c r="G106" t="n">
-        <v>9.459466666666662</v>
+        <v>-61715.38030340458</v>
       </c>
       <c r="H106" t="n">
-        <v>9.420700000000002</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4636,36 +4108,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>9.48</v>
+        <v>9.327999999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>9.48</v>
+        <v>9.327999999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>9.48</v>
+        <v>9.327999999999999</v>
       </c>
       <c r="E107" t="n">
-        <v>9.48</v>
+        <v>9.327999999999999</v>
       </c>
       <c r="F107" t="n">
-        <v>600</v>
+        <v>13298</v>
       </c>
       <c r="G107" t="n">
-        <v>9.467799999999995</v>
+        <v>-61715.38030340458</v>
       </c>
       <c r="H107" t="n">
-        <v>9.419900000000002</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4674,36 +4143,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>9.48</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>9.539</v>
+        <v>9.41</v>
       </c>
       <c r="D108" t="n">
-        <v>9.539</v>
+        <v>9.41</v>
       </c>
       <c r="E108" t="n">
-        <v>9.48</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="F108" t="n">
-        <v>100</v>
+        <v>15689</v>
       </c>
       <c r="G108" t="n">
-        <v>9.472066666666661</v>
+        <v>-46026.38030340458</v>
       </c>
       <c r="H108" t="n">
-        <v>9.420016666666667</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4712,36 +4178,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>9.449999999999999</v>
+        <v>9.41</v>
       </c>
       <c r="C109" t="n">
-        <v>9.535</v>
+        <v>9.557</v>
       </c>
       <c r="D109" t="n">
-        <v>9.535</v>
+        <v>9.557</v>
       </c>
       <c r="E109" t="n">
-        <v>9.449999999999999</v>
+        <v>9.41</v>
       </c>
       <c r="F109" t="n">
-        <v>10309.6884</v>
+        <v>1597</v>
       </c>
       <c r="G109" t="n">
-        <v>9.48053333333333</v>
+        <v>-44429.38030340458</v>
       </c>
       <c r="H109" t="n">
-        <v>9.420066666666665</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4750,36 +4213,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>9.449999999999999</v>
+        <v>9.353999999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>9.481</v>
+        <v>9.353999999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>9.526999999999999</v>
+        <v>9.353999999999999</v>
       </c>
       <c r="E110" t="n">
-        <v>9.449999999999999</v>
+        <v>9.353999999999999</v>
       </c>
       <c r="F110" t="n">
-        <v>15886.236</v>
+        <v>129387.7176</v>
       </c>
       <c r="G110" t="n">
-        <v>9.485999999999995</v>
+        <v>-173817.0979034046</v>
       </c>
       <c r="H110" t="n">
-        <v>9.418766666666667</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,36 +4248,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>9.468</v>
+        <v>9.381</v>
       </c>
       <c r="C111" t="n">
-        <v>9.526999999999999</v>
+        <v>9.353999999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>9.526999999999999</v>
+        <v>9.381</v>
       </c>
       <c r="E111" t="n">
-        <v>9.468</v>
+        <v>9.353999999999999</v>
       </c>
       <c r="F111" t="n">
-        <v>261.6698</v>
+        <v>60048.8107</v>
       </c>
       <c r="G111" t="n">
-        <v>9.489799999999995</v>
+        <v>-173817.0979034046</v>
       </c>
       <c r="H111" t="n">
-        <v>9.418233333333335</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4826,36 +4283,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>9.526999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="C112" t="n">
-        <v>9.526999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="D112" t="n">
-        <v>9.526999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="E112" t="n">
-        <v>9.526999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="F112" t="n">
-        <v>165</v>
+        <v>800</v>
       </c>
       <c r="G112" t="n">
-        <v>9.493799999999993</v>
+        <v>-173017.0979034046</v>
       </c>
       <c r="H112" t="n">
-        <v>9.41736666666667</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4864,36 +4318,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>9.481</v>
+        <v>9.571</v>
       </c>
       <c r="C113" t="n">
-        <v>9.44</v>
+        <v>9.571</v>
       </c>
       <c r="D113" t="n">
-        <v>9.481</v>
+        <v>9.571</v>
       </c>
       <c r="E113" t="n">
-        <v>9.44</v>
+        <v>9.571</v>
       </c>
       <c r="F113" t="n">
-        <v>15674</v>
+        <v>64.1121</v>
       </c>
       <c r="G113" t="n">
-        <v>9.490599999999993</v>
+        <v>-172952.9858034046</v>
       </c>
       <c r="H113" t="n">
-        <v>9.415050000000004</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4902,36 +4353,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>9.44</v>
+        <v>9.516999999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>9.44</v>
+        <v>9.516999999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>9.44</v>
+        <v>9.516999999999999</v>
       </c>
       <c r="E114" t="n">
-        <v>9.44</v>
+        <v>9.516999999999999</v>
       </c>
       <c r="F114" t="n">
-        <v>7001.651</v>
+        <v>5789</v>
       </c>
       <c r="G114" t="n">
-        <v>9.488599999999993</v>
+        <v>-178741.9858034046</v>
       </c>
       <c r="H114" t="n">
-        <v>9.412733333333339</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4940,36 +4388,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>9.433</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>9.433</v>
+        <v>9.388</v>
       </c>
       <c r="D115" t="n">
-        <v>9.433</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="E115" t="n">
-        <v>9.433</v>
+        <v>9.353999999999999</v>
       </c>
       <c r="F115" t="n">
-        <v>72674</v>
+        <v>74664.5131</v>
       </c>
       <c r="G115" t="n">
-        <v>9.48546666666666</v>
+        <v>-253406.4989034046</v>
       </c>
       <c r="H115" t="n">
-        <v>9.412116666666671</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4978,36 +4423,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>9.433</v>
+        <v>9.388</v>
       </c>
       <c r="C116" t="n">
-        <v>9.432</v>
+        <v>9.478999999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>9.433</v>
+        <v>9.478999999999999</v>
       </c>
       <c r="E116" t="n">
-        <v>9.432</v>
+        <v>9.388</v>
       </c>
       <c r="F116" t="n">
-        <v>838.3200000000001</v>
+        <v>10000</v>
       </c>
       <c r="G116" t="n">
-        <v>9.482266666666659</v>
+        <v>-243406.4989034046</v>
       </c>
       <c r="H116" t="n">
-        <v>9.412650000000006</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5016,36 +4458,33 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>9.369999999999999</v>
+        <v>9.539</v>
       </c>
       <c r="C117" t="n">
-        <v>9.369999999999999</v>
+        <v>9.539</v>
       </c>
       <c r="D117" t="n">
-        <v>9.369999999999999</v>
+        <v>9.539</v>
       </c>
       <c r="E117" t="n">
-        <v>9.369999999999999</v>
+        <v>9.539</v>
       </c>
       <c r="F117" t="n">
-        <v>822.0015</v>
+        <v>102.2269</v>
       </c>
       <c r="G117" t="n">
-        <v>9.474933333333327</v>
+        <v>-243304.2720034046</v>
       </c>
       <c r="H117" t="n">
-        <v>9.410483333333339</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5054,40 +4493,33 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>9.523</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="C118" t="n">
-        <v>9.523999999999999</v>
+        <v>9.471</v>
       </c>
       <c r="D118" t="n">
-        <v>9.523999999999999</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="E118" t="n">
-        <v>9.523</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="F118" t="n">
-        <v>7781.834</v>
+        <v>46906.1453</v>
       </c>
       <c r="G118" t="n">
-        <v>9.477866666666662</v>
+        <v>-290210.4173034045</v>
       </c>
       <c r="H118" t="n">
-        <v>9.412516666666672</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="L118" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5096,848 +4528,1804 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
+        <v>9.355</v>
+      </c>
+      <c r="C119" t="n">
+        <v>9.355</v>
+      </c>
+      <c r="D119" t="n">
+        <v>9.355</v>
+      </c>
+      <c r="E119" t="n">
+        <v>9.355</v>
+      </c>
+      <c r="F119" t="n">
+        <v>59067.4799</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-349277.8972034045</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>9.477</v>
+      </c>
+      <c r="C120" t="n">
+        <v>9.477</v>
+      </c>
+      <c r="D120" t="n">
+        <v>9.477</v>
+      </c>
+      <c r="E120" t="n">
+        <v>9.477</v>
+      </c>
+      <c r="F120" t="n">
+        <v>108</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-349169.8972034045</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>9.355</v>
+      </c>
+      <c r="C121" t="n">
+        <v>9.355</v>
+      </c>
+      <c r="D121" t="n">
+        <v>9.355</v>
+      </c>
+      <c r="E121" t="n">
+        <v>9.355</v>
+      </c>
+      <c r="F121" t="n">
+        <v>108</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-349277.8972034045</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>9.475</v>
+      </c>
+      <c r="C122" t="n">
+        <v>9.475</v>
+      </c>
+      <c r="D122" t="n">
+        <v>9.475</v>
+      </c>
+      <c r="E122" t="n">
+        <v>9.475</v>
+      </c>
+      <c r="F122" t="n">
+        <v>109.2177</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-349168.6795034045</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>9.407999999999999</v>
+      </c>
+      <c r="C123" t="n">
+        <v>9.407999999999999</v>
+      </c>
+      <c r="D123" t="n">
+        <v>9.407999999999999</v>
+      </c>
+      <c r="E123" t="n">
+        <v>9.407999999999999</v>
+      </c>
+      <c r="F123" t="n">
+        <v>6351</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-355519.6795034045</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="C124" t="n">
+        <v>9.398999999999999</v>
+      </c>
+      <c r="D124" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="E124" t="n">
+        <v>9.398999999999999</v>
+      </c>
+      <c r="F124" t="n">
+        <v>29152.9999</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-384672.6794034045</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="C125" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="D125" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="E125" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="F125" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-382672.6794034045</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="C126" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="D126" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="E126" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="F126" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-388672.6794034045</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="C127" t="n">
+        <v>9.488</v>
+      </c>
+      <c r="D127" t="n">
+        <v>9.488</v>
+      </c>
+      <c r="E127" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="F127" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-380672.6794034045</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="C128" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="D128" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="E128" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="F128" t="n">
+        <v>37040.1478</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-417712.8272034045</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="C129" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="D129" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="E129" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="F129" t="n">
+        <v>21588</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-396124.8272034045</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="C130" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="D130" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="E130" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="F130" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-396124.8272034045</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="C131" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="D131" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="E131" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="F131" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-396124.8272034045</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="C132" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="D132" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="E132" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-396124.8272034045</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="C133" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="D133" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="E133" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-396124.8272034045</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="C134" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="D134" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="E134" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="F134" t="n">
+        <v>165</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-396124.8272034045</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="C135" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="D135" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="E135" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="F135" t="n">
+        <v>165</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-396124.8272034045</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="C136" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="D136" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="E136" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="F136" t="n">
+        <v>600</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-396124.8272034045</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="C137" t="n">
+        <v>9.539</v>
+      </c>
+      <c r="D137" t="n">
+        <v>9.539</v>
+      </c>
+      <c r="E137" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="F137" t="n">
+        <v>100</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-396024.8272034045</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="C138" t="n">
+        <v>9.535</v>
+      </c>
+      <c r="D138" t="n">
+        <v>9.535</v>
+      </c>
+      <c r="E138" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="F138" t="n">
+        <v>10309.6884</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-406334.5156034045</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="C139" t="n">
+        <v>9.481</v>
+      </c>
+      <c r="D139" t="n">
+        <v>9.526999999999999</v>
+      </c>
+      <c r="E139" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="F139" t="n">
+        <v>15886.236</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-422220.7516034045</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>9.468</v>
+      </c>
+      <c r="C140" t="n">
+        <v>9.526999999999999</v>
+      </c>
+      <c r="D140" t="n">
+        <v>9.526999999999999</v>
+      </c>
+      <c r="E140" t="n">
+        <v>9.468</v>
+      </c>
+      <c r="F140" t="n">
+        <v>261.6698</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-421959.0818034045</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>9.526999999999999</v>
+      </c>
+      <c r="C141" t="n">
+        <v>9.526999999999999</v>
+      </c>
+      <c r="D141" t="n">
+        <v>9.526999999999999</v>
+      </c>
+      <c r="E141" t="n">
+        <v>9.526999999999999</v>
+      </c>
+      <c r="F141" t="n">
+        <v>165</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-421959.0818034045</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>9.481</v>
+      </c>
+      <c r="C142" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="D142" t="n">
+        <v>9.481</v>
+      </c>
+      <c r="E142" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="F142" t="n">
+        <v>15674</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-437633.0818034045</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="C143" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="D143" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="E143" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="F143" t="n">
+        <v>7001.651</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-437633.0818034045</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>9.433</v>
+      </c>
+      <c r="C144" t="n">
+        <v>9.433</v>
+      </c>
+      <c r="D144" t="n">
+        <v>9.433</v>
+      </c>
+      <c r="E144" t="n">
+        <v>9.433</v>
+      </c>
+      <c r="F144" t="n">
+        <v>72674</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-510307.0818034045</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>9.433</v>
+      </c>
+      <c r="C145" t="n">
+        <v>9.432</v>
+      </c>
+      <c r="D145" t="n">
+        <v>9.433</v>
+      </c>
+      <c r="E145" t="n">
+        <v>9.432</v>
+      </c>
+      <c r="F145" t="n">
+        <v>838.3200000000001</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-511145.4018034045</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="C146" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="D146" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="E146" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="F146" t="n">
+        <v>822.0015</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-511967.4033034045</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>9.523</v>
+      </c>
+      <c r="C147" t="n">
+        <v>9.523999999999999</v>
+      </c>
+      <c r="D147" t="n">
+        <v>9.523999999999999</v>
+      </c>
+      <c r="E147" t="n">
+        <v>9.523</v>
+      </c>
+      <c r="F147" t="n">
+        <v>7781.834</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-504185.5693034045</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
         <v>9.539999999999999</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C148" t="n">
         <v>9.539999999999999</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D148" t="n">
         <v>9.539999999999999</v>
       </c>
-      <c r="E119" t="n">
+      <c r="E148" t="n">
         <v>9.539999999999999</v>
       </c>
-      <c r="F119" t="n">
+      <c r="F148" t="n">
         <v>1868</v>
       </c>
-      <c r="G119" t="n">
-        <v>9.481866666666662</v>
-      </c>
-      <c r="H119" t="n">
-        <v>9.414850000000005</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="M119" t="inlineStr">
+      <c r="G148" t="n">
+        <v>-502317.5693034045</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>9.545</v>
+      </c>
+      <c r="C149" t="n">
+        <v>9.545</v>
+      </c>
+      <c r="D149" t="n">
+        <v>9.545</v>
+      </c>
+      <c r="E149" t="n">
+        <v>9.545</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2567.0774</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-499750.4919034045</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>9.545999999999999</v>
+      </c>
+      <c r="C150" t="n">
+        <v>9.545</v>
+      </c>
+      <c r="D150" t="n">
+        <v>9.545999999999999</v>
+      </c>
+      <c r="E150" t="n">
+        <v>9.545</v>
+      </c>
+      <c r="F150" t="n">
+        <v>47238.9371</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-499750.4919034045</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>9.545999999999999</v>
+      </c>
+      <c r="C151" t="n">
+        <v>9.545999999999999</v>
+      </c>
+      <c r="D151" t="n">
+        <v>9.545999999999999</v>
+      </c>
+      <c r="E151" t="n">
+        <v>9.545999999999999</v>
+      </c>
+      <c r="F151" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-484750.4919034045</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="C152" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="D152" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="E152" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="F152" t="n">
+        <v>25645.5252</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-510396.0171034045</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>9.433</v>
+      </c>
+      <c r="C153" t="n">
+        <v>9.422000000000001</v>
+      </c>
+      <c r="D153" t="n">
+        <v>9.433</v>
+      </c>
+      <c r="E153" t="n">
+        <v>9.422000000000001</v>
+      </c>
+      <c r="F153" t="n">
+        <v>15674</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-526070.0171034045</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>9.422000000000001</v>
+      </c>
+      <c r="C154" t="n">
+        <v>9.422000000000001</v>
+      </c>
+      <c r="D154" t="n">
+        <v>9.422000000000001</v>
+      </c>
+      <c r="E154" t="n">
+        <v>9.422000000000001</v>
+      </c>
+      <c r="F154" t="n">
+        <v>15674</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-526070.0171034045</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>9.449</v>
+      </c>
+      <c r="C155" t="n">
+        <v>9.449</v>
+      </c>
+      <c r="D155" t="n">
+        <v>9.449</v>
+      </c>
+      <c r="E155" t="n">
+        <v>9.449</v>
+      </c>
+      <c r="F155" t="n">
+        <v>130654.7648</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-395415.2523034045</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>9.449</v>
+      </c>
+      <c r="C156" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="D156" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E156" t="n">
+        <v>9.449</v>
+      </c>
+      <c r="F156" t="n">
+        <v>63365</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-332050.2523034045</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C157" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="D157" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E157" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F157" t="n">
+        <v>54.0998</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-332050.2523034045</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K157" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C158" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="D158" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E158" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F158" t="n">
+        <v>19890.9002</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-332050.2523034045</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L158" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>9.545</v>
-      </c>
-      <c r="C120" t="n">
-        <v>9.545</v>
-      </c>
-      <c r="D120" t="n">
-        <v>9.545</v>
-      </c>
-      <c r="E120" t="n">
-        <v>9.545</v>
-      </c>
-      <c r="F120" t="n">
-        <v>2567.0774</v>
-      </c>
-      <c r="G120" t="n">
-        <v>9.486199999999995</v>
-      </c>
-      <c r="H120" t="n">
-        <v>9.420150000000005</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="M120" t="inlineStr">
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C159" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="D159" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E159" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F159" t="n">
+        <v>17400.55</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-332050.2523034045</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K159" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L159" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>9.545999999999999</v>
-      </c>
-      <c r="C121" t="n">
-        <v>9.545</v>
-      </c>
-      <c r="D121" t="n">
-        <v>9.545999999999999</v>
-      </c>
-      <c r="E121" t="n">
-        <v>9.545</v>
-      </c>
-      <c r="F121" t="n">
-        <v>47238.9371</v>
-      </c>
-      <c r="G121" t="n">
-        <v>9.490533333333328</v>
-      </c>
-      <c r="H121" t="n">
-        <v>9.424233333333339</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>9.545999999999999</v>
-      </c>
-      <c r="C122" t="n">
-        <v>9.545999999999999</v>
-      </c>
-      <c r="D122" t="n">
-        <v>9.545999999999999</v>
-      </c>
-      <c r="E122" t="n">
-        <v>9.545999999999999</v>
-      </c>
-      <c r="F122" t="n">
-        <v>15000</v>
-      </c>
-      <c r="G122" t="n">
-        <v>9.494933333333329</v>
-      </c>
-      <c r="H122" t="n">
-        <v>9.426866666666673</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>9.547000000000001</v>
+      </c>
+      <c r="C160" t="n">
+        <v>9.547000000000001</v>
+      </c>
+      <c r="D160" t="n">
+        <v>9.547000000000001</v>
+      </c>
+      <c r="E160" t="n">
+        <v>9.547000000000001</v>
+      </c>
+      <c r="F160" t="n">
+        <v>66.93680000000001</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-331983.3155034045</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K160" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
         <v>9.449999999999999</v>
       </c>
-      <c r="C123" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="D123" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="E123" t="n">
+      <c r="C161" t="n">
         <v>9.449999999999999</v>
       </c>
-      <c r="F123" t="n">
-        <v>25645.5252</v>
-      </c>
-      <c r="G123" t="n">
-        <v>9.489666666666663</v>
-      </c>
-      <c r="H123" t="n">
-        <v>9.427866666666672</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>9.433</v>
-      </c>
-      <c r="C124" t="n">
-        <v>9.422000000000001</v>
-      </c>
-      <c r="D124" t="n">
-        <v>9.433</v>
-      </c>
-      <c r="E124" t="n">
-        <v>9.422000000000001</v>
-      </c>
-      <c r="F124" t="n">
-        <v>15674</v>
-      </c>
-      <c r="G124" t="n">
-        <v>9.48213333333333</v>
-      </c>
-      <c r="H124" t="n">
-        <v>9.42823333333334</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>9.422000000000001</v>
-      </c>
-      <c r="C125" t="n">
-        <v>9.422000000000001</v>
-      </c>
-      <c r="D125" t="n">
-        <v>9.422000000000001</v>
-      </c>
-      <c r="E125" t="n">
-        <v>9.422000000000001</v>
-      </c>
-      <c r="F125" t="n">
-        <v>15674</v>
-      </c>
-      <c r="G125" t="n">
-        <v>9.478199999999996</v>
-      </c>
-      <c r="H125" t="n">
-        <v>9.428600000000008</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>9.449</v>
-      </c>
-      <c r="C126" t="n">
-        <v>9.449</v>
-      </c>
-      <c r="D126" t="n">
-        <v>9.449</v>
-      </c>
-      <c r="E126" t="n">
-        <v>9.449</v>
-      </c>
-      <c r="F126" t="n">
-        <v>130654.7648</v>
-      </c>
-      <c r="G126" t="n">
-        <v>9.472999999999997</v>
-      </c>
-      <c r="H126" t="n">
-        <v>9.432300000000007</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>9.449</v>
-      </c>
-      <c r="C127" t="n">
+      <c r="D161" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="E161" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="F161" t="n">
+        <v>6060</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-338043.3155034045</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>9.547000000000001</v>
+      </c>
+      <c r="K161" t="n">
         <v>9.5</v>
       </c>
-      <c r="D127" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="E127" t="n">
-        <v>9.449</v>
-      </c>
-      <c r="F127" t="n">
-        <v>63365</v>
-      </c>
-      <c r="G127" t="n">
-        <v>9.4712</v>
-      </c>
-      <c r="H127" t="n">
-        <v>9.433966666666674</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="C128" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="D128" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="E128" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="F128" t="n">
-        <v>54.0998</v>
-      </c>
-      <c r="G128" t="n">
-        <v>9.475199999999999</v>
-      </c>
-      <c r="H128" t="n">
-        <v>9.438516666666676</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
-      <c r="K128" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="L128" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="C129" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="D129" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="E129" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="F129" t="n">
-        <v>19890.9002</v>
-      </c>
-      <c r="G129" t="n">
-        <v>9.479199999999999</v>
-      </c>
-      <c r="H129" t="n">
-        <v>9.442666666666675</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="M129" t="inlineStr">
+      <c r="L161" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="C162" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="D162" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="E162" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2200</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-338043.3155034045</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K162" t="n">
         <v>9.5</v>
       </c>
-      <c r="C130" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="D130" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="E130" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="F130" t="n">
-        <v>17400.55</v>
-      </c>
-      <c r="G130" t="n">
-        <v>9.483666666666666</v>
-      </c>
-      <c r="H130" t="n">
-        <v>9.447233333333342</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="M130" t="inlineStr">
+      <c r="L162" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>9.547000000000001</v>
-      </c>
-      <c r="C131" t="n">
-        <v>9.547000000000001</v>
-      </c>
-      <c r="D131" t="n">
-        <v>9.547000000000001</v>
-      </c>
-      <c r="E131" t="n">
-        <v>9.547000000000001</v>
-      </c>
-      <c r="F131" t="n">
-        <v>66.93680000000001</v>
-      </c>
-      <c r="G131" t="n">
-        <v>9.491333333333333</v>
-      </c>
-      <c r="H131" t="n">
-        <v>9.452183333333343</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="C132" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="D132" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="E132" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="F132" t="n">
-        <v>6060</v>
-      </c>
-      <c r="G132" t="n">
-        <v>9.496666666666666</v>
-      </c>
-      <c r="H132" t="n">
-        <v>9.455733333333344</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="C133" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="D133" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="E133" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="F133" t="n">
-        <v>2200</v>
-      </c>
-      <c r="G133" t="n">
-        <v>9.491733333333332</v>
-      </c>
-      <c r="H133" t="n">
-        <v>9.457433333333345</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
         <v>9.423</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C163" t="n">
         <v>9.422000000000001</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D163" t="n">
         <v>9.423</v>
       </c>
-      <c r="E134" t="n">
+      <c r="E163" t="n">
         <v>9.422000000000001</v>
       </c>
-      <c r="F134" t="n">
+      <c r="F163" t="n">
         <v>30379.53</v>
       </c>
-      <c r="G134" t="n">
-        <v>9.483866666666666</v>
-      </c>
-      <c r="H134" t="n">
-        <v>9.45866666666668</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
+      <c r="G163" t="n">
+        <v>-368422.8455034045</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
         <v>9.422000000000001</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C164" t="n">
         <v>9.403</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D164" t="n">
         <v>9.422000000000001</v>
       </c>
-      <c r="E135" t="n">
+      <c r="E164" t="n">
         <v>9.403</v>
       </c>
-      <c r="F135" t="n">
+      <c r="F164" t="n">
         <v>129303.01</v>
       </c>
-      <c r="G135" t="n">
-        <v>9.474399999999999</v>
-      </c>
-      <c r="H135" t="n">
-        <v>9.459583333333347</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
+      <c r="G164" t="n">
+        <v>-497725.8555034045</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
         <v>9.403</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C165" t="n">
         <v>9.403</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D165" t="n">
         <v>9.403</v>
       </c>
-      <c r="E136" t="n">
+      <c r="E165" t="n">
         <v>9.403</v>
       </c>
-      <c r="F136" t="n">
+      <c r="F165" t="n">
         <v>47.1657</v>
       </c>
-      <c r="G136" t="n">
-        <v>9.464933333333333</v>
-      </c>
-      <c r="H136" t="n">
-        <v>9.462533333333347</v>
-      </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
-      <c r="K136" t="n">
+      <c r="G165" t="n">
+        <v>-497725.8555034045</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>9.356</v>
+      </c>
+      <c r="C166" t="n">
+        <v>9.356</v>
+      </c>
+      <c r="D166" t="n">
+        <v>9.356</v>
+      </c>
+      <c r="E166" t="n">
+        <v>9.356</v>
+      </c>
+      <c r="F166" t="n">
+        <v>20062.4446</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-517788.3001034045</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
         <v>9.403</v>
       </c>
-      <c r="L136" t="n">
+      <c r="K166" t="n">
         <v>9.403</v>
       </c>
-      <c r="M136" t="inlineStr"/>
-      <c r="N136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>9.356</v>
-      </c>
-      <c r="C137" t="n">
-        <v>9.356</v>
-      </c>
-      <c r="D137" t="n">
-        <v>9.356</v>
-      </c>
-      <c r="E137" t="n">
-        <v>9.356</v>
-      </c>
-      <c r="F137" t="n">
-        <v>20062.4446</v>
-      </c>
-      <c r="G137" t="n">
-        <v>9.452266666666667</v>
-      </c>
-      <c r="H137" t="n">
-        <v>9.463000000000015</v>
-      </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
-      <c r="K137" t="n">
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="C167" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="D167" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="E167" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="F167" t="n">
+        <v>10601.081</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-507187.2191034045</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
         <v>9.403</v>
       </c>
-      <c r="L137" t="n">
-        <v>9.403</v>
-      </c>
-      <c r="M137" t="inlineStr">
+      <c r="L167" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>9.497</v>
+      </c>
+      <c r="C168" t="n">
+        <v>9.497</v>
+      </c>
+      <c r="D168" t="n">
+        <v>9.497</v>
+      </c>
+      <c r="E168" t="n">
+        <v>9.497</v>
+      </c>
+      <c r="F168" t="n">
+        <v>2472.6538</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-504714.5653034045</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
         <v>9.359999999999999</v>
       </c>
-      <c r="C138" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="D138" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="E138" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="F138" t="n">
-        <v>10601.081</v>
-      </c>
-      <c r="G138" t="n">
-        <v>9.445600000000001</v>
-      </c>
-      <c r="H138" t="n">
-        <v>9.463533333333348</v>
-      </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
-      <c r="K138" t="n">
-        <v>9.356</v>
-      </c>
-      <c r="L138" t="n">
+      <c r="K168" t="n">
         <v>9.403</v>
       </c>
-      <c r="M138" t="inlineStr">
+      <c r="L168" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>9.497</v>
-      </c>
-      <c r="C139" t="n">
-        <v>9.497</v>
-      </c>
-      <c r="D139" t="n">
-        <v>9.497</v>
-      </c>
-      <c r="E139" t="n">
-        <v>9.497</v>
-      </c>
-      <c r="F139" t="n">
-        <v>2472.6538</v>
-      </c>
-      <c r="G139" t="n">
-        <v>9.4506</v>
-      </c>
-      <c r="H139" t="n">
-        <v>9.464983333333349</v>
-      </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
-      <c r="K139" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="L139" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-      <c r="N139" t="n">
+      <c r="M168" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-12 BackTest OGO.xlsx
+++ b/BackTest/2020-01-12 BackTest OGO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M168"/>
+  <dimension ref="A1:N126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9.481999999999999</v>
+        <v>9.701000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>9.481999999999999</v>
+        <v>9.701000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>9.481999999999999</v>
+        <v>9.701000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>9.481999999999999</v>
+        <v>9.701000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>16913.8827</v>
+        <v>38000</v>
       </c>
       <c r="G2" t="n">
-        <v>1114868.017538404</v>
+        <v>1134353.348238404</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,34 +467,35 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9.481999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>9.481999999999999</v>
+        <v>9.545</v>
       </c>
       <c r="D3" t="n">
-        <v>9.481999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>9.481999999999999</v>
+        <v>9.544</v>
       </c>
       <c r="F3" t="n">
-        <v>19572.6755</v>
+        <v>28341.2</v>
       </c>
       <c r="G3" t="n">
-        <v>1114868.017538404</v>
+        <v>1106012.148238404</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9.481999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>9.481999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>9.481999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>9.481999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="G4" t="n">
-        <v>1114868.017538404</v>
+        <v>1108012.148238404</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,34 +539,35 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9.481999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>9.481999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>9.481999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>9.481999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>17249.1297</v>
+        <v>55114.39</v>
       </c>
       <c r="G5" t="n">
-        <v>1114868.017538404</v>
+        <v>1108012.148238404</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9.577</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>9.577</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>9.577</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>9.577</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>198.7817</v>
+        <v>4000</v>
       </c>
       <c r="G6" t="n">
-        <v>1115066.799238404</v>
+        <v>1108012.148238404</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,34 +611,35 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9.577</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>9.577</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>9.577</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>9.577</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>9603.4553</v>
+        <v>38885.61</v>
       </c>
       <c r="G7" t="n">
-        <v>1115066.799238404</v>
+        <v>1108012.148238404</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9.579000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>9.579000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>9.579000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>9.579000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>663.1233999999999</v>
+        <v>2910.7562</v>
       </c>
       <c r="G8" t="n">
-        <v>1115729.922638404</v>
+        <v>1108012.148238404</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,34 +683,35 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9.577</v>
+        <v>9.635999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>9.57</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>9.577</v>
+        <v>9.635999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>9.395</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>102979.6475</v>
+        <v>43035.01</v>
       </c>
       <c r="G9" t="n">
-        <v>1012750.275138404</v>
+        <v>1064977.138238404</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9.411</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>9.569000000000001</v>
+        <v>9.635999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>9.569000000000001</v>
+        <v>9.635999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>9.411</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>36522.9283</v>
+        <v>69917.2228</v>
       </c>
       <c r="G10" t="n">
-        <v>976227.346838404</v>
+        <v>1134894.361038404</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9.420999999999999</v>
+        <v>9.893000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>9.420999999999999</v>
+        <v>9.893000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>9.420999999999999</v>
+        <v>9.893000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>9.420999999999999</v>
+        <v>9.893000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>11488.4402</v>
+        <v>5090.0368</v>
       </c>
       <c r="G11" t="n">
-        <v>964738.906638404</v>
+        <v>1139984.397838404</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,34 +791,35 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9.569000000000001</v>
+        <v>9.81</v>
       </c>
       <c r="C12" t="n">
-        <v>9.569000000000001</v>
+        <v>9.81</v>
       </c>
       <c r="D12" t="n">
-        <v>9.569000000000001</v>
+        <v>9.81</v>
       </c>
       <c r="E12" t="n">
-        <v>9.569000000000001</v>
+        <v>9.81</v>
       </c>
       <c r="F12" t="n">
-        <v>8000</v>
+        <v>147.59</v>
       </c>
       <c r="G12" t="n">
-        <v>972738.906638404</v>
+        <v>1139836.807838404</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,34 +827,35 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9.569000000000001</v>
+        <v>9.81</v>
       </c>
       <c r="C13" t="n">
-        <v>9.569000000000001</v>
+        <v>9.81</v>
       </c>
       <c r="D13" t="n">
-        <v>9.569000000000001</v>
+        <v>9.81</v>
       </c>
       <c r="E13" t="n">
-        <v>9.569000000000001</v>
+        <v>9.81</v>
       </c>
       <c r="F13" t="n">
-        <v>2000</v>
+        <v>38361.5343</v>
       </c>
       <c r="G13" t="n">
-        <v>972738.906638404</v>
+        <v>1139836.807838404</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -847,34 +863,35 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9.569000000000001</v>
+        <v>9.711</v>
       </c>
       <c r="C14" t="n">
-        <v>9.569000000000001</v>
+        <v>9.711</v>
       </c>
       <c r="D14" t="n">
-        <v>9.569000000000001</v>
+        <v>9.711</v>
       </c>
       <c r="E14" t="n">
-        <v>9.569000000000001</v>
+        <v>9.711</v>
       </c>
       <c r="F14" t="n">
-        <v>68.9689</v>
+        <v>52</v>
       </c>
       <c r="G14" t="n">
-        <v>972738.906638404</v>
+        <v>1139784.807838404</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -882,34 +899,35 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9.569000000000001</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>9.569000000000001</v>
+        <v>9.711</v>
       </c>
       <c r="D15" t="n">
-        <v>9.569000000000001</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>9.569000000000001</v>
+        <v>9.711</v>
       </c>
       <c r="F15" t="n">
-        <v>2000</v>
+        <v>62349.2914</v>
       </c>
       <c r="G15" t="n">
-        <v>972738.906638404</v>
+        <v>1139784.807838404</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9.569000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>9.57</v>
+        <v>9.66</v>
       </c>
       <c r="D16" t="n">
-        <v>9.57</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>9.569000000000001</v>
+        <v>9.66</v>
       </c>
       <c r="F16" t="n">
-        <v>99828.52099999999</v>
+        <v>72795.0733</v>
       </c>
       <c r="G16" t="n">
-        <v>1072567.427638404</v>
+        <v>1066989.734538404</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9.577999999999999</v>
+        <v>9.635999999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>9.577999999999999</v>
+        <v>9.66</v>
       </c>
       <c r="D17" t="n">
-        <v>9.577999999999999</v>
+        <v>9.66</v>
       </c>
       <c r="E17" t="n">
-        <v>9.577999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="F17" t="n">
-        <v>220</v>
+        <v>55888.8212</v>
       </c>
       <c r="G17" t="n">
-        <v>1072787.427638404</v>
+        <v>1066989.734538404</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9.579000000000001</v>
+        <v>9.67</v>
       </c>
       <c r="C18" t="n">
-        <v>9.579000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="D18" t="n">
-        <v>9.579000000000001</v>
+        <v>9.67</v>
       </c>
       <c r="E18" t="n">
-        <v>9.579000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="F18" t="n">
-        <v>55</v>
+        <v>83328.02370000001</v>
       </c>
       <c r="G18" t="n">
-        <v>1072842.427638404</v>
+        <v>983661.710838404</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9.579000000000001</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>9.579000000000001</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>9.579000000000001</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>9.579000000000001</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>110</v>
+        <v>2473.3955</v>
       </c>
       <c r="G19" t="n">
-        <v>1072842.427638404</v>
+        <v>981188.315338404</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9.57</v>
+        <v>9.868</v>
       </c>
       <c r="C20" t="n">
-        <v>9.57</v>
+        <v>9.603</v>
       </c>
       <c r="D20" t="n">
-        <v>9.57</v>
+        <v>9.868</v>
       </c>
       <c r="E20" t="n">
-        <v>9.57</v>
+        <v>9.603</v>
       </c>
       <c r="F20" t="n">
-        <v>171.479</v>
+        <v>71219.85799999999</v>
       </c>
       <c r="G20" t="n">
-        <v>1072670.948638404</v>
+        <v>1052408.173338404</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9.57</v>
+        <v>9.603</v>
       </c>
       <c r="C21" t="n">
-        <v>9.57</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>9.57</v>
+        <v>9.879</v>
       </c>
       <c r="E21" t="n">
-        <v>9.57</v>
+        <v>9.603</v>
       </c>
       <c r="F21" t="n">
-        <v>110</v>
+        <v>130054.3491</v>
       </c>
       <c r="G21" t="n">
-        <v>1072670.948638404</v>
+        <v>1182462.522438404</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>9.57</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>9.57</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>9.57</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>9.57</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>165</v>
+        <v>48.1661</v>
       </c>
       <c r="G22" t="n">
-        <v>1072670.948638404</v>
+        <v>1182462.522438404</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>9.468</v>
+        <v>9.869</v>
       </c>
       <c r="C23" t="n">
-        <v>9.468</v>
+        <v>9.869</v>
       </c>
       <c r="D23" t="n">
-        <v>9.468</v>
+        <v>9.869</v>
       </c>
       <c r="E23" t="n">
-        <v>9.468</v>
+        <v>9.869</v>
       </c>
       <c r="F23" t="n">
-        <v>2115.0354</v>
+        <v>4396.0319</v>
       </c>
       <c r="G23" t="n">
-        <v>1070555.913238404</v>
+        <v>1178066.490538404</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9.467000000000001</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>9.467000000000001</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>9.467000000000001</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>9.467000000000001</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>48398.006</v>
+        <v>4400.1456</v>
       </c>
       <c r="G24" t="n">
-        <v>1022157.907238404</v>
+        <v>1173666.344938404</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>9.467000000000001</v>
+        <v>9.661</v>
       </c>
       <c r="C25" t="n">
-        <v>9.467000000000001</v>
+        <v>9.601000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>9.467000000000001</v>
+        <v>9.661</v>
       </c>
       <c r="E25" t="n">
-        <v>9.467000000000001</v>
+        <v>9.601000000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>33177</v>
+        <v>90786.06939999999</v>
       </c>
       <c r="G25" t="n">
-        <v>1022157.907238404</v>
+        <v>1082880.275538404</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>9.467000000000001</v>
+        <v>9.603</v>
       </c>
       <c r="C26" t="n">
-        <v>9.467000000000001</v>
+        <v>9.599</v>
       </c>
       <c r="D26" t="n">
-        <v>9.467000000000001</v>
+        <v>9.603</v>
       </c>
       <c r="E26" t="n">
-        <v>9.467000000000001</v>
+        <v>9.599</v>
       </c>
       <c r="F26" t="n">
-        <v>1989</v>
+        <v>125727.889</v>
       </c>
       <c r="G26" t="n">
-        <v>1022157.907238404</v>
+        <v>957152.386538404</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>9.414999999999999</v>
+        <v>9.599</v>
       </c>
       <c r="C27" t="n">
-        <v>9.414999999999999</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>9.414999999999999</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>9.414999999999999</v>
+        <v>9.599</v>
       </c>
       <c r="F27" t="n">
-        <v>10023.8705</v>
+        <v>21207</v>
       </c>
       <c r="G27" t="n">
-        <v>1012134.036738404</v>
+        <v>978359.386538404</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>9.467000000000001</v>
+        <v>9.69</v>
       </c>
       <c r="C28" t="n">
-        <v>9.467000000000001</v>
+        <v>9.69</v>
       </c>
       <c r="D28" t="n">
-        <v>9.467000000000001</v>
+        <v>9.69</v>
       </c>
       <c r="E28" t="n">
-        <v>9.467000000000001</v>
+        <v>9.69</v>
       </c>
       <c r="F28" t="n">
-        <v>24291</v>
+        <v>523.1575</v>
       </c>
       <c r="G28" t="n">
-        <v>1036425.036738404</v>
+        <v>977836.2290384041</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>9.467000000000001</v>
+        <v>9.548</v>
       </c>
       <c r="C29" t="n">
-        <v>9.467000000000001</v>
+        <v>9.545</v>
       </c>
       <c r="D29" t="n">
-        <v>9.467000000000001</v>
+        <v>9.548</v>
       </c>
       <c r="E29" t="n">
-        <v>9.467000000000001</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>34411</v>
+        <v>162930.3754</v>
       </c>
       <c r="G29" t="n">
-        <v>1036425.036738404</v>
+        <v>814905.853638404</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>9.412000000000001</v>
+        <v>9.545</v>
       </c>
       <c r="C30" t="n">
-        <v>9.467000000000001</v>
+        <v>9.545</v>
       </c>
       <c r="D30" t="n">
-        <v>9.467000000000001</v>
+        <v>9.545</v>
       </c>
       <c r="E30" t="n">
-        <v>9.412000000000001</v>
+        <v>9.545</v>
       </c>
       <c r="F30" t="n">
-        <v>30106.1943</v>
+        <v>53917.6336</v>
       </c>
       <c r="G30" t="n">
-        <v>1036425.036738404</v>
+        <v>814905.853638404</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>9.467000000000001</v>
+        <v>9.545</v>
       </c>
       <c r="C31" t="n">
-        <v>9.467000000000001</v>
+        <v>9.41</v>
       </c>
       <c r="D31" t="n">
-        <v>9.467000000000001</v>
+        <v>9.545</v>
       </c>
       <c r="E31" t="n">
-        <v>9.467000000000001</v>
+        <v>9.41</v>
       </c>
       <c r="F31" t="n">
-        <v>410.1799</v>
+        <v>13714.89</v>
       </c>
       <c r="G31" t="n">
-        <v>1036425.036738404</v>
+        <v>801190.963638404</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>9.467000000000001</v>
+        <v>9.42</v>
       </c>
       <c r="C32" t="n">
-        <v>9.467000000000001</v>
+        <v>9.401999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>9.467000000000001</v>
+        <v>9.42</v>
       </c>
       <c r="E32" t="n">
-        <v>9.467000000000001</v>
+        <v>9.401999999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>50000</v>
+        <v>54893.6145</v>
       </c>
       <c r="G32" t="n">
-        <v>1036425.036738404</v>
+        <v>746297.349138404</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9.467000000000001</v>
+        <v>9.538</v>
       </c>
       <c r="C33" t="n">
-        <v>9.596</v>
+        <v>9.538</v>
       </c>
       <c r="D33" t="n">
-        <v>9.596</v>
+        <v>9.538</v>
       </c>
       <c r="E33" t="n">
-        <v>9.467000000000001</v>
+        <v>9.538</v>
       </c>
       <c r="F33" t="n">
-        <v>747</v>
+        <v>3648.5546</v>
       </c>
       <c r="G33" t="n">
-        <v>1037172.036738404</v>
+        <v>749945.903738404</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>9.596</v>
+        <v>9.528</v>
       </c>
       <c r="C34" t="n">
-        <v>9.596</v>
+        <v>9.528</v>
       </c>
       <c r="D34" t="n">
-        <v>9.596</v>
+        <v>9.528</v>
       </c>
       <c r="E34" t="n">
-        <v>9.596</v>
+        <v>9.528</v>
       </c>
       <c r="F34" t="n">
-        <v>5196.969</v>
+        <v>32972.241</v>
       </c>
       <c r="G34" t="n">
-        <v>1037172.036738404</v>
+        <v>716973.662738404</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9.597</v>
+        <v>9.532</v>
       </c>
       <c r="C35" t="n">
-        <v>9.597</v>
+        <v>9.532</v>
       </c>
       <c r="D35" t="n">
-        <v>9.597</v>
+        <v>9.532</v>
       </c>
       <c r="E35" t="n">
-        <v>9.597</v>
+        <v>9.532</v>
       </c>
       <c r="F35" t="n">
-        <v>137.3023</v>
+        <v>2447.4526</v>
       </c>
       <c r="G35" t="n">
-        <v>1037309.339038404</v>
+        <v>719421.115338404</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9.461</v>
+        <v>9.532</v>
       </c>
       <c r="C36" t="n">
-        <v>9.461</v>
+        <v>9.532</v>
       </c>
       <c r="D36" t="n">
-        <v>9.461</v>
+        <v>9.532</v>
       </c>
       <c r="E36" t="n">
-        <v>9.461</v>
+        <v>9.532</v>
       </c>
       <c r="F36" t="n">
-        <v>137.3023</v>
+        <v>10321.4168</v>
       </c>
       <c r="G36" t="n">
-        <v>1037172.036738404</v>
+        <v>719421.115338404</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9.596</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>9.596</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>9.596</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>9.596</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>151.3427</v>
+        <v>15674</v>
       </c>
       <c r="G37" t="n">
-        <v>1037323.379438404</v>
+        <v>735095.115338404</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>9.471</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>9.471</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>9.471</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>9.471</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="F38" t="n">
-        <v>30483.581</v>
+        <v>15119.8981</v>
       </c>
       <c r="G38" t="n">
-        <v>1006839.798438404</v>
+        <v>735095.115338404</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>9.471</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>9.593999999999999</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>9.593999999999999</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>9.471</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>29336</v>
+        <v>73375</v>
       </c>
       <c r="G39" t="n">
-        <v>1036175.798438404</v>
+        <v>808470.115338404</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9.441000000000001</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>9.441000000000001</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>9.441000000000001</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>9.441000000000001</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>222</v>
+        <v>5225.2488</v>
       </c>
       <c r="G40" t="n">
-        <v>1035953.798438404</v>
+        <v>808470.115338404</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>9.584</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>9.710000000000001</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>9.710000000000001</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>9.584</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>140436.7568</v>
+        <v>22403.88</v>
       </c>
       <c r="G41" t="n">
-        <v>1176390.555238404</v>
+        <v>808470.115338404</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>9.701000000000001</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>9.51</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>9.701000000000001</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>9.51</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>60819.17</v>
+        <v>6000</v>
       </c>
       <c r="G42" t="n">
-        <v>1115571.385238404</v>
+        <v>802470.115338404</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>9.699999999999999</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>9.701000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="D43" t="n">
-        <v>9.701000000000001</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>9.699999999999999</v>
+        <v>9.394</v>
       </c>
       <c r="F43" t="n">
-        <v>18781.963</v>
+        <v>319722.2921</v>
       </c>
       <c r="G43" t="n">
-        <v>1134353.348238404</v>
+        <v>482747.8232384039</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>9.701000000000001</v>
+        <v>9.484999999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>9.701000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="D44" t="n">
-        <v>9.701000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="E44" t="n">
-        <v>9.701000000000001</v>
+        <v>9.484</v>
       </c>
       <c r="F44" t="n">
-        <v>38000</v>
+        <v>30751.94</v>
       </c>
       <c r="G44" t="n">
-        <v>1134353.348238404</v>
+        <v>513499.7632384039</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>9.800000000000001</v>
+        <v>9.49</v>
       </c>
       <c r="C45" t="n">
-        <v>9.545</v>
+        <v>9.401999999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>9.800000000000001</v>
+        <v>9.49</v>
       </c>
       <c r="E45" t="n">
-        <v>9.544</v>
+        <v>9.4</v>
       </c>
       <c r="F45" t="n">
-        <v>28341.2</v>
+        <v>25960.64</v>
       </c>
       <c r="G45" t="n">
-        <v>1106012.148238404</v>
+        <v>487539.1232384039</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>9.699999999999999</v>
+        <v>9.420999999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>9.699999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="D46" t="n">
-        <v>9.699999999999999</v>
+        <v>9.420999999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>9.699999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="F46" t="n">
-        <v>2000</v>
+        <v>240282.7586</v>
       </c>
       <c r="G46" t="n">
-        <v>1108012.148238404</v>
+        <v>247256.3646384039</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>9.699999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="C47" t="n">
-        <v>9.699999999999999</v>
+        <v>9.227</v>
       </c>
       <c r="D47" t="n">
-        <v>9.699999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="E47" t="n">
-        <v>9.699999999999999</v>
+        <v>9.227</v>
       </c>
       <c r="F47" t="n">
-        <v>55114.39</v>
+        <v>396416.6184</v>
       </c>
       <c r="G47" t="n">
-        <v>1108012.148238404</v>
+        <v>-149160.253761596</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>9.699999999999999</v>
+        <v>9.348000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>9.699999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>9.699999999999999</v>
+        <v>9.348000000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>9.699999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>4000</v>
+        <v>21890</v>
       </c>
       <c r="G48" t="n">
-        <v>1108012.148238404</v>
+        <v>-127270.253761596</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>9.699999999999999</v>
+        <v>9.388</v>
       </c>
       <c r="C49" t="n">
-        <v>9.699999999999999</v>
+        <v>9.388</v>
       </c>
       <c r="D49" t="n">
-        <v>9.699999999999999</v>
+        <v>9.388</v>
       </c>
       <c r="E49" t="n">
-        <v>9.699999999999999</v>
+        <v>9.388</v>
       </c>
       <c r="F49" t="n">
-        <v>38885.61</v>
+        <v>17553</v>
       </c>
       <c r="G49" t="n">
-        <v>1108012.148238404</v>
+        <v>-109717.253761596</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>9.699999999999999</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>9.699999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="D50" t="n">
-        <v>9.699999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="E50" t="n">
-        <v>9.699999999999999</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>2910.7562</v>
+        <v>4149.232658191489</v>
       </c>
       <c r="G50" t="n">
-        <v>1108012.148238404</v>
+        <v>-105568.0211034046</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>9.635999999999999</v>
+        <v>9.228</v>
       </c>
       <c r="C51" t="n">
-        <v>9.630000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="D51" t="n">
-        <v>9.635999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="E51" t="n">
-        <v>9.630000000000001</v>
+        <v>9.228</v>
       </c>
       <c r="F51" t="n">
-        <v>43035.01</v>
+        <v>40811.6461</v>
       </c>
       <c r="G51" t="n">
-        <v>1064977.138238404</v>
+        <v>-105568.0211034046</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>9.630000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="C52" t="n">
-        <v>9.635999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="D52" t="n">
-        <v>9.635999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="E52" t="n">
-        <v>9.630000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="F52" t="n">
-        <v>69917.2228</v>
+        <v>5262.8227</v>
       </c>
       <c r="G52" t="n">
-        <v>1134894.361038404</v>
+        <v>-105568.0211034046</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>9.893000000000001</v>
+        <v>9.227</v>
       </c>
       <c r="C53" t="n">
-        <v>9.893000000000001</v>
+        <v>9.227</v>
       </c>
       <c r="D53" t="n">
-        <v>9.893000000000001</v>
+        <v>9.227</v>
       </c>
       <c r="E53" t="n">
-        <v>9.893000000000001</v>
+        <v>9.227</v>
       </c>
       <c r="F53" t="n">
-        <v>5090.0368</v>
+        <v>8500</v>
       </c>
       <c r="G53" t="n">
-        <v>1139984.397838404</v>
+        <v>-114068.0211034046</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>9.81</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>9.81</v>
+        <v>9.4</v>
       </c>
       <c r="D54" t="n">
-        <v>9.81</v>
+        <v>9.4</v>
       </c>
       <c r="E54" t="n">
-        <v>9.81</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="F54" t="n">
-        <v>147.59</v>
+        <v>27278.2199</v>
       </c>
       <c r="G54" t="n">
-        <v>1139836.807838404</v>
+        <v>-86789.80120340457</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>9.81</v>
+        <v>9.227</v>
       </c>
       <c r="C55" t="n">
-        <v>9.81</v>
+        <v>9.227</v>
       </c>
       <c r="D55" t="n">
-        <v>9.81</v>
+        <v>9.227</v>
       </c>
       <c r="E55" t="n">
-        <v>9.81</v>
+        <v>9.227</v>
       </c>
       <c r="F55" t="n">
-        <v>38361.5343</v>
+        <v>2000</v>
       </c>
       <c r="G55" t="n">
-        <v>1139836.807838404</v>
+        <v>-88789.80120340457</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>9.711</v>
+        <v>9.250999999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>9.711</v>
+        <v>9.250999999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>9.711</v>
+        <v>9.250999999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>9.711</v>
+        <v>9.227</v>
       </c>
       <c r="F56" t="n">
-        <v>52</v>
+        <v>166015.9533</v>
       </c>
       <c r="G56" t="n">
-        <v>1139784.807838404</v>
+        <v>77226.15209659543</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>9.720000000000001</v>
+        <v>9.227</v>
       </c>
       <c r="C57" t="n">
-        <v>9.711</v>
+        <v>9.226000000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>9.720000000000001</v>
+        <v>9.227</v>
       </c>
       <c r="E57" t="n">
-        <v>9.711</v>
+        <v>9.226000000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>62349.2914</v>
+        <v>80766.1548</v>
       </c>
       <c r="G57" t="n">
-        <v>1139784.807838404</v>
+        <v>-3540.002703404578</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>9.699999999999999</v>
+        <v>9.25</v>
       </c>
       <c r="C58" t="n">
-        <v>9.66</v>
+        <v>9.25</v>
       </c>
       <c r="D58" t="n">
-        <v>9.699999999999999</v>
+        <v>9.25</v>
       </c>
       <c r="E58" t="n">
-        <v>9.66</v>
+        <v>9.25</v>
       </c>
       <c r="F58" t="n">
-        <v>72795.0733</v>
+        <v>1243</v>
       </c>
       <c r="G58" t="n">
-        <v>1066989.734538404</v>
+        <v>-2297.002703404578</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>9.635999999999999</v>
+        <v>9.24</v>
       </c>
       <c r="C59" t="n">
-        <v>9.66</v>
+        <v>9.237</v>
       </c>
       <c r="D59" t="n">
-        <v>9.66</v>
+        <v>9.24</v>
       </c>
       <c r="E59" t="n">
-        <v>9.6</v>
+        <v>9.237</v>
       </c>
       <c r="F59" t="n">
-        <v>55888.8212</v>
+        <v>13032</v>
       </c>
       <c r="G59" t="n">
-        <v>1066989.734538404</v>
+        <v>-15329.00270340458</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,63 +2519,69 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>9.67</v>
+        <v>9.24</v>
       </c>
       <c r="C60" t="n">
-        <v>9.6</v>
+        <v>9.348000000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>9.67</v>
+        <v>9.348000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>9.6</v>
+        <v>9.24</v>
       </c>
       <c r="F60" t="n">
-        <v>83328.02370000001</v>
+        <v>18025</v>
       </c>
       <c r="G60" t="n">
-        <v>983661.710838404</v>
+        <v>2695.997296595422</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>9.237</v>
+      </c>
+      <c r="K60" t="n">
+        <v>9.237</v>
+      </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>9.550000000000001</v>
+        <v>9.348000000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>9.550000000000001</v>
+        <v>9.348000000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>9.550000000000001</v>
+        <v>9.348000000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>9.550000000000001</v>
+        <v>9.348000000000001</v>
       </c>
       <c r="F61" t="n">
-        <v>2473.3955</v>
+        <v>5348.7377</v>
       </c>
       <c r="G61" t="n">
-        <v>981188.315338404</v>
+        <v>2695.997296595422</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2522,33 +2590,40 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>9.237</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>9.868</v>
+        <v>9.348000000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>9.603</v>
+        <v>9.348000000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>9.868</v>
+        <v>9.348000000000001</v>
       </c>
       <c r="E62" t="n">
-        <v>9.603</v>
+        <v>9.348000000000001</v>
       </c>
       <c r="F62" t="n">
-        <v>71219.85799999999</v>
+        <v>75310.103</v>
       </c>
       <c r="G62" t="n">
-        <v>1052408.173338404</v>
+        <v>2695.997296595422</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2557,33 +2632,40 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>9.237</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>9.603</v>
+        <v>9.260999999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>9.869999999999999</v>
+        <v>9.226000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>9.879</v>
+        <v>9.260999999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>9.603</v>
+        <v>9.226000000000001</v>
       </c>
       <c r="F63" t="n">
-        <v>130054.3491</v>
+        <v>153787.3776</v>
       </c>
       <c r="G63" t="n">
-        <v>1182462.522438404</v>
+        <v>-151091.3803034046</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,139 +2679,161 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>9.869999999999999</v>
+        <v>9.329000000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>9.869999999999999</v>
+        <v>9.327999999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>9.869999999999999</v>
+        <v>9.33</v>
       </c>
       <c r="E64" t="n">
-        <v>9.869999999999999</v>
+        <v>9.32</v>
       </c>
       <c r="F64" t="n">
-        <v>48.1661</v>
+        <v>89376</v>
       </c>
       <c r="G64" t="n">
-        <v>1182462.522438404</v>
+        <v>-61715.38030340458</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>9.226000000000001</v>
+      </c>
+      <c r="K64" t="n">
+        <v>9.226000000000001</v>
+      </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9.869</v>
+        <v>9.327999999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>9.869</v>
+        <v>9.327999999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>9.869</v>
+        <v>9.327999999999999</v>
       </c>
       <c r="E65" t="n">
-        <v>9.869</v>
+        <v>9.327999999999999</v>
       </c>
       <c r="F65" t="n">
-        <v>4396.0319</v>
+        <v>13298</v>
       </c>
       <c r="G65" t="n">
-        <v>1178066.490538404</v>
+        <v>-61715.38030340458</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>9.226000000000001</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>9.859999999999999</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>9.859999999999999</v>
+        <v>9.41</v>
       </c>
       <c r="D66" t="n">
-        <v>9.859999999999999</v>
+        <v>9.41</v>
       </c>
       <c r="E66" t="n">
-        <v>9.859999999999999</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="F66" t="n">
-        <v>4400.1456</v>
+        <v>15689</v>
       </c>
       <c r="G66" t="n">
-        <v>1173666.344938404</v>
+        <v>-46026.38030340458</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>9.327999999999999</v>
+      </c>
+      <c r="K66" t="n">
+        <v>9.226000000000001</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>9.661</v>
+        <v>9.41</v>
       </c>
       <c r="C67" t="n">
-        <v>9.601000000000001</v>
+        <v>9.557</v>
       </c>
       <c r="D67" t="n">
-        <v>9.661</v>
+        <v>9.557</v>
       </c>
       <c r="E67" t="n">
-        <v>9.601000000000001</v>
+        <v>9.41</v>
       </c>
       <c r="F67" t="n">
-        <v>90786.06939999999</v>
+        <v>1597</v>
       </c>
       <c r="G67" t="n">
-        <v>1082880.275538404</v>
+        <v>-44429.38030340458</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2737,28 +2841,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>9.603</v>
+        <v>9.353999999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>9.599</v>
+        <v>9.353999999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>9.603</v>
+        <v>9.353999999999999</v>
       </c>
       <c r="E68" t="n">
-        <v>9.599</v>
+        <v>9.353999999999999</v>
       </c>
       <c r="F68" t="n">
-        <v>125727.889</v>
+        <v>129387.7176</v>
       </c>
       <c r="G68" t="n">
-        <v>957152.386538404</v>
+        <v>-173817.0979034046</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +2877,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>9.599</v>
+        <v>9.381</v>
       </c>
       <c r="C69" t="n">
-        <v>9.789999999999999</v>
+        <v>9.353999999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>9.789999999999999</v>
+        <v>9.381</v>
       </c>
       <c r="E69" t="n">
-        <v>9.599</v>
+        <v>9.353999999999999</v>
       </c>
       <c r="F69" t="n">
-        <v>21207</v>
+        <v>60048.8107</v>
       </c>
       <c r="G69" t="n">
-        <v>978359.386538404</v>
+        <v>-173817.0979034046</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,28 +2913,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9.69</v>
+        <v>9.4</v>
       </c>
       <c r="C70" t="n">
-        <v>9.69</v>
+        <v>9.4</v>
       </c>
       <c r="D70" t="n">
-        <v>9.69</v>
+        <v>9.4</v>
       </c>
       <c r="E70" t="n">
-        <v>9.69</v>
+        <v>9.4</v>
       </c>
       <c r="F70" t="n">
-        <v>523.1575</v>
+        <v>800</v>
       </c>
       <c r="G70" t="n">
-        <v>977836.2290384041</v>
+        <v>-173017.0979034046</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +2949,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>9.548</v>
+        <v>9.571</v>
       </c>
       <c r="C71" t="n">
-        <v>9.545</v>
+        <v>9.571</v>
       </c>
       <c r="D71" t="n">
-        <v>9.548</v>
+        <v>9.571</v>
       </c>
       <c r="E71" t="n">
-        <v>9.539999999999999</v>
+        <v>9.571</v>
       </c>
       <c r="F71" t="n">
-        <v>162930.3754</v>
+        <v>64.1121</v>
       </c>
       <c r="G71" t="n">
-        <v>814905.853638404</v>
+        <v>-172952.9858034046</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,28 +2985,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>9.545</v>
+        <v>9.516999999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>9.545</v>
+        <v>9.516999999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>9.545</v>
+        <v>9.516999999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>9.545</v>
+        <v>9.516999999999999</v>
       </c>
       <c r="F72" t="n">
-        <v>53917.6336</v>
+        <v>5789</v>
       </c>
       <c r="G72" t="n">
-        <v>814905.853638404</v>
+        <v>-178741.9858034046</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +3021,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9.545</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>9.41</v>
+        <v>9.388</v>
       </c>
       <c r="D73" t="n">
-        <v>9.545</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>9.41</v>
+        <v>9.353999999999999</v>
       </c>
       <c r="F73" t="n">
-        <v>13714.89</v>
+        <v>74664.5131</v>
       </c>
       <c r="G73" t="n">
-        <v>801190.963638404</v>
+        <v>-253406.4989034046</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3057,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>9.42</v>
+        <v>9.388</v>
       </c>
       <c r="C74" t="n">
-        <v>9.401999999999999</v>
+        <v>9.478999999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>9.42</v>
+        <v>9.478999999999999</v>
       </c>
       <c r="E74" t="n">
-        <v>9.401999999999999</v>
+        <v>9.388</v>
       </c>
       <c r="F74" t="n">
-        <v>54893.6145</v>
+        <v>10000</v>
       </c>
       <c r="G74" t="n">
-        <v>746297.349138404</v>
+        <v>-243406.4989034046</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3093,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>9.538</v>
+        <v>9.539</v>
       </c>
       <c r="C75" t="n">
-        <v>9.538</v>
+        <v>9.539</v>
       </c>
       <c r="D75" t="n">
-        <v>9.538</v>
+        <v>9.539</v>
       </c>
       <c r="E75" t="n">
-        <v>9.538</v>
+        <v>9.539</v>
       </c>
       <c r="F75" t="n">
-        <v>3648.5546</v>
+        <v>102.2269</v>
       </c>
       <c r="G75" t="n">
-        <v>749945.903738404</v>
+        <v>-243304.2720034046</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3129,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>9.528</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>9.528</v>
+        <v>9.471</v>
       </c>
       <c r="D76" t="n">
-        <v>9.528</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="E76" t="n">
-        <v>9.528</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="F76" t="n">
-        <v>32972.241</v>
+        <v>46906.1453</v>
       </c>
       <c r="G76" t="n">
-        <v>716973.662738404</v>
+        <v>-290210.4173034045</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,28 +3165,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>9.532</v>
+        <v>9.355</v>
       </c>
       <c r="C77" t="n">
-        <v>9.532</v>
+        <v>9.355</v>
       </c>
       <c r="D77" t="n">
-        <v>9.532</v>
+        <v>9.355</v>
       </c>
       <c r="E77" t="n">
-        <v>9.532</v>
+        <v>9.355</v>
       </c>
       <c r="F77" t="n">
-        <v>2447.4526</v>
+        <v>59067.4799</v>
       </c>
       <c r="G77" t="n">
-        <v>719421.115338404</v>
+        <v>-349277.8972034045</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,28 +3201,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>9.532</v>
+        <v>9.477</v>
       </c>
       <c r="C78" t="n">
-        <v>9.532</v>
+        <v>9.477</v>
       </c>
       <c r="D78" t="n">
-        <v>9.532</v>
+        <v>9.477</v>
       </c>
       <c r="E78" t="n">
-        <v>9.532</v>
+        <v>9.477</v>
       </c>
       <c r="F78" t="n">
-        <v>10321.4168</v>
+        <v>108</v>
       </c>
       <c r="G78" t="n">
-        <v>719421.115338404</v>
+        <v>-349169.8972034045</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,28 +3237,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>9.558999999999999</v>
+        <v>9.355</v>
       </c>
       <c r="C79" t="n">
-        <v>9.558999999999999</v>
+        <v>9.355</v>
       </c>
       <c r="D79" t="n">
-        <v>9.558999999999999</v>
+        <v>9.355</v>
       </c>
       <c r="E79" t="n">
-        <v>9.558999999999999</v>
+        <v>9.355</v>
       </c>
       <c r="F79" t="n">
-        <v>15674</v>
+        <v>108</v>
       </c>
       <c r="G79" t="n">
-        <v>735095.115338404</v>
+        <v>-349277.8972034045</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,28 +3273,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>9.558999999999999</v>
+        <v>9.475</v>
       </c>
       <c r="C80" t="n">
-        <v>9.558999999999999</v>
+        <v>9.475</v>
       </c>
       <c r="D80" t="n">
-        <v>9.558999999999999</v>
+        <v>9.475</v>
       </c>
       <c r="E80" t="n">
-        <v>9.558999999999999</v>
+        <v>9.475</v>
       </c>
       <c r="F80" t="n">
-        <v>15119.8981</v>
+        <v>109.2177</v>
       </c>
       <c r="G80" t="n">
-        <v>735095.115338404</v>
+        <v>-349168.6795034045</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,28 +3309,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>9.579000000000001</v>
+        <v>9.407999999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>9.579000000000001</v>
+        <v>9.407999999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>9.579000000000001</v>
+        <v>9.407999999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>9.579000000000001</v>
+        <v>9.407999999999999</v>
       </c>
       <c r="F81" t="n">
-        <v>73375</v>
+        <v>6351</v>
       </c>
       <c r="G81" t="n">
-        <v>808470.115338404</v>
+        <v>-355519.6795034045</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,28 +3345,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9.579000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="C82" t="n">
-        <v>9.579000000000001</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>9.579000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="E82" t="n">
-        <v>9.579000000000001</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="F82" t="n">
-        <v>5225.2488</v>
+        <v>29152.9999</v>
       </c>
       <c r="G82" t="n">
-        <v>808470.115338404</v>
+        <v>-384672.6794034045</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,28 +3381,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9.579000000000001</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>9.579000000000001</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>9.579000000000001</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>9.579000000000001</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>22403.88</v>
+        <v>2000</v>
       </c>
       <c r="G83" t="n">
-        <v>808470.115338404</v>
+        <v>-382672.6794034045</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,28 +3417,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9.579000000000001</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>9.470000000000001</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>9.579000000000001</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="E84" t="n">
-        <v>9.470000000000001</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="F84" t="n">
         <v>6000</v>
       </c>
       <c r="G84" t="n">
-        <v>802470.115338404</v>
+        <v>-388672.6794034045</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,28 +3453,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9.449999999999999</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>9.4</v>
+        <v>9.488</v>
       </c>
       <c r="D85" t="n">
-        <v>9.619999999999999</v>
+        <v>9.488</v>
       </c>
       <c r="E85" t="n">
-        <v>9.394</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="F85" t="n">
-        <v>319722.2921</v>
+        <v>8000</v>
       </c>
       <c r="G85" t="n">
-        <v>482747.8232384039</v>
+        <v>-380672.6794034045</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,28 +3489,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9.484999999999999</v>
+        <v>9.48</v>
       </c>
       <c r="C86" t="n">
-        <v>9.5</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>9.5</v>
+        <v>9.48</v>
       </c>
       <c r="E86" t="n">
-        <v>9.484</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>30751.94</v>
+        <v>37040.1478</v>
       </c>
       <c r="G86" t="n">
-        <v>513499.7632384039</v>
+        <v>-417712.8272034045</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3402,28 +3525,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>9.49</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>9.401999999999999</v>
+        <v>9.48</v>
       </c>
       <c r="D87" t="n">
-        <v>9.49</v>
+        <v>9.48</v>
       </c>
       <c r="E87" t="n">
-        <v>9.4</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="F87" t="n">
-        <v>25960.64</v>
+        <v>21588</v>
       </c>
       <c r="G87" t="n">
-        <v>487539.1232384039</v>
+        <v>-396124.8272034045</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,28 +3561,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>9.420999999999999</v>
+        <v>9.48</v>
       </c>
       <c r="C88" t="n">
-        <v>9.4</v>
+        <v>9.48</v>
       </c>
       <c r="D88" t="n">
-        <v>9.420999999999999</v>
+        <v>9.48</v>
       </c>
       <c r="E88" t="n">
-        <v>9.4</v>
+        <v>9.48</v>
       </c>
       <c r="F88" t="n">
-        <v>240282.7586</v>
+        <v>6000</v>
       </c>
       <c r="G88" t="n">
-        <v>247256.3646384039</v>
+        <v>-396124.8272034045</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,28 +3597,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9.4</v>
+        <v>9.48</v>
       </c>
       <c r="C89" t="n">
-        <v>9.227</v>
+        <v>9.48</v>
       </c>
       <c r="D89" t="n">
-        <v>9.4</v>
+        <v>9.48</v>
       </c>
       <c r="E89" t="n">
-        <v>9.227</v>
+        <v>9.48</v>
       </c>
       <c r="F89" t="n">
-        <v>396416.6184</v>
+        <v>6000</v>
       </c>
       <c r="G89" t="n">
-        <v>-149160.253761596</v>
+        <v>-396124.8272034045</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,28 +3633,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>9.348000000000001</v>
+        <v>9.48</v>
       </c>
       <c r="C90" t="n">
-        <v>9.300000000000001</v>
+        <v>9.48</v>
       </c>
       <c r="D90" t="n">
-        <v>9.348000000000001</v>
+        <v>9.48</v>
       </c>
       <c r="E90" t="n">
-        <v>9.300000000000001</v>
+        <v>9.48</v>
       </c>
       <c r="F90" t="n">
-        <v>21890</v>
+        <v>2000</v>
       </c>
       <c r="G90" t="n">
-        <v>-127270.253761596</v>
+        <v>-396124.8272034045</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3542,28 +3669,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9.388</v>
+        <v>9.48</v>
       </c>
       <c r="C91" t="n">
-        <v>9.388</v>
+        <v>9.48</v>
       </c>
       <c r="D91" t="n">
-        <v>9.388</v>
+        <v>9.48</v>
       </c>
       <c r="E91" t="n">
-        <v>9.388</v>
+        <v>9.48</v>
       </c>
       <c r="F91" t="n">
-        <v>17553</v>
+        <v>2000</v>
       </c>
       <c r="G91" t="n">
-        <v>-109717.253761596</v>
+        <v>-396124.8272034045</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3577,28 +3705,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>9.398999999999999</v>
+        <v>9.48</v>
       </c>
       <c r="C92" t="n">
-        <v>9.4</v>
+        <v>9.48</v>
       </c>
       <c r="D92" t="n">
-        <v>9.4</v>
+        <v>9.48</v>
       </c>
       <c r="E92" t="n">
-        <v>9.398999999999999</v>
+        <v>9.48</v>
       </c>
       <c r="F92" t="n">
-        <v>4149.232658191489</v>
+        <v>165</v>
       </c>
       <c r="G92" t="n">
-        <v>-105568.0211034046</v>
+        <v>-396124.8272034045</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3612,28 +3741,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9.228</v>
+        <v>9.48</v>
       </c>
       <c r="C93" t="n">
-        <v>9.4</v>
+        <v>9.48</v>
       </c>
       <c r="D93" t="n">
-        <v>9.4</v>
+        <v>9.48</v>
       </c>
       <c r="E93" t="n">
-        <v>9.228</v>
+        <v>9.48</v>
       </c>
       <c r="F93" t="n">
-        <v>40811.6461</v>
+        <v>165</v>
       </c>
       <c r="G93" t="n">
-        <v>-105568.0211034046</v>
+        <v>-396124.8272034045</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3647,28 +3777,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>9.4</v>
+        <v>9.48</v>
       </c>
       <c r="C94" t="n">
-        <v>9.4</v>
+        <v>9.48</v>
       </c>
       <c r="D94" t="n">
-        <v>9.4</v>
+        <v>9.48</v>
       </c>
       <c r="E94" t="n">
-        <v>9.4</v>
+        <v>9.48</v>
       </c>
       <c r="F94" t="n">
-        <v>5262.8227</v>
+        <v>600</v>
       </c>
       <c r="G94" t="n">
-        <v>-105568.0211034046</v>
+        <v>-396124.8272034045</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3682,28 +3813,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>9.227</v>
+        <v>9.48</v>
       </c>
       <c r="C95" t="n">
-        <v>9.227</v>
+        <v>9.539</v>
       </c>
       <c r="D95" t="n">
-        <v>9.227</v>
+        <v>9.539</v>
       </c>
       <c r="E95" t="n">
-        <v>9.227</v>
+        <v>9.48</v>
       </c>
       <c r="F95" t="n">
-        <v>8500</v>
+        <v>100</v>
       </c>
       <c r="G95" t="n">
-        <v>-114068.0211034046</v>
+        <v>-396024.8272034045</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3717,28 +3849,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>9.398999999999999</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>9.4</v>
+        <v>9.535</v>
       </c>
       <c r="D96" t="n">
-        <v>9.4</v>
+        <v>9.535</v>
       </c>
       <c r="E96" t="n">
-        <v>9.398999999999999</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="F96" t="n">
-        <v>27278.2199</v>
+        <v>10309.6884</v>
       </c>
       <c r="G96" t="n">
-        <v>-86789.80120340457</v>
+        <v>-406334.5156034045</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3752,28 +3885,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>9.227</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>9.227</v>
+        <v>9.481</v>
       </c>
       <c r="D97" t="n">
-        <v>9.227</v>
+        <v>9.526999999999999</v>
       </c>
       <c r="E97" t="n">
-        <v>9.227</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="F97" t="n">
-        <v>2000</v>
+        <v>15886.236</v>
       </c>
       <c r="G97" t="n">
-        <v>-88789.80120340457</v>
+        <v>-422220.7516034045</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3787,28 +3921,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>9.250999999999999</v>
+        <v>9.468</v>
       </c>
       <c r="C98" t="n">
-        <v>9.250999999999999</v>
+        <v>9.526999999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>9.250999999999999</v>
+        <v>9.526999999999999</v>
       </c>
       <c r="E98" t="n">
-        <v>9.227</v>
+        <v>9.468</v>
       </c>
       <c r="F98" t="n">
-        <v>166015.9533</v>
+        <v>261.6698</v>
       </c>
       <c r="G98" t="n">
-        <v>77226.15209659543</v>
+        <v>-421959.0818034045</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3822,28 +3957,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>9.227</v>
+        <v>9.526999999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>9.226000000000001</v>
+        <v>9.526999999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>9.227</v>
+        <v>9.526999999999999</v>
       </c>
       <c r="E99" t="n">
-        <v>9.226000000000001</v>
+        <v>9.526999999999999</v>
       </c>
       <c r="F99" t="n">
-        <v>80766.1548</v>
+        <v>165</v>
       </c>
       <c r="G99" t="n">
-        <v>-3540.002703404578</v>
+        <v>-421959.0818034045</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3857,28 +3993,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>9.25</v>
+        <v>9.481</v>
       </c>
       <c r="C100" t="n">
-        <v>9.25</v>
+        <v>9.44</v>
       </c>
       <c r="D100" t="n">
-        <v>9.25</v>
+        <v>9.481</v>
       </c>
       <c r="E100" t="n">
-        <v>9.25</v>
+        <v>9.44</v>
       </c>
       <c r="F100" t="n">
-        <v>1243</v>
+        <v>15674</v>
       </c>
       <c r="G100" t="n">
-        <v>-2297.002703404578</v>
+        <v>-437633.0818034045</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3892,28 +4029,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>9.24</v>
+        <v>9.44</v>
       </c>
       <c r="C101" t="n">
-        <v>9.237</v>
+        <v>9.44</v>
       </c>
       <c r="D101" t="n">
-        <v>9.24</v>
+        <v>9.44</v>
       </c>
       <c r="E101" t="n">
-        <v>9.237</v>
+        <v>9.44</v>
       </c>
       <c r="F101" t="n">
-        <v>13032</v>
+        <v>7001.651</v>
       </c>
       <c r="G101" t="n">
-        <v>-15329.00270340458</v>
+        <v>-437633.0818034045</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3927,28 +4065,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>9.24</v>
+        <v>9.433</v>
       </c>
       <c r="C102" t="n">
-        <v>9.348000000000001</v>
+        <v>9.433</v>
       </c>
       <c r="D102" t="n">
-        <v>9.348000000000001</v>
+        <v>9.433</v>
       </c>
       <c r="E102" t="n">
-        <v>9.24</v>
+        <v>9.433</v>
       </c>
       <c r="F102" t="n">
-        <v>18025</v>
+        <v>72674</v>
       </c>
       <c r="G102" t="n">
-        <v>2695.997296595422</v>
+        <v>-510307.0818034045</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3962,28 +4101,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>9.348000000000001</v>
+        <v>9.433</v>
       </c>
       <c r="C103" t="n">
-        <v>9.348000000000001</v>
+        <v>9.432</v>
       </c>
       <c r="D103" t="n">
-        <v>9.348000000000001</v>
+        <v>9.433</v>
       </c>
       <c r="E103" t="n">
-        <v>9.348000000000001</v>
+        <v>9.432</v>
       </c>
       <c r="F103" t="n">
-        <v>5348.7377</v>
+        <v>838.3200000000001</v>
       </c>
       <c r="G103" t="n">
-        <v>2695.997296595422</v>
+        <v>-511145.4018034045</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3997,28 +4137,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>9.348000000000001</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>9.348000000000001</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>9.348000000000001</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="E104" t="n">
-        <v>9.348000000000001</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="F104" t="n">
-        <v>75310.103</v>
+        <v>822.0015</v>
       </c>
       <c r="G104" t="n">
-        <v>2695.997296595422</v>
+        <v>-511967.4033034045</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4032,28 +4173,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>9.260999999999999</v>
+        <v>9.523</v>
       </c>
       <c r="C105" t="n">
-        <v>9.226000000000001</v>
+        <v>9.523999999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>9.260999999999999</v>
+        <v>9.523999999999999</v>
       </c>
       <c r="E105" t="n">
-        <v>9.226000000000001</v>
+        <v>9.523</v>
       </c>
       <c r="F105" t="n">
-        <v>153787.3776</v>
+        <v>7781.834</v>
       </c>
       <c r="G105" t="n">
-        <v>-151091.3803034046</v>
+        <v>-504185.5693034045</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4067,28 +4209,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>9.329000000000001</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>9.327999999999999</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>9.33</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="E106" t="n">
-        <v>9.32</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="F106" t="n">
-        <v>89376</v>
+        <v>1868</v>
       </c>
       <c r="G106" t="n">
-        <v>-61715.38030340458</v>
+        <v>-502317.5693034045</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4102,28 +4245,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>9.327999999999999</v>
+        <v>9.545</v>
       </c>
       <c r="C107" t="n">
-        <v>9.327999999999999</v>
+        <v>9.545</v>
       </c>
       <c r="D107" t="n">
-        <v>9.327999999999999</v>
+        <v>9.545</v>
       </c>
       <c r="E107" t="n">
-        <v>9.327999999999999</v>
+        <v>9.545</v>
       </c>
       <c r="F107" t="n">
-        <v>13298</v>
+        <v>2567.0774</v>
       </c>
       <c r="G107" t="n">
-        <v>-61715.38030340458</v>
+        <v>-499750.4919034045</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4137,28 +4281,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>9.398999999999999</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>9.41</v>
+        <v>9.545</v>
       </c>
       <c r="D108" t="n">
-        <v>9.41</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="E108" t="n">
-        <v>9.398999999999999</v>
+        <v>9.545</v>
       </c>
       <c r="F108" t="n">
-        <v>15689</v>
+        <v>47238.9371</v>
       </c>
       <c r="G108" t="n">
-        <v>-46026.38030340458</v>
+        <v>-499750.4919034045</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4172,28 +4317,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>9.41</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>9.557</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>9.557</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="E109" t="n">
-        <v>9.41</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="F109" t="n">
-        <v>1597</v>
+        <v>15000</v>
       </c>
       <c r="G109" t="n">
-        <v>-44429.38030340458</v>
+        <v>-484750.4919034045</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4207,28 +4353,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>9.353999999999999</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>9.353999999999999</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>9.353999999999999</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="E110" t="n">
-        <v>9.353999999999999</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="F110" t="n">
-        <v>129387.7176</v>
+        <v>25645.5252</v>
       </c>
       <c r="G110" t="n">
-        <v>-173817.0979034046</v>
+        <v>-510396.0171034045</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4242,28 +4389,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>9.381</v>
+        <v>9.433</v>
       </c>
       <c r="C111" t="n">
-        <v>9.353999999999999</v>
+        <v>9.422000000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>9.381</v>
+        <v>9.433</v>
       </c>
       <c r="E111" t="n">
-        <v>9.353999999999999</v>
+        <v>9.422000000000001</v>
       </c>
       <c r="F111" t="n">
-        <v>60048.8107</v>
+        <v>15674</v>
       </c>
       <c r="G111" t="n">
-        <v>-173817.0979034046</v>
+        <v>-526070.0171034045</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4277,28 +4425,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>9.4</v>
+        <v>9.422000000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>9.4</v>
+        <v>9.422000000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>9.4</v>
+        <v>9.422000000000001</v>
       </c>
       <c r="E112" t="n">
-        <v>9.4</v>
+        <v>9.422000000000001</v>
       </c>
       <c r="F112" t="n">
-        <v>800</v>
+        <v>15674</v>
       </c>
       <c r="G112" t="n">
-        <v>-173017.0979034046</v>
+        <v>-526070.0171034045</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4312,28 +4461,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>9.571</v>
+        <v>9.449</v>
       </c>
       <c r="C113" t="n">
-        <v>9.571</v>
+        <v>9.449</v>
       </c>
       <c r="D113" t="n">
-        <v>9.571</v>
+        <v>9.449</v>
       </c>
       <c r="E113" t="n">
-        <v>9.571</v>
+        <v>9.449</v>
       </c>
       <c r="F113" t="n">
-        <v>64.1121</v>
+        <v>130654.7648</v>
       </c>
       <c r="G113" t="n">
-        <v>-172952.9858034046</v>
+        <v>-395415.2523034045</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4347,28 +4497,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>9.516999999999999</v>
+        <v>9.449</v>
       </c>
       <c r="C114" t="n">
-        <v>9.516999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="D114" t="n">
-        <v>9.516999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="E114" t="n">
-        <v>9.516999999999999</v>
+        <v>9.449</v>
       </c>
       <c r="F114" t="n">
-        <v>5789</v>
+        <v>63365</v>
       </c>
       <c r="G114" t="n">
-        <v>-178741.9858034046</v>
+        <v>-332050.2523034045</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4382,28 +4533,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>9.398999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="C115" t="n">
-        <v>9.388</v>
+        <v>9.5</v>
       </c>
       <c r="D115" t="n">
-        <v>9.398999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="E115" t="n">
-        <v>9.353999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="F115" t="n">
-        <v>74664.5131</v>
+        <v>54.0998</v>
       </c>
       <c r="G115" t="n">
-        <v>-253406.4989034046</v>
+        <v>-332050.2523034045</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4417,28 +4569,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>9.388</v>
+        <v>9.5</v>
       </c>
       <c r="C116" t="n">
-        <v>9.478999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="D116" t="n">
-        <v>9.478999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="E116" t="n">
-        <v>9.388</v>
+        <v>9.5</v>
       </c>
       <c r="F116" t="n">
-        <v>10000</v>
+        <v>19890.9002</v>
       </c>
       <c r="G116" t="n">
-        <v>-243406.4989034046</v>
+        <v>-332050.2523034045</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4452,28 +4605,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>9.539</v>
+        <v>9.5</v>
       </c>
       <c r="C117" t="n">
-        <v>9.539</v>
+        <v>9.5</v>
       </c>
       <c r="D117" t="n">
-        <v>9.539</v>
+        <v>9.5</v>
       </c>
       <c r="E117" t="n">
-        <v>9.539</v>
+        <v>9.5</v>
       </c>
       <c r="F117" t="n">
-        <v>102.2269</v>
+        <v>17400.55</v>
       </c>
       <c r="G117" t="n">
-        <v>-243304.2720034046</v>
+        <v>-332050.2523034045</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4487,28 +4641,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>9.359999999999999</v>
+        <v>9.547000000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>9.471</v>
+        <v>9.547000000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>9.545999999999999</v>
+        <v>9.547000000000001</v>
       </c>
       <c r="E118" t="n">
-        <v>9.359999999999999</v>
+        <v>9.547000000000001</v>
       </c>
       <c r="F118" t="n">
-        <v>46906.1453</v>
+        <v>66.93680000000001</v>
       </c>
       <c r="G118" t="n">
-        <v>-290210.4173034045</v>
+        <v>-331983.3155034045</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4522,28 +4677,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>9.355</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>9.355</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>9.355</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="E119" t="n">
-        <v>9.355</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="F119" t="n">
-        <v>59067.4799</v>
+        <v>6060</v>
       </c>
       <c r="G119" t="n">
-        <v>-349277.8972034045</v>
+        <v>-338043.3155034045</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4557,28 +4713,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>9.477</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>9.477</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>9.477</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="E120" t="n">
-        <v>9.477</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="F120" t="n">
-        <v>108</v>
+        <v>2200</v>
       </c>
       <c r="G120" t="n">
-        <v>-349169.8972034045</v>
+        <v>-338043.3155034045</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4592,28 +4749,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>9.355</v>
+        <v>9.423</v>
       </c>
       <c r="C121" t="n">
-        <v>9.355</v>
+        <v>9.422000000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>9.355</v>
+        <v>9.423</v>
       </c>
       <c r="E121" t="n">
-        <v>9.355</v>
+        <v>9.422000000000001</v>
       </c>
       <c r="F121" t="n">
-        <v>108</v>
+        <v>30379.53</v>
       </c>
       <c r="G121" t="n">
-        <v>-349277.8972034045</v>
+        <v>-368422.8455034045</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4627,28 +4785,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>9.475</v>
+        <v>9.422000000000001</v>
       </c>
       <c r="C122" t="n">
-        <v>9.475</v>
+        <v>9.403</v>
       </c>
       <c r="D122" t="n">
-        <v>9.475</v>
+        <v>9.422000000000001</v>
       </c>
       <c r="E122" t="n">
-        <v>9.475</v>
+        <v>9.403</v>
       </c>
       <c r="F122" t="n">
-        <v>109.2177</v>
+        <v>129303.01</v>
       </c>
       <c r="G122" t="n">
-        <v>-349168.6795034045</v>
+        <v>-497725.8555034045</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4662,28 +4821,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>9.407999999999999</v>
+        <v>9.403</v>
       </c>
       <c r="C123" t="n">
-        <v>9.407999999999999</v>
+        <v>9.403</v>
       </c>
       <c r="D123" t="n">
-        <v>9.407999999999999</v>
+        <v>9.403</v>
       </c>
       <c r="E123" t="n">
-        <v>9.407999999999999</v>
+        <v>9.403</v>
       </c>
       <c r="F123" t="n">
-        <v>6351</v>
+        <v>47.1657</v>
       </c>
       <c r="G123" t="n">
-        <v>-355519.6795034045</v>
+        <v>-497725.8555034045</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4697,28 +4857,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>9.4</v>
+        <v>9.356</v>
       </c>
       <c r="C124" t="n">
-        <v>9.398999999999999</v>
+        <v>9.356</v>
       </c>
       <c r="D124" t="n">
-        <v>9.4</v>
+        <v>9.356</v>
       </c>
       <c r="E124" t="n">
-        <v>9.398999999999999</v>
+        <v>9.356</v>
       </c>
       <c r="F124" t="n">
-        <v>29152.9999</v>
+        <v>20062.4446</v>
       </c>
       <c r="G124" t="n">
-        <v>-384672.6794034045</v>
+        <v>-517788.3001034045</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4732,28 +4893,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>9.470000000000001</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="C125" t="n">
-        <v>9.470000000000001</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>9.470000000000001</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="E125" t="n">
-        <v>9.470000000000001</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="F125" t="n">
-        <v>2000</v>
+        <v>10601.081</v>
       </c>
       <c r="G125" t="n">
-        <v>-382672.6794034045</v>
+        <v>-507187.2191034045</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4767,1567 +4929,47 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>9.467000000000001</v>
+        <v>9.497</v>
       </c>
       <c r="C126" t="n">
-        <v>9.467000000000001</v>
+        <v>9.497</v>
       </c>
       <c r="D126" t="n">
-        <v>9.467000000000001</v>
+        <v>9.497</v>
       </c>
       <c r="E126" t="n">
-        <v>9.467000000000001</v>
+        <v>9.497</v>
       </c>
       <c r="F126" t="n">
-        <v>6000</v>
+        <v>2472.6538</v>
       </c>
       <c r="G126" t="n">
-        <v>-388672.6794034045</v>
+        <v>-504714.5653034045</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="K126" t="n">
+        <v>9.359999999999999</v>
+      </c>
       <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>9.467000000000001</v>
-      </c>
-      <c r="C127" t="n">
-        <v>9.488</v>
-      </c>
-      <c r="D127" t="n">
-        <v>9.488</v>
-      </c>
-      <c r="E127" t="n">
-        <v>9.467000000000001</v>
-      </c>
-      <c r="F127" t="n">
-        <v>8000</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-380672.6794034045</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="C128" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="D128" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="E128" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="F128" t="n">
-        <v>37040.1478</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-417712.8272034045</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="C129" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="D129" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="E129" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="F129" t="n">
-        <v>21588</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-396124.8272034045</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="C130" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="D130" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="E130" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="F130" t="n">
-        <v>6000</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-396124.8272034045</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="C131" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="D131" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="E131" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="F131" t="n">
-        <v>6000</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-396124.8272034045</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="C132" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="D132" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="E132" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="F132" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-396124.8272034045</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="C133" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="D133" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="E133" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="F133" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-396124.8272034045</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="C134" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="D134" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="E134" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="F134" t="n">
-        <v>165</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-396124.8272034045</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="C135" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="D135" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="E135" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="F135" t="n">
-        <v>165</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-396124.8272034045</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="C136" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="D136" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="E136" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="F136" t="n">
-        <v>600</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-396124.8272034045</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="C137" t="n">
-        <v>9.539</v>
-      </c>
-      <c r="D137" t="n">
-        <v>9.539</v>
-      </c>
-      <c r="E137" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="F137" t="n">
-        <v>100</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-396024.8272034045</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="C138" t="n">
-        <v>9.535</v>
-      </c>
-      <c r="D138" t="n">
-        <v>9.535</v>
-      </c>
-      <c r="E138" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="F138" t="n">
-        <v>10309.6884</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-406334.5156034045</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="C139" t="n">
-        <v>9.481</v>
-      </c>
-      <c r="D139" t="n">
-        <v>9.526999999999999</v>
-      </c>
-      <c r="E139" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="F139" t="n">
-        <v>15886.236</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-422220.7516034045</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>9.468</v>
-      </c>
-      <c r="C140" t="n">
-        <v>9.526999999999999</v>
-      </c>
-      <c r="D140" t="n">
-        <v>9.526999999999999</v>
-      </c>
-      <c r="E140" t="n">
-        <v>9.468</v>
-      </c>
-      <c r="F140" t="n">
-        <v>261.6698</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-421959.0818034045</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>9.526999999999999</v>
-      </c>
-      <c r="C141" t="n">
-        <v>9.526999999999999</v>
-      </c>
-      <c r="D141" t="n">
-        <v>9.526999999999999</v>
-      </c>
-      <c r="E141" t="n">
-        <v>9.526999999999999</v>
-      </c>
-      <c r="F141" t="n">
-        <v>165</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-421959.0818034045</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>9.481</v>
-      </c>
-      <c r="C142" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="D142" t="n">
-        <v>9.481</v>
-      </c>
-      <c r="E142" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="F142" t="n">
-        <v>15674</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-437633.0818034045</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="C143" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="D143" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="E143" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="F143" t="n">
-        <v>7001.651</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-437633.0818034045</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>9.433</v>
-      </c>
-      <c r="C144" t="n">
-        <v>9.433</v>
-      </c>
-      <c r="D144" t="n">
-        <v>9.433</v>
-      </c>
-      <c r="E144" t="n">
-        <v>9.433</v>
-      </c>
-      <c r="F144" t="n">
-        <v>72674</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-510307.0818034045</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>9.433</v>
-      </c>
-      <c r="C145" t="n">
-        <v>9.432</v>
-      </c>
-      <c r="D145" t="n">
-        <v>9.433</v>
-      </c>
-      <c r="E145" t="n">
-        <v>9.432</v>
-      </c>
-      <c r="F145" t="n">
-        <v>838.3200000000001</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-511145.4018034045</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="C146" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="D146" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="E146" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="F146" t="n">
-        <v>822.0015</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-511967.4033034045</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>9.523</v>
-      </c>
-      <c r="C147" t="n">
-        <v>9.523999999999999</v>
-      </c>
-      <c r="D147" t="n">
-        <v>9.523999999999999</v>
-      </c>
-      <c r="E147" t="n">
-        <v>9.523</v>
-      </c>
-      <c r="F147" t="n">
-        <v>7781.834</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-504185.5693034045</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="C148" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="D148" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="E148" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="F148" t="n">
-        <v>1868</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-502317.5693034045</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>9.545</v>
-      </c>
-      <c r="C149" t="n">
-        <v>9.545</v>
-      </c>
-      <c r="D149" t="n">
-        <v>9.545</v>
-      </c>
-      <c r="E149" t="n">
-        <v>9.545</v>
-      </c>
-      <c r="F149" t="n">
-        <v>2567.0774</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-499750.4919034045</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>9.545999999999999</v>
-      </c>
-      <c r="C150" t="n">
-        <v>9.545</v>
-      </c>
-      <c r="D150" t="n">
-        <v>9.545999999999999</v>
-      </c>
-      <c r="E150" t="n">
-        <v>9.545</v>
-      </c>
-      <c r="F150" t="n">
-        <v>47238.9371</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-499750.4919034045</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>9.545999999999999</v>
-      </c>
-      <c r="C151" t="n">
-        <v>9.545999999999999</v>
-      </c>
-      <c r="D151" t="n">
-        <v>9.545999999999999</v>
-      </c>
-      <c r="E151" t="n">
-        <v>9.545999999999999</v>
-      </c>
-      <c r="F151" t="n">
-        <v>15000</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-484750.4919034045</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="C152" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="D152" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="E152" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="F152" t="n">
-        <v>25645.5252</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-510396.0171034045</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>9.433</v>
-      </c>
-      <c r="C153" t="n">
-        <v>9.422000000000001</v>
-      </c>
-      <c r="D153" t="n">
-        <v>9.433</v>
-      </c>
-      <c r="E153" t="n">
-        <v>9.422000000000001</v>
-      </c>
-      <c r="F153" t="n">
-        <v>15674</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-526070.0171034045</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>9.422000000000001</v>
-      </c>
-      <c r="C154" t="n">
-        <v>9.422000000000001</v>
-      </c>
-      <c r="D154" t="n">
-        <v>9.422000000000001</v>
-      </c>
-      <c r="E154" t="n">
-        <v>9.422000000000001</v>
-      </c>
-      <c r="F154" t="n">
-        <v>15674</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-526070.0171034045</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>9.449</v>
-      </c>
-      <c r="C155" t="n">
-        <v>9.449</v>
-      </c>
-      <c r="D155" t="n">
-        <v>9.449</v>
-      </c>
-      <c r="E155" t="n">
-        <v>9.449</v>
-      </c>
-      <c r="F155" t="n">
-        <v>130654.7648</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-395415.2523034045</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>9.449</v>
-      </c>
-      <c r="C156" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="D156" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="E156" t="n">
-        <v>9.449</v>
-      </c>
-      <c r="F156" t="n">
-        <v>63365</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-332050.2523034045</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="C157" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="D157" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="E157" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="F157" t="n">
-        <v>54.0998</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-332050.2523034045</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="K157" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="C158" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="D158" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="E158" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="F158" t="n">
-        <v>19890.9002</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-332050.2523034045</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="C159" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="D159" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="E159" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="F159" t="n">
-        <v>17400.55</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-332050.2523034045</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="K159" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>9.547000000000001</v>
-      </c>
-      <c r="C160" t="n">
-        <v>9.547000000000001</v>
-      </c>
-      <c r="D160" t="n">
-        <v>9.547000000000001</v>
-      </c>
-      <c r="E160" t="n">
-        <v>9.547000000000001</v>
-      </c>
-      <c r="F160" t="n">
-        <v>66.93680000000001</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-331983.3155034045</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="K160" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="C161" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="D161" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="E161" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="F161" t="n">
-        <v>6060</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-338043.3155034045</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="n">
-        <v>9.547000000000001</v>
-      </c>
-      <c r="K161" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="C162" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="D162" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="E162" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="F162" t="n">
-        <v>2200</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-338043.3155034045</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="K162" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>9.423</v>
-      </c>
-      <c r="C163" t="n">
-        <v>9.422000000000001</v>
-      </c>
-      <c r="D163" t="n">
-        <v>9.423</v>
-      </c>
-      <c r="E163" t="n">
-        <v>9.422000000000001</v>
-      </c>
-      <c r="F163" t="n">
-        <v>30379.53</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-368422.8455034045</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>9.422000000000001</v>
-      </c>
-      <c r="C164" t="n">
-        <v>9.403</v>
-      </c>
-      <c r="D164" t="n">
-        <v>9.422000000000001</v>
-      </c>
-      <c r="E164" t="n">
-        <v>9.403</v>
-      </c>
-      <c r="F164" t="n">
-        <v>129303.01</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-497725.8555034045</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>9.403</v>
-      </c>
-      <c r="C165" t="n">
-        <v>9.403</v>
-      </c>
-      <c r="D165" t="n">
-        <v>9.403</v>
-      </c>
-      <c r="E165" t="n">
-        <v>9.403</v>
-      </c>
-      <c r="F165" t="n">
-        <v>47.1657</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-497725.8555034045</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>9.356</v>
-      </c>
-      <c r="C166" t="n">
-        <v>9.356</v>
-      </c>
-      <c r="D166" t="n">
-        <v>9.356</v>
-      </c>
-      <c r="E166" t="n">
-        <v>9.356</v>
-      </c>
-      <c r="F166" t="n">
-        <v>20062.4446</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-517788.3001034045</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="n">
-        <v>9.403</v>
-      </c>
-      <c r="K166" t="n">
-        <v>9.403</v>
-      </c>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="C167" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="D167" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="E167" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="F167" t="n">
-        <v>10601.081</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-507187.2191034045</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>9.403</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>9.497</v>
-      </c>
-      <c r="C168" t="n">
-        <v>9.497</v>
-      </c>
-      <c r="D168" t="n">
-        <v>9.497</v>
-      </c>
-      <c r="E168" t="n">
-        <v>9.497</v>
-      </c>
-      <c r="F168" t="n">
-        <v>2472.6538</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-504714.5653034045</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="K168" t="n">
-        <v>9.403</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
+      <c r="N126" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-12 BackTest OGO.xlsx
+++ b/BackTest/2020-01-12 BackTest OGO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N126"/>
+  <dimension ref="A1:N197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9.701000000000001</v>
+        <v>9.471</v>
       </c>
       <c r="C2" t="n">
-        <v>9.701000000000001</v>
+        <v>9.471</v>
       </c>
       <c r="D2" t="n">
-        <v>9.701000000000001</v>
+        <v>9.471</v>
       </c>
       <c r="E2" t="n">
-        <v>9.701000000000001</v>
+        <v>9.471</v>
       </c>
       <c r="F2" t="n">
-        <v>38000</v>
+        <v>115.6</v>
       </c>
       <c r="G2" t="n">
-        <v>1134353.348238404</v>
+        <v>1076805.2954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.472</v>
       </c>
       <c r="C3" t="n">
-        <v>9.545</v>
+        <v>9.451000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.472</v>
       </c>
       <c r="E3" t="n">
-        <v>9.544</v>
+        <v>9.451000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>28341.2</v>
+        <v>8927.889999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>1106012.148238404</v>
+        <v>1067877.4054</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9.699999999999999</v>
+        <v>9.499000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>9.699999999999999</v>
+        <v>9.499000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>9.699999999999999</v>
+        <v>9.499000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>9.699999999999999</v>
+        <v>9.499000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>2000</v>
+        <v>665.9648384040426</v>
       </c>
       <c r="G4" t="n">
-        <v>1108012.148238404</v>
+        <v>1068543.370238404</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,28 +546,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9.699999999999999</v>
+        <v>9.451000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>9.699999999999999</v>
+        <v>9.451000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>9.699999999999999</v>
+        <v>9.451000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>9.699999999999999</v>
+        <v>9.451000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>55114.39</v>
+        <v>3375.1579</v>
       </c>
       <c r="G5" t="n">
-        <v>1108012.148238404</v>
+        <v>1065168.212338404</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9.699999999999999</v>
+        <v>9.41</v>
       </c>
       <c r="C6" t="n">
-        <v>9.699999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>9.699999999999999</v>
+        <v>9.41</v>
       </c>
       <c r="E6" t="n">
-        <v>9.699999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>4000</v>
+        <v>31620.0356</v>
       </c>
       <c r="G6" t="n">
-        <v>1108012.148238404</v>
+        <v>1033548.176738404</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,28 +618,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9.699999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="C7" t="n">
-        <v>9.699999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="D7" t="n">
-        <v>9.699999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="E7" t="n">
-        <v>9.699999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="F7" t="n">
-        <v>38885.61</v>
+        <v>527</v>
       </c>
       <c r="G7" t="n">
-        <v>1108012.148238404</v>
+        <v>1034075.176738404</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9.699999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="C8" t="n">
-        <v>9.699999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="D8" t="n">
-        <v>9.699999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="E8" t="n">
-        <v>9.699999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="F8" t="n">
-        <v>2910.7562</v>
+        <v>3455</v>
       </c>
       <c r="G8" t="n">
-        <v>1108012.148238404</v>
+        <v>1034075.176738404</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,28 +690,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9.635999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="C9" t="n">
-        <v>9.630000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="D9" t="n">
-        <v>9.635999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="E9" t="n">
-        <v>9.630000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="F9" t="n">
-        <v>43035.01</v>
+        <v>50000</v>
       </c>
       <c r="G9" t="n">
-        <v>1064977.138238404</v>
+        <v>1034075.176738404</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9.630000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="C10" t="n">
-        <v>9.635999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="D10" t="n">
-        <v>9.635999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="E10" t="n">
-        <v>9.630000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="F10" t="n">
-        <v>69917.2228</v>
+        <v>26529.3415</v>
       </c>
       <c r="G10" t="n">
-        <v>1134894.361038404</v>
+        <v>1034075.176738404</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9.893000000000001</v>
+        <v>9.339</v>
       </c>
       <c r="C11" t="n">
-        <v>9.893000000000001</v>
+        <v>9.446</v>
       </c>
       <c r="D11" t="n">
-        <v>9.893000000000001</v>
+        <v>9.446</v>
       </c>
       <c r="E11" t="n">
-        <v>9.893000000000001</v>
+        <v>9.339</v>
       </c>
       <c r="F11" t="n">
-        <v>5090.0368</v>
+        <v>38950</v>
       </c>
       <c r="G11" t="n">
-        <v>1139984.397838404</v>
+        <v>1073025.176738404</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,28 +798,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9.81</v>
+        <v>9.446</v>
       </c>
       <c r="C12" t="n">
-        <v>9.81</v>
+        <v>9.446</v>
       </c>
       <c r="D12" t="n">
-        <v>9.81</v>
+        <v>9.446</v>
       </c>
       <c r="E12" t="n">
-        <v>9.81</v>
+        <v>9.446</v>
       </c>
       <c r="F12" t="n">
-        <v>147.59</v>
+        <v>207.9595</v>
       </c>
       <c r="G12" t="n">
-        <v>1139836.807838404</v>
+        <v>1073025.176738404</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -834,28 +834,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9.81</v>
+        <v>9.321999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>9.81</v>
+        <v>9.321999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>9.81</v>
+        <v>9.321999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>9.81</v>
+        <v>9.321999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>38361.5343</v>
+        <v>10000</v>
       </c>
       <c r="G13" t="n">
-        <v>1139836.807838404</v>
+        <v>1063025.176738404</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -870,28 +870,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9.711</v>
+        <v>9.446</v>
       </c>
       <c r="C14" t="n">
-        <v>9.711</v>
+        <v>9.446</v>
       </c>
       <c r="D14" t="n">
-        <v>9.711</v>
+        <v>9.446</v>
       </c>
       <c r="E14" t="n">
-        <v>9.711</v>
+        <v>9.446</v>
       </c>
       <c r="F14" t="n">
-        <v>52</v>
+        <v>546.6654</v>
       </c>
       <c r="G14" t="n">
-        <v>1139784.807838404</v>
+        <v>1063571.842138404</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9.720000000000001</v>
+        <v>9.446</v>
       </c>
       <c r="C15" t="n">
-        <v>9.711</v>
+        <v>9.446</v>
       </c>
       <c r="D15" t="n">
-        <v>9.720000000000001</v>
+        <v>9.446</v>
       </c>
       <c r="E15" t="n">
-        <v>9.711</v>
+        <v>9.446</v>
       </c>
       <c r="F15" t="n">
-        <v>62349.2914</v>
+        <v>8469.933999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>1139784.807838404</v>
+        <v>1063571.842138404</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9.699999999999999</v>
+        <v>9.497999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>9.66</v>
+        <v>9.497999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>9.699999999999999</v>
+        <v>9.497999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>9.66</v>
+        <v>9.497999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>72795.0733</v>
+        <v>269.0162</v>
       </c>
       <c r="G16" t="n">
-        <v>1066989.734538404</v>
+        <v>1063840.858338404</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9.635999999999999</v>
+        <v>9.497</v>
       </c>
       <c r="C17" t="n">
-        <v>9.66</v>
+        <v>9.499000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>9.66</v>
+        <v>9.499000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>9.6</v>
+        <v>9.497</v>
       </c>
       <c r="F17" t="n">
-        <v>55888.8212</v>
+        <v>47145.67</v>
       </c>
       <c r="G17" t="n">
-        <v>1066989.734538404</v>
+        <v>1110986.528338404</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9.67</v>
+        <v>9.57</v>
       </c>
       <c r="C18" t="n">
-        <v>9.6</v>
+        <v>9.57</v>
       </c>
       <c r="D18" t="n">
-        <v>9.67</v>
+        <v>9.57</v>
       </c>
       <c r="E18" t="n">
-        <v>9.6</v>
+        <v>9.57</v>
       </c>
       <c r="F18" t="n">
-        <v>83328.02370000001</v>
+        <v>119.1218</v>
       </c>
       <c r="G18" t="n">
-        <v>983661.710838404</v>
+        <v>1111105.650138404</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9.550000000000001</v>
+        <v>9.57</v>
       </c>
       <c r="C19" t="n">
-        <v>9.550000000000001</v>
+        <v>9.57</v>
       </c>
       <c r="D19" t="n">
-        <v>9.550000000000001</v>
+        <v>9.57</v>
       </c>
       <c r="E19" t="n">
-        <v>9.550000000000001</v>
+        <v>9.57</v>
       </c>
       <c r="F19" t="n">
-        <v>2473.3955</v>
+        <v>60.6444</v>
       </c>
       <c r="G19" t="n">
-        <v>981188.315338404</v>
+        <v>1111105.650138404</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9.868</v>
+        <v>9.499000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>9.603</v>
+        <v>9.499000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>9.868</v>
+        <v>9.499000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>9.603</v>
+        <v>9.499000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>71219.85799999999</v>
+        <v>15864.09</v>
       </c>
       <c r="G20" t="n">
-        <v>1052408.173338404</v>
+        <v>1095241.560138404</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9.603</v>
+        <v>9.499000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>9.869999999999999</v>
+        <v>9.499000000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>9.879</v>
+        <v>9.499000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>9.603</v>
+        <v>9.499000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>130054.3491</v>
+        <v>23.8004</v>
       </c>
       <c r="G21" t="n">
-        <v>1182462.522438404</v>
+        <v>1095241.560138404</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>9.869999999999999</v>
+        <v>9.59</v>
       </c>
       <c r="C22" t="n">
-        <v>9.869999999999999</v>
+        <v>9.59</v>
       </c>
       <c r="D22" t="n">
-        <v>9.869999999999999</v>
+        <v>9.59</v>
       </c>
       <c r="E22" t="n">
-        <v>9.869999999999999</v>
+        <v>9.59</v>
       </c>
       <c r="F22" t="n">
-        <v>48.1661</v>
+        <v>72.0009</v>
       </c>
       <c r="G22" t="n">
-        <v>1182462.522438404</v>
+        <v>1095313.561038404</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>9.869</v>
+        <v>9.59</v>
       </c>
       <c r="C23" t="n">
-        <v>9.869</v>
+        <v>9.59</v>
       </c>
       <c r="D23" t="n">
-        <v>9.869</v>
+        <v>9.59</v>
       </c>
       <c r="E23" t="n">
-        <v>9.869</v>
+        <v>9.59</v>
       </c>
       <c r="F23" t="n">
-        <v>4396.0319</v>
+        <v>100.2006</v>
       </c>
       <c r="G23" t="n">
-        <v>1178066.490538404</v>
+        <v>1095313.561038404</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9.859999999999999</v>
+        <v>9.58</v>
       </c>
       <c r="C24" t="n">
-        <v>9.859999999999999</v>
+        <v>9.58</v>
       </c>
       <c r="D24" t="n">
-        <v>9.859999999999999</v>
+        <v>9.58</v>
       </c>
       <c r="E24" t="n">
-        <v>9.859999999999999</v>
+        <v>9.58</v>
       </c>
       <c r="F24" t="n">
-        <v>4400.1456</v>
+        <v>12247.3729</v>
       </c>
       <c r="G24" t="n">
-        <v>1173666.344938404</v>
+        <v>1083066.188138404</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>9.661</v>
+        <v>9.58</v>
       </c>
       <c r="C25" t="n">
-        <v>9.601000000000001</v>
+        <v>9.58</v>
       </c>
       <c r="D25" t="n">
-        <v>9.661</v>
+        <v>9.58</v>
       </c>
       <c r="E25" t="n">
-        <v>9.601000000000001</v>
+        <v>9.58</v>
       </c>
       <c r="F25" t="n">
-        <v>90786.06939999999</v>
+        <v>3674.1494</v>
       </c>
       <c r="G25" t="n">
-        <v>1082880.275538404</v>
+        <v>1083066.188138404</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>9.603</v>
+        <v>9.57</v>
       </c>
       <c r="C26" t="n">
-        <v>9.599</v>
+        <v>9.58</v>
       </c>
       <c r="D26" t="n">
-        <v>9.603</v>
+        <v>9.58</v>
       </c>
       <c r="E26" t="n">
-        <v>9.599</v>
+        <v>9.57</v>
       </c>
       <c r="F26" t="n">
-        <v>125727.889</v>
+        <v>5206.1586</v>
       </c>
       <c r="G26" t="n">
-        <v>957152.386538404</v>
+        <v>1083066.188138404</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>9.599</v>
+        <v>9.468999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>9.789999999999999</v>
+        <v>9.468999999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>9.789999999999999</v>
+        <v>9.468999999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>9.599</v>
+        <v>9.468999999999999</v>
       </c>
       <c r="F27" t="n">
-        <v>21207</v>
+        <v>515.9072</v>
       </c>
       <c r="G27" t="n">
-        <v>978359.386538404</v>
+        <v>1082550.280938404</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>9.69</v>
+        <v>9.481</v>
       </c>
       <c r="C28" t="n">
-        <v>9.69</v>
+        <v>9.481</v>
       </c>
       <c r="D28" t="n">
-        <v>9.69</v>
+        <v>9.481</v>
       </c>
       <c r="E28" t="n">
-        <v>9.69</v>
+        <v>9.481</v>
       </c>
       <c r="F28" t="n">
-        <v>523.1575</v>
+        <v>9802.2371</v>
       </c>
       <c r="G28" t="n">
-        <v>977836.2290384041</v>
+        <v>1092352.518038404</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>9.548</v>
+        <v>9.481999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>9.545</v>
+        <v>9.481999999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>9.548</v>
+        <v>9.481999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>9.539999999999999</v>
+        <v>9.481999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>162930.3754</v>
+        <v>6264.2999</v>
       </c>
       <c r="G29" t="n">
-        <v>814905.853638404</v>
+        <v>1098616.817938404</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>9.545</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>9.545</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>9.545</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>9.545</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>53917.6336</v>
+        <v>662.6831</v>
       </c>
       <c r="G30" t="n">
-        <v>814905.853638404</v>
+        <v>1097954.134838404</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>9.545</v>
+        <v>9.481999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>9.41</v>
+        <v>9.481999999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>9.545</v>
+        <v>9.481999999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>9.41</v>
+        <v>9.481999999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>13714.89</v>
+        <v>16913.8827</v>
       </c>
       <c r="G31" t="n">
-        <v>801190.963638404</v>
+        <v>1114868.017538404</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>9.42</v>
+        <v>9.481999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>9.401999999999999</v>
+        <v>9.481999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>9.42</v>
+        <v>9.481999999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>9.401999999999999</v>
+        <v>9.481999999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>54893.6145</v>
+        <v>19572.6755</v>
       </c>
       <c r="G32" t="n">
-        <v>746297.349138404</v>
+        <v>1114868.017538404</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9.538</v>
+        <v>9.481999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>9.538</v>
+        <v>9.481999999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>9.538</v>
+        <v>9.481999999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>9.538</v>
+        <v>9.481999999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>3648.5546</v>
+        <v>20000</v>
       </c>
       <c r="G33" t="n">
-        <v>749945.903738404</v>
+        <v>1114868.017538404</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>9.528</v>
+        <v>9.481999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>9.528</v>
+        <v>9.481999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>9.528</v>
+        <v>9.481999999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>9.528</v>
+        <v>9.481999999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>32972.241</v>
+        <v>17249.1297</v>
       </c>
       <c r="G34" t="n">
-        <v>716973.662738404</v>
+        <v>1114868.017538404</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9.532</v>
+        <v>9.577</v>
       </c>
       <c r="C35" t="n">
-        <v>9.532</v>
+        <v>9.577</v>
       </c>
       <c r="D35" t="n">
-        <v>9.532</v>
+        <v>9.577</v>
       </c>
       <c r="E35" t="n">
-        <v>9.532</v>
+        <v>9.577</v>
       </c>
       <c r="F35" t="n">
-        <v>2447.4526</v>
+        <v>198.7817</v>
       </c>
       <c r="G35" t="n">
-        <v>719421.115338404</v>
+        <v>1115066.799238404</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9.532</v>
+        <v>9.577</v>
       </c>
       <c r="C36" t="n">
-        <v>9.532</v>
+        <v>9.577</v>
       </c>
       <c r="D36" t="n">
-        <v>9.532</v>
+        <v>9.577</v>
       </c>
       <c r="E36" t="n">
-        <v>9.532</v>
+        <v>9.577</v>
       </c>
       <c r="F36" t="n">
-        <v>10321.4168</v>
+        <v>9603.4553</v>
       </c>
       <c r="G36" t="n">
-        <v>719421.115338404</v>
+        <v>1115066.799238404</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9.558999999999999</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>9.558999999999999</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>9.558999999999999</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>9.558999999999999</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>15674</v>
+        <v>663.1233999999999</v>
       </c>
       <c r="G37" t="n">
-        <v>735095.115338404</v>
+        <v>1115729.922638404</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>9.558999999999999</v>
+        <v>9.577</v>
       </c>
       <c r="C38" t="n">
-        <v>9.558999999999999</v>
+        <v>9.57</v>
       </c>
       <c r="D38" t="n">
-        <v>9.558999999999999</v>
+        <v>9.577</v>
       </c>
       <c r="E38" t="n">
-        <v>9.558999999999999</v>
+        <v>9.395</v>
       </c>
       <c r="F38" t="n">
-        <v>15119.8981</v>
+        <v>102979.6475</v>
       </c>
       <c r="G38" t="n">
-        <v>735095.115338404</v>
+        <v>1012750.275138404</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>9.579000000000001</v>
+        <v>9.411</v>
       </c>
       <c r="C39" t="n">
-        <v>9.579000000000001</v>
+        <v>9.569000000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>9.579000000000001</v>
+        <v>9.569000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>9.579000000000001</v>
+        <v>9.411</v>
       </c>
       <c r="F39" t="n">
-        <v>73375</v>
+        <v>36522.9283</v>
       </c>
       <c r="G39" t="n">
-        <v>808470.115338404</v>
+        <v>976227.346838404</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9.579000000000001</v>
+        <v>9.420999999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>9.579000000000001</v>
+        <v>9.420999999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>9.579000000000001</v>
+        <v>9.420999999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>9.579000000000001</v>
+        <v>9.420999999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>5225.2488</v>
+        <v>11488.4402</v>
       </c>
       <c r="G40" t="n">
-        <v>808470.115338404</v>
+        <v>964738.906638404</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>9.579000000000001</v>
+        <v>9.569000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>9.579000000000001</v>
+        <v>9.569000000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>9.579000000000001</v>
+        <v>9.569000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>9.579000000000001</v>
+        <v>9.569000000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>22403.88</v>
+        <v>8000</v>
       </c>
       <c r="G41" t="n">
-        <v>808470.115338404</v>
+        <v>972738.906638404</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>9.579000000000001</v>
+        <v>9.569000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>9.470000000000001</v>
+        <v>9.569000000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>9.579000000000001</v>
+        <v>9.569000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>9.470000000000001</v>
+        <v>9.569000000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="G42" t="n">
-        <v>802470.115338404</v>
+        <v>972738.906638404</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>9.449999999999999</v>
+        <v>9.569000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>9.4</v>
+        <v>9.569000000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>9.619999999999999</v>
+        <v>9.569000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>9.394</v>
+        <v>9.569000000000001</v>
       </c>
       <c r="F43" t="n">
-        <v>319722.2921</v>
+        <v>68.9689</v>
       </c>
       <c r="G43" t="n">
-        <v>482747.8232384039</v>
+        <v>972738.906638404</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>9.484999999999999</v>
+        <v>9.569000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>9.5</v>
+        <v>9.569000000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>9.5</v>
+        <v>9.569000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>9.484</v>
+        <v>9.569000000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>30751.94</v>
+        <v>2000</v>
       </c>
       <c r="G44" t="n">
-        <v>513499.7632384039</v>
+        <v>972738.906638404</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>9.49</v>
+        <v>9.569000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>9.401999999999999</v>
+        <v>9.57</v>
       </c>
       <c r="D45" t="n">
-        <v>9.49</v>
+        <v>9.57</v>
       </c>
       <c r="E45" t="n">
-        <v>9.4</v>
+        <v>9.569000000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>25960.64</v>
+        <v>99828.52099999999</v>
       </c>
       <c r="G45" t="n">
-        <v>487539.1232384039</v>
+        <v>1072567.427638404</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>9.420999999999999</v>
+        <v>9.577999999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>9.4</v>
+        <v>9.577999999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>9.420999999999999</v>
+        <v>9.577999999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>9.4</v>
+        <v>9.577999999999999</v>
       </c>
       <c r="F46" t="n">
-        <v>240282.7586</v>
+        <v>220</v>
       </c>
       <c r="G46" t="n">
-        <v>247256.3646384039</v>
+        <v>1072787.427638404</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>9.4</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>9.227</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>9.4</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>9.227</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>396416.6184</v>
+        <v>55</v>
       </c>
       <c r="G47" t="n">
-        <v>-149160.253761596</v>
+        <v>1072842.427638404</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>9.348000000000001</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>9.300000000000001</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>9.348000000000001</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>9.300000000000001</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>21890</v>
+        <v>110</v>
       </c>
       <c r="G48" t="n">
-        <v>-127270.253761596</v>
+        <v>1072842.427638404</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>9.388</v>
+        <v>9.57</v>
       </c>
       <c r="C49" t="n">
-        <v>9.388</v>
+        <v>9.57</v>
       </c>
       <c r="D49" t="n">
-        <v>9.388</v>
+        <v>9.57</v>
       </c>
       <c r="E49" t="n">
-        <v>9.388</v>
+        <v>9.57</v>
       </c>
       <c r="F49" t="n">
-        <v>17553</v>
+        <v>171.479</v>
       </c>
       <c r="G49" t="n">
-        <v>-109717.253761596</v>
+        <v>1072670.948638404</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>9.398999999999999</v>
+        <v>9.57</v>
       </c>
       <c r="C50" t="n">
-        <v>9.4</v>
+        <v>9.57</v>
       </c>
       <c r="D50" t="n">
-        <v>9.4</v>
+        <v>9.57</v>
       </c>
       <c r="E50" t="n">
-        <v>9.398999999999999</v>
+        <v>9.57</v>
       </c>
       <c r="F50" t="n">
-        <v>4149.232658191489</v>
+        <v>110</v>
       </c>
       <c r="G50" t="n">
-        <v>-105568.0211034046</v>
+        <v>1072670.948638404</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>9.228</v>
+        <v>9.57</v>
       </c>
       <c r="C51" t="n">
-        <v>9.4</v>
+        <v>9.57</v>
       </c>
       <c r="D51" t="n">
-        <v>9.4</v>
+        <v>9.57</v>
       </c>
       <c r="E51" t="n">
-        <v>9.228</v>
+        <v>9.57</v>
       </c>
       <c r="F51" t="n">
-        <v>40811.6461</v>
+        <v>165</v>
       </c>
       <c r="G51" t="n">
-        <v>-105568.0211034046</v>
+        <v>1072670.948638404</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>9.4</v>
+        <v>9.468</v>
       </c>
       <c r="C52" t="n">
-        <v>9.4</v>
+        <v>9.468</v>
       </c>
       <c r="D52" t="n">
-        <v>9.4</v>
+        <v>9.468</v>
       </c>
       <c r="E52" t="n">
-        <v>9.4</v>
+        <v>9.468</v>
       </c>
       <c r="F52" t="n">
-        <v>5262.8227</v>
+        <v>2115.0354</v>
       </c>
       <c r="G52" t="n">
-        <v>-105568.0211034046</v>
+        <v>1070555.913238404</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>9.227</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>9.227</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>9.227</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>9.227</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="F53" t="n">
-        <v>8500</v>
+        <v>48398.006</v>
       </c>
       <c r="G53" t="n">
-        <v>-114068.0211034046</v>
+        <v>1022157.907238404</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>9.398999999999999</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>9.4</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>9.4</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>9.398999999999999</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="F54" t="n">
-        <v>27278.2199</v>
+        <v>33177</v>
       </c>
       <c r="G54" t="n">
-        <v>-86789.80120340457</v>
+        <v>1022157.907238404</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>9.227</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>9.227</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>9.227</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>9.227</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>2000</v>
+        <v>1989</v>
       </c>
       <c r="G55" t="n">
-        <v>-88789.80120340457</v>
+        <v>1022157.907238404</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>9.250999999999999</v>
+        <v>9.414999999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>9.250999999999999</v>
+        <v>9.414999999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>9.250999999999999</v>
+        <v>9.414999999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>9.227</v>
+        <v>9.414999999999999</v>
       </c>
       <c r="F56" t="n">
-        <v>166015.9533</v>
+        <v>10023.8705</v>
       </c>
       <c r="G56" t="n">
-        <v>77226.15209659543</v>
+        <v>1012134.036738404</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>9.227</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>9.226000000000001</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>9.227</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>9.226000000000001</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>80766.1548</v>
+        <v>24291</v>
       </c>
       <c r="G57" t="n">
-        <v>-3540.002703404578</v>
+        <v>1036425.036738404</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>9.25</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>9.25</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>9.25</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>9.25</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="F58" t="n">
-        <v>1243</v>
+        <v>34411</v>
       </c>
       <c r="G58" t="n">
-        <v>-2297.002703404578</v>
+        <v>1036425.036738404</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>9.24</v>
+        <v>9.412000000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>9.237</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>9.24</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>9.237</v>
+        <v>9.412000000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>13032</v>
+        <v>30106.1943</v>
       </c>
       <c r="G59" t="n">
-        <v>-15329.00270340458</v>
+        <v>1036425.036738404</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,35 +2526,31 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>9.24</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>9.348000000000001</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>9.348000000000001</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>9.24</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>18025</v>
+        <v>410.1799</v>
       </c>
       <c r="G60" t="n">
-        <v>2695.997296595422</v>
+        <v>1036425.036738404</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>9.237</v>
-      </c>
-      <c r="K60" t="n">
-        <v>9.237</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
@@ -2566,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>9.348000000000001</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>9.348000000000001</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>9.348000000000001</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>9.348000000000001</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="F61" t="n">
-        <v>5348.7377</v>
+        <v>50000</v>
       </c>
       <c r="G61" t="n">
-        <v>2695.997296595422</v>
+        <v>1036425.036738404</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2590,14 +2586,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>9.237</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2608,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>9.348000000000001</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>9.348000000000001</v>
+        <v>9.596</v>
       </c>
       <c r="D62" t="n">
-        <v>9.348000000000001</v>
+        <v>9.596</v>
       </c>
       <c r="E62" t="n">
-        <v>9.348000000000001</v>
+        <v>9.467000000000001</v>
       </c>
       <c r="F62" t="n">
-        <v>75310.103</v>
+        <v>747</v>
       </c>
       <c r="G62" t="n">
-        <v>2695.997296595422</v>
+        <v>1037172.036738404</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2632,14 +2622,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>9.237</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2650,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>9.260999999999999</v>
+        <v>9.596</v>
       </c>
       <c r="C63" t="n">
-        <v>9.226000000000001</v>
+        <v>9.596</v>
       </c>
       <c r="D63" t="n">
-        <v>9.260999999999999</v>
+        <v>9.596</v>
       </c>
       <c r="E63" t="n">
-        <v>9.226000000000001</v>
+        <v>9.596</v>
       </c>
       <c r="F63" t="n">
-        <v>153787.3776</v>
+        <v>5196.969</v>
       </c>
       <c r="G63" t="n">
-        <v>-151091.3803034046</v>
+        <v>1037172.036738404</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2686,35 +2670,31 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>9.329000000000001</v>
+        <v>9.597</v>
       </c>
       <c r="C64" t="n">
-        <v>9.327999999999999</v>
+        <v>9.597</v>
       </c>
       <c r="D64" t="n">
-        <v>9.33</v>
+        <v>9.597</v>
       </c>
       <c r="E64" t="n">
-        <v>9.32</v>
+        <v>9.597</v>
       </c>
       <c r="F64" t="n">
-        <v>89376</v>
+        <v>137.3023</v>
       </c>
       <c r="G64" t="n">
-        <v>-61715.38030340458</v>
+        <v>1037309.339038404</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>9.226000000000001</v>
-      </c>
-      <c r="K64" t="n">
-        <v>9.226000000000001</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
@@ -2726,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9.327999999999999</v>
+        <v>9.461</v>
       </c>
       <c r="C65" t="n">
-        <v>9.327999999999999</v>
+        <v>9.461</v>
       </c>
       <c r="D65" t="n">
-        <v>9.327999999999999</v>
+        <v>9.461</v>
       </c>
       <c r="E65" t="n">
-        <v>9.327999999999999</v>
+        <v>9.461</v>
       </c>
       <c r="F65" t="n">
-        <v>13298</v>
+        <v>137.3023</v>
       </c>
       <c r="G65" t="n">
-        <v>-61715.38030340458</v>
+        <v>1037172.036738404</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2750,14 +2730,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>9.226000000000001</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2768,40 +2742,32 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>9.398999999999999</v>
+        <v>9.596</v>
       </c>
       <c r="C66" t="n">
-        <v>9.41</v>
+        <v>9.596</v>
       </c>
       <c r="D66" t="n">
-        <v>9.41</v>
+        <v>9.596</v>
       </c>
       <c r="E66" t="n">
-        <v>9.398999999999999</v>
+        <v>9.596</v>
       </c>
       <c r="F66" t="n">
-        <v>15689</v>
+        <v>151.3427</v>
       </c>
       <c r="G66" t="n">
-        <v>-46026.38030340458</v>
+        <v>1037323.379438404</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>9.327999999999999</v>
-      </c>
-      <c r="K66" t="n">
-        <v>9.226000000000001</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2812,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>9.41</v>
+        <v>9.471</v>
       </c>
       <c r="C67" t="n">
-        <v>9.557</v>
+        <v>9.471</v>
       </c>
       <c r="D67" t="n">
-        <v>9.557</v>
+        <v>9.471</v>
       </c>
       <c r="E67" t="n">
-        <v>9.41</v>
+        <v>9.471</v>
       </c>
       <c r="F67" t="n">
-        <v>1597</v>
+        <v>30483.581</v>
       </c>
       <c r="G67" t="n">
-        <v>-44429.38030340458</v>
+        <v>1006839.798438404</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2848,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>9.353999999999999</v>
+        <v>9.471</v>
       </c>
       <c r="C68" t="n">
-        <v>9.353999999999999</v>
+        <v>9.593999999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>9.353999999999999</v>
+        <v>9.593999999999999</v>
       </c>
       <c r="E68" t="n">
-        <v>9.353999999999999</v>
+        <v>9.471</v>
       </c>
       <c r="F68" t="n">
-        <v>129387.7176</v>
+        <v>29336</v>
       </c>
       <c r="G68" t="n">
-        <v>-173817.0979034046</v>
+        <v>1036175.798438404</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2884,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>9.381</v>
+        <v>9.441000000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>9.353999999999999</v>
+        <v>9.441000000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>9.381</v>
+        <v>9.441000000000001</v>
       </c>
       <c r="E69" t="n">
-        <v>9.353999999999999</v>
+        <v>9.441000000000001</v>
       </c>
       <c r="F69" t="n">
-        <v>60048.8107</v>
+        <v>222</v>
       </c>
       <c r="G69" t="n">
-        <v>-173817.0979034046</v>
+        <v>1035953.798438404</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2920,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9.4</v>
+        <v>9.584</v>
       </c>
       <c r="C70" t="n">
-        <v>9.4</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>9.4</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="E70" t="n">
-        <v>9.4</v>
+        <v>9.584</v>
       </c>
       <c r="F70" t="n">
-        <v>800</v>
+        <v>140436.7568</v>
       </c>
       <c r="G70" t="n">
-        <v>-173017.0979034046</v>
+        <v>1176390.555238404</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2956,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>9.571</v>
+        <v>9.701000000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>9.571</v>
+        <v>9.51</v>
       </c>
       <c r="D71" t="n">
-        <v>9.571</v>
+        <v>9.701000000000001</v>
       </c>
       <c r="E71" t="n">
-        <v>9.571</v>
+        <v>9.51</v>
       </c>
       <c r="F71" t="n">
-        <v>64.1121</v>
+        <v>60819.17</v>
       </c>
       <c r="G71" t="n">
-        <v>-172952.9858034046</v>
+        <v>1115571.385238404</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2992,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>9.516999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>9.516999999999999</v>
+        <v>9.701000000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>9.516999999999999</v>
+        <v>9.701000000000001</v>
       </c>
       <c r="E72" t="n">
-        <v>9.516999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F72" t="n">
-        <v>5789</v>
+        <v>18781.963</v>
       </c>
       <c r="G72" t="n">
-        <v>-178741.9858034046</v>
+        <v>1134353.348238404</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3028,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9.398999999999999</v>
+        <v>9.701000000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>9.388</v>
+        <v>9.701000000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>9.398999999999999</v>
+        <v>9.701000000000001</v>
       </c>
       <c r="E73" t="n">
-        <v>9.353999999999999</v>
+        <v>9.701000000000001</v>
       </c>
       <c r="F73" t="n">
-        <v>74664.5131</v>
+        <v>38000</v>
       </c>
       <c r="G73" t="n">
-        <v>-253406.4989034046</v>
+        <v>1134353.348238404</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3064,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>9.388</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>9.478999999999999</v>
+        <v>9.545</v>
       </c>
       <c r="D74" t="n">
-        <v>9.478999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>9.388</v>
+        <v>9.544</v>
       </c>
       <c r="F74" t="n">
-        <v>10000</v>
+        <v>28341.2</v>
       </c>
       <c r="G74" t="n">
-        <v>-243406.4989034046</v>
+        <v>1106012.148238404</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3100,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>9.539</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>9.539</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>9.539</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E75" t="n">
-        <v>9.539</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>102.2269</v>
+        <v>2000</v>
       </c>
       <c r="G75" t="n">
-        <v>-243304.2720034046</v>
+        <v>1108012.148238404</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3136,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>9.359999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>9.471</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>9.545999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E76" t="n">
-        <v>9.359999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F76" t="n">
-        <v>46906.1453</v>
+        <v>55114.39</v>
       </c>
       <c r="G76" t="n">
-        <v>-290210.4173034045</v>
+        <v>1108012.148238404</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3172,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>9.355</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>9.355</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>9.355</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E77" t="n">
-        <v>9.355</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>59067.4799</v>
+        <v>4000</v>
       </c>
       <c r="G77" t="n">
-        <v>-349277.8972034045</v>
+        <v>1108012.148238404</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3208,28 +3174,28 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>9.477</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>9.477</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>9.477</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E78" t="n">
-        <v>9.477</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F78" t="n">
-        <v>108</v>
+        <v>38885.61</v>
       </c>
       <c r="G78" t="n">
-        <v>-349169.8972034045</v>
+        <v>1108012.148238404</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3244,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>9.355</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>9.355</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>9.355</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E79" t="n">
-        <v>9.355</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F79" t="n">
-        <v>108</v>
+        <v>2910.7562</v>
       </c>
       <c r="G79" t="n">
-        <v>-349277.8972034045</v>
+        <v>1108012.148238404</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3280,28 +3246,28 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>9.475</v>
+        <v>9.635999999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>9.475</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>9.475</v>
+        <v>9.635999999999999</v>
       </c>
       <c r="E80" t="n">
-        <v>9.475</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="F80" t="n">
-        <v>109.2177</v>
+        <v>43035.01</v>
       </c>
       <c r="G80" t="n">
-        <v>-349168.6795034045</v>
+        <v>1064977.138238404</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3316,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>9.407999999999999</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>9.407999999999999</v>
+        <v>9.635999999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>9.407999999999999</v>
+        <v>9.635999999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>9.407999999999999</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="F81" t="n">
-        <v>6351</v>
+        <v>69917.2228</v>
       </c>
       <c r="G81" t="n">
-        <v>-355519.6795034045</v>
+        <v>1134894.361038404</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3352,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9.4</v>
+        <v>9.893000000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>9.398999999999999</v>
+        <v>9.893000000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>9.4</v>
+        <v>9.893000000000001</v>
       </c>
       <c r="E82" t="n">
-        <v>9.398999999999999</v>
+        <v>9.893000000000001</v>
       </c>
       <c r="F82" t="n">
-        <v>29152.9999</v>
+        <v>5090.0368</v>
       </c>
       <c r="G82" t="n">
-        <v>-384672.6794034045</v>
+        <v>1139984.397838404</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3388,28 +3354,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9.470000000000001</v>
+        <v>9.81</v>
       </c>
       <c r="C83" t="n">
-        <v>9.470000000000001</v>
+        <v>9.81</v>
       </c>
       <c r="D83" t="n">
-        <v>9.470000000000001</v>
+        <v>9.81</v>
       </c>
       <c r="E83" t="n">
-        <v>9.470000000000001</v>
+        <v>9.81</v>
       </c>
       <c r="F83" t="n">
-        <v>2000</v>
+        <v>147.59</v>
       </c>
       <c r="G83" t="n">
-        <v>-382672.6794034045</v>
+        <v>1139836.807838404</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3424,28 +3390,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9.467000000000001</v>
+        <v>9.81</v>
       </c>
       <c r="C84" t="n">
-        <v>9.467000000000001</v>
+        <v>9.81</v>
       </c>
       <c r="D84" t="n">
-        <v>9.467000000000001</v>
+        <v>9.81</v>
       </c>
       <c r="E84" t="n">
-        <v>9.467000000000001</v>
+        <v>9.81</v>
       </c>
       <c r="F84" t="n">
-        <v>6000</v>
+        <v>38361.5343</v>
       </c>
       <c r="G84" t="n">
-        <v>-388672.6794034045</v>
+        <v>1139836.807838404</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3460,28 +3426,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9.467000000000001</v>
+        <v>9.711</v>
       </c>
       <c r="C85" t="n">
-        <v>9.488</v>
+        <v>9.711</v>
       </c>
       <c r="D85" t="n">
-        <v>9.488</v>
+        <v>9.711</v>
       </c>
       <c r="E85" t="n">
-        <v>9.467000000000001</v>
+        <v>9.711</v>
       </c>
       <c r="F85" t="n">
-        <v>8000</v>
+        <v>52</v>
       </c>
       <c r="G85" t="n">
-        <v>-380672.6794034045</v>
+        <v>1139784.807838404</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3496,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9.48</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>9.470000000000001</v>
+        <v>9.711</v>
       </c>
       <c r="D86" t="n">
-        <v>9.48</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="E86" t="n">
-        <v>9.470000000000001</v>
+        <v>9.711</v>
       </c>
       <c r="F86" t="n">
-        <v>37040.1478</v>
+        <v>62349.2914</v>
       </c>
       <c r="G86" t="n">
-        <v>-417712.8272034045</v>
+        <v>1139784.807838404</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3532,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>9.470000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>9.48</v>
+        <v>9.66</v>
       </c>
       <c r="D87" t="n">
-        <v>9.48</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>9.470000000000001</v>
+        <v>9.66</v>
       </c>
       <c r="F87" t="n">
-        <v>21588</v>
+        <v>72795.0733</v>
       </c>
       <c r="G87" t="n">
-        <v>-396124.8272034045</v>
+        <v>1066989.734538404</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3568,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>9.48</v>
+        <v>9.635999999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>9.48</v>
+        <v>9.66</v>
       </c>
       <c r="D88" t="n">
-        <v>9.48</v>
+        <v>9.66</v>
       </c>
       <c r="E88" t="n">
-        <v>9.48</v>
+        <v>9.6</v>
       </c>
       <c r="F88" t="n">
-        <v>6000</v>
+        <v>55888.8212</v>
       </c>
       <c r="G88" t="n">
-        <v>-396124.8272034045</v>
+        <v>1066989.734538404</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3604,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9.48</v>
+        <v>9.67</v>
       </c>
       <c r="C89" t="n">
-        <v>9.48</v>
+        <v>9.6</v>
       </c>
       <c r="D89" t="n">
-        <v>9.48</v>
+        <v>9.67</v>
       </c>
       <c r="E89" t="n">
-        <v>9.48</v>
+        <v>9.6</v>
       </c>
       <c r="F89" t="n">
-        <v>6000</v>
+        <v>83328.02370000001</v>
       </c>
       <c r="G89" t="n">
-        <v>-396124.8272034045</v>
+        <v>983661.710838404</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3640,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>9.48</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>9.48</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>9.48</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>9.48</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="F90" t="n">
-        <v>2000</v>
+        <v>2473.3955</v>
       </c>
       <c r="G90" t="n">
-        <v>-396124.8272034045</v>
+        <v>981188.315338404</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3676,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9.48</v>
+        <v>9.868</v>
       </c>
       <c r="C91" t="n">
-        <v>9.48</v>
+        <v>9.603</v>
       </c>
       <c r="D91" t="n">
-        <v>9.48</v>
+        <v>9.868</v>
       </c>
       <c r="E91" t="n">
-        <v>9.48</v>
+        <v>9.603</v>
       </c>
       <c r="F91" t="n">
-        <v>2000</v>
+        <v>71219.85799999999</v>
       </c>
       <c r="G91" t="n">
-        <v>-396124.8272034045</v>
+        <v>1052408.173338404</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3712,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>9.48</v>
+        <v>9.603</v>
       </c>
       <c r="C92" t="n">
-        <v>9.48</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>9.48</v>
+        <v>9.879</v>
       </c>
       <c r="E92" t="n">
-        <v>9.48</v>
+        <v>9.603</v>
       </c>
       <c r="F92" t="n">
-        <v>165</v>
+        <v>130054.3491</v>
       </c>
       <c r="G92" t="n">
-        <v>-396124.8272034045</v>
+        <v>1182462.522438404</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3748,28 +3714,28 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9.48</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>9.48</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>9.48</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="E93" t="n">
-        <v>9.48</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="F93" t="n">
-        <v>165</v>
+        <v>48.1661</v>
       </c>
       <c r="G93" t="n">
-        <v>-396124.8272034045</v>
+        <v>1182462.522438404</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3784,28 +3750,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>9.48</v>
+        <v>9.869</v>
       </c>
       <c r="C94" t="n">
-        <v>9.48</v>
+        <v>9.869</v>
       </c>
       <c r="D94" t="n">
-        <v>9.48</v>
+        <v>9.869</v>
       </c>
       <c r="E94" t="n">
-        <v>9.48</v>
+        <v>9.869</v>
       </c>
       <c r="F94" t="n">
-        <v>600</v>
+        <v>4396.0319</v>
       </c>
       <c r="G94" t="n">
-        <v>-396124.8272034045</v>
+        <v>1178066.490538404</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3820,28 +3786,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>9.48</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>9.539</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>9.539</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="E95" t="n">
-        <v>9.48</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="F95" t="n">
-        <v>100</v>
+        <v>4400.1456</v>
       </c>
       <c r="G95" t="n">
-        <v>-396024.8272034045</v>
+        <v>1173666.344938404</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3856,28 +3822,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>9.449999999999999</v>
+        <v>9.661</v>
       </c>
       <c r="C96" t="n">
-        <v>9.535</v>
+        <v>9.601000000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>9.535</v>
+        <v>9.661</v>
       </c>
       <c r="E96" t="n">
-        <v>9.449999999999999</v>
+        <v>9.601000000000001</v>
       </c>
       <c r="F96" t="n">
-        <v>10309.6884</v>
+        <v>90786.06939999999</v>
       </c>
       <c r="G96" t="n">
-        <v>-406334.5156034045</v>
+        <v>1082880.275538404</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3892,22 +3858,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>9.449999999999999</v>
+        <v>9.603</v>
       </c>
       <c r="C97" t="n">
-        <v>9.481</v>
+        <v>9.599</v>
       </c>
       <c r="D97" t="n">
-        <v>9.526999999999999</v>
+        <v>9.603</v>
       </c>
       <c r="E97" t="n">
-        <v>9.449999999999999</v>
+        <v>9.599</v>
       </c>
       <c r="F97" t="n">
-        <v>15886.236</v>
+        <v>125727.889</v>
       </c>
       <c r="G97" t="n">
-        <v>-422220.7516034045</v>
+        <v>957152.386538404</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3928,22 +3894,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>9.468</v>
+        <v>9.599</v>
       </c>
       <c r="C98" t="n">
-        <v>9.526999999999999</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>9.526999999999999</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="E98" t="n">
-        <v>9.468</v>
+        <v>9.599</v>
       </c>
       <c r="F98" t="n">
-        <v>261.6698</v>
+        <v>21207</v>
       </c>
       <c r="G98" t="n">
-        <v>-421959.0818034045</v>
+        <v>978359.386538404</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3964,22 +3930,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>9.526999999999999</v>
+        <v>9.69</v>
       </c>
       <c r="C99" t="n">
-        <v>9.526999999999999</v>
+        <v>9.69</v>
       </c>
       <c r="D99" t="n">
-        <v>9.526999999999999</v>
+        <v>9.69</v>
       </c>
       <c r="E99" t="n">
-        <v>9.526999999999999</v>
+        <v>9.69</v>
       </c>
       <c r="F99" t="n">
-        <v>165</v>
+        <v>523.1575</v>
       </c>
       <c r="G99" t="n">
-        <v>-421959.0818034045</v>
+        <v>977836.2290384041</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4000,22 +3966,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>9.481</v>
+        <v>9.548</v>
       </c>
       <c r="C100" t="n">
-        <v>9.44</v>
+        <v>9.545</v>
       </c>
       <c r="D100" t="n">
-        <v>9.481</v>
+        <v>9.548</v>
       </c>
       <c r="E100" t="n">
-        <v>9.44</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="F100" t="n">
-        <v>15674</v>
+        <v>162930.3754</v>
       </c>
       <c r="G100" t="n">
-        <v>-437633.0818034045</v>
+        <v>814905.853638404</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4036,22 +4002,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>9.44</v>
+        <v>9.545</v>
       </c>
       <c r="C101" t="n">
-        <v>9.44</v>
+        <v>9.545</v>
       </c>
       <c r="D101" t="n">
-        <v>9.44</v>
+        <v>9.545</v>
       </c>
       <c r="E101" t="n">
-        <v>9.44</v>
+        <v>9.545</v>
       </c>
       <c r="F101" t="n">
-        <v>7001.651</v>
+        <v>53917.6336</v>
       </c>
       <c r="G101" t="n">
-        <v>-437633.0818034045</v>
+        <v>814905.853638404</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4072,22 +4038,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>9.433</v>
+        <v>9.545</v>
       </c>
       <c r="C102" t="n">
-        <v>9.433</v>
+        <v>9.41</v>
       </c>
       <c r="D102" t="n">
-        <v>9.433</v>
+        <v>9.545</v>
       </c>
       <c r="E102" t="n">
-        <v>9.433</v>
+        <v>9.41</v>
       </c>
       <c r="F102" t="n">
-        <v>72674</v>
+        <v>13714.89</v>
       </c>
       <c r="G102" t="n">
-        <v>-510307.0818034045</v>
+        <v>801190.963638404</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4108,22 +4074,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>9.433</v>
+        <v>9.42</v>
       </c>
       <c r="C103" t="n">
-        <v>9.432</v>
+        <v>9.401999999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>9.433</v>
+        <v>9.42</v>
       </c>
       <c r="E103" t="n">
-        <v>9.432</v>
+        <v>9.401999999999999</v>
       </c>
       <c r="F103" t="n">
-        <v>838.3200000000001</v>
+        <v>54893.6145</v>
       </c>
       <c r="G103" t="n">
-        <v>-511145.4018034045</v>
+        <v>746297.349138404</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4144,22 +4110,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>9.369999999999999</v>
+        <v>9.538</v>
       </c>
       <c r="C104" t="n">
-        <v>9.369999999999999</v>
+        <v>9.538</v>
       </c>
       <c r="D104" t="n">
-        <v>9.369999999999999</v>
+        <v>9.538</v>
       </c>
       <c r="E104" t="n">
-        <v>9.369999999999999</v>
+        <v>9.538</v>
       </c>
       <c r="F104" t="n">
-        <v>822.0015</v>
+        <v>3648.5546</v>
       </c>
       <c r="G104" t="n">
-        <v>-511967.4033034045</v>
+        <v>749945.903738404</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4180,22 +4146,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>9.523</v>
+        <v>9.528</v>
       </c>
       <c r="C105" t="n">
-        <v>9.523999999999999</v>
+        <v>9.528</v>
       </c>
       <c r="D105" t="n">
-        <v>9.523999999999999</v>
+        <v>9.528</v>
       </c>
       <c r="E105" t="n">
-        <v>9.523</v>
+        <v>9.528</v>
       </c>
       <c r="F105" t="n">
-        <v>7781.834</v>
+        <v>32972.241</v>
       </c>
       <c r="G105" t="n">
-        <v>-504185.5693034045</v>
+        <v>716973.662738404</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4216,22 +4182,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>9.539999999999999</v>
+        <v>9.532</v>
       </c>
       <c r="C106" t="n">
-        <v>9.539999999999999</v>
+        <v>9.532</v>
       </c>
       <c r="D106" t="n">
-        <v>9.539999999999999</v>
+        <v>9.532</v>
       </c>
       <c r="E106" t="n">
-        <v>9.539999999999999</v>
+        <v>9.532</v>
       </c>
       <c r="F106" t="n">
-        <v>1868</v>
+        <v>2447.4526</v>
       </c>
       <c r="G106" t="n">
-        <v>-502317.5693034045</v>
+        <v>719421.115338404</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4252,22 +4218,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>9.545</v>
+        <v>9.532</v>
       </c>
       <c r="C107" t="n">
-        <v>9.545</v>
+        <v>9.532</v>
       </c>
       <c r="D107" t="n">
-        <v>9.545</v>
+        <v>9.532</v>
       </c>
       <c r="E107" t="n">
-        <v>9.545</v>
+        <v>9.532</v>
       </c>
       <c r="F107" t="n">
-        <v>2567.0774</v>
+        <v>10321.4168</v>
       </c>
       <c r="G107" t="n">
-        <v>-499750.4919034045</v>
+        <v>719421.115338404</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4288,22 +4254,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>9.545999999999999</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>9.545</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>9.545999999999999</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="E108" t="n">
-        <v>9.545</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="F108" t="n">
-        <v>47238.9371</v>
+        <v>15674</v>
       </c>
       <c r="G108" t="n">
-        <v>-499750.4919034045</v>
+        <v>735095.115338404</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4324,22 +4290,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>9.545999999999999</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>9.545999999999999</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>9.545999999999999</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="E109" t="n">
-        <v>9.545999999999999</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="F109" t="n">
-        <v>15000</v>
+        <v>15119.8981</v>
       </c>
       <c r="G109" t="n">
-        <v>-484750.4919034045</v>
+        <v>735095.115338404</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4360,22 +4326,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>9.449999999999999</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>9.460000000000001</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>9.460000000000001</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="E110" t="n">
-        <v>9.449999999999999</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="F110" t="n">
-        <v>25645.5252</v>
+        <v>73375</v>
       </c>
       <c r="G110" t="n">
-        <v>-510396.0171034045</v>
+        <v>808470.115338404</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4396,22 +4362,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>9.433</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>9.422000000000001</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>9.433</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="E111" t="n">
-        <v>9.422000000000001</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="F111" t="n">
-        <v>15674</v>
+        <v>5225.2488</v>
       </c>
       <c r="G111" t="n">
-        <v>-526070.0171034045</v>
+        <v>808470.115338404</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4432,22 +4398,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>9.422000000000001</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>9.422000000000001</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>9.422000000000001</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="E112" t="n">
-        <v>9.422000000000001</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="F112" t="n">
-        <v>15674</v>
+        <v>22403.88</v>
       </c>
       <c r="G112" t="n">
-        <v>-526070.0171034045</v>
+        <v>808470.115338404</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4468,22 +4434,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>9.449</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>9.449</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>9.449</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="E113" t="n">
-        <v>9.449</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="F113" t="n">
-        <v>130654.7648</v>
+        <v>6000</v>
       </c>
       <c r="G113" t="n">
-        <v>-395415.2523034045</v>
+        <v>802470.115338404</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4504,22 +4470,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>9.449</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="D114" t="n">
-        <v>9.5</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="E114" t="n">
-        <v>9.449</v>
+        <v>9.394</v>
       </c>
       <c r="F114" t="n">
-        <v>63365</v>
+        <v>319722.2921</v>
       </c>
       <c r="G114" t="n">
-        <v>-332050.2523034045</v>
+        <v>482747.8232384039</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4540,7 +4506,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>9.5</v>
+        <v>9.484999999999999</v>
       </c>
       <c r="C115" t="n">
         <v>9.5</v>
@@ -4549,13 +4515,13 @@
         <v>9.5</v>
       </c>
       <c r="E115" t="n">
-        <v>9.5</v>
+        <v>9.484</v>
       </c>
       <c r="F115" t="n">
-        <v>54.0998</v>
+        <v>30751.94</v>
       </c>
       <c r="G115" t="n">
-        <v>-332050.2523034045</v>
+        <v>513499.7632384039</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4576,22 +4542,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>9.5</v>
+        <v>9.49</v>
       </c>
       <c r="C116" t="n">
-        <v>9.5</v>
+        <v>9.401999999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>9.5</v>
+        <v>9.49</v>
       </c>
       <c r="E116" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="F116" t="n">
-        <v>19890.9002</v>
+        <v>25960.64</v>
       </c>
       <c r="G116" t="n">
-        <v>-332050.2523034045</v>
+        <v>487539.1232384039</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4612,22 +4578,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>9.5</v>
+        <v>9.420999999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="D117" t="n">
-        <v>9.5</v>
+        <v>9.420999999999999</v>
       </c>
       <c r="E117" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="F117" t="n">
-        <v>17400.55</v>
+        <v>240282.7586</v>
       </c>
       <c r="G117" t="n">
-        <v>-332050.2523034045</v>
+        <v>247256.3646384039</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4648,22 +4614,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>9.547000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="C118" t="n">
-        <v>9.547000000000001</v>
+        <v>9.227</v>
       </c>
       <c r="D118" t="n">
-        <v>9.547000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="E118" t="n">
-        <v>9.547000000000001</v>
+        <v>9.227</v>
       </c>
       <c r="F118" t="n">
-        <v>66.93680000000001</v>
+        <v>396416.6184</v>
       </c>
       <c r="G118" t="n">
-        <v>-331983.3155034045</v>
+        <v>-149160.253761596</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4684,22 +4650,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>9.449999999999999</v>
+        <v>9.348000000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>9.449999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>9.449999999999999</v>
+        <v>9.348000000000001</v>
       </c>
       <c r="E119" t="n">
-        <v>9.449999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F119" t="n">
-        <v>6060</v>
+        <v>21890</v>
       </c>
       <c r="G119" t="n">
-        <v>-338043.3155034045</v>
+        <v>-127270.253761596</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4720,22 +4686,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>9.449999999999999</v>
+        <v>9.388</v>
       </c>
       <c r="C120" t="n">
-        <v>9.449999999999999</v>
+        <v>9.388</v>
       </c>
       <c r="D120" t="n">
-        <v>9.449999999999999</v>
+        <v>9.388</v>
       </c>
       <c r="E120" t="n">
-        <v>9.449999999999999</v>
+        <v>9.388</v>
       </c>
       <c r="F120" t="n">
-        <v>2200</v>
+        <v>17553</v>
       </c>
       <c r="G120" t="n">
-        <v>-338043.3155034045</v>
+        <v>-109717.253761596</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4756,22 +4722,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>9.423</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>9.422000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="D121" t="n">
-        <v>9.423</v>
+        <v>9.4</v>
       </c>
       <c r="E121" t="n">
-        <v>9.422000000000001</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="F121" t="n">
-        <v>30379.53</v>
+        <v>4149.232658191489</v>
       </c>
       <c r="G121" t="n">
-        <v>-368422.8455034045</v>
+        <v>-105568.0211034046</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4792,22 +4758,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>9.422000000000001</v>
+        <v>9.228</v>
       </c>
       <c r="C122" t="n">
-        <v>9.403</v>
+        <v>9.4</v>
       </c>
       <c r="D122" t="n">
-        <v>9.422000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="E122" t="n">
-        <v>9.403</v>
+        <v>9.228</v>
       </c>
       <c r="F122" t="n">
-        <v>129303.01</v>
+        <v>40811.6461</v>
       </c>
       <c r="G122" t="n">
-        <v>-497725.8555034045</v>
+        <v>-105568.0211034046</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4828,22 +4794,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>9.403</v>
+        <v>9.4</v>
       </c>
       <c r="C123" t="n">
-        <v>9.403</v>
+        <v>9.4</v>
       </c>
       <c r="D123" t="n">
-        <v>9.403</v>
+        <v>9.4</v>
       </c>
       <c r="E123" t="n">
-        <v>9.403</v>
+        <v>9.4</v>
       </c>
       <c r="F123" t="n">
-        <v>47.1657</v>
+        <v>5262.8227</v>
       </c>
       <c r="G123" t="n">
-        <v>-497725.8555034045</v>
+        <v>-105568.0211034046</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4864,22 +4830,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>9.356</v>
+        <v>9.227</v>
       </c>
       <c r="C124" t="n">
-        <v>9.356</v>
+        <v>9.227</v>
       </c>
       <c r="D124" t="n">
-        <v>9.356</v>
+        <v>9.227</v>
       </c>
       <c r="E124" t="n">
-        <v>9.356</v>
+        <v>9.227</v>
       </c>
       <c r="F124" t="n">
-        <v>20062.4446</v>
+        <v>8500</v>
       </c>
       <c r="G124" t="n">
-        <v>-517788.3001034045</v>
+        <v>-114068.0211034046</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4900,22 +4866,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>9.359999999999999</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="C125" t="n">
-        <v>9.359999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="D125" t="n">
-        <v>9.359999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="E125" t="n">
-        <v>9.359999999999999</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="F125" t="n">
-        <v>10601.081</v>
+        <v>27278.2199</v>
       </c>
       <c r="G125" t="n">
-        <v>-507187.2191034045</v>
+        <v>-86789.80120340457</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4936,40 +4902,2894 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>9.497</v>
+        <v>9.227</v>
       </c>
       <c r="C126" t="n">
-        <v>9.497</v>
+        <v>9.227</v>
       </c>
       <c r="D126" t="n">
-        <v>9.497</v>
+        <v>9.227</v>
       </c>
       <c r="E126" t="n">
-        <v>9.497</v>
+        <v>9.227</v>
       </c>
       <c r="F126" t="n">
-        <v>2472.6538</v>
+        <v>2000</v>
       </c>
       <c r="G126" t="n">
-        <v>-504714.5653034045</v>
+        <v>-88789.80120340457</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="K126" t="n">
-        <v>9.359999999999999</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
       <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>9.250999999999999</v>
+      </c>
+      <c r="C127" t="n">
+        <v>9.250999999999999</v>
+      </c>
+      <c r="D127" t="n">
+        <v>9.250999999999999</v>
+      </c>
+      <c r="E127" t="n">
+        <v>9.227</v>
+      </c>
+      <c r="F127" t="n">
+        <v>166015.9533</v>
+      </c>
+      <c r="G127" t="n">
+        <v>77226.15209659543</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>9.227</v>
+      </c>
+      <c r="C128" t="n">
+        <v>9.226000000000001</v>
+      </c>
+      <c r="D128" t="n">
+        <v>9.227</v>
+      </c>
+      <c r="E128" t="n">
+        <v>9.226000000000001</v>
+      </c>
+      <c r="F128" t="n">
+        <v>80766.1548</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-3540.002703404578</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="C129" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="D129" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="E129" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1243</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-2297.002703404578</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="C130" t="n">
+        <v>9.237</v>
+      </c>
+      <c r="D130" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="E130" t="n">
+        <v>9.237</v>
+      </c>
+      <c r="F130" t="n">
+        <v>13032</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-15329.00270340458</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="C131" t="n">
+        <v>9.348000000000001</v>
+      </c>
+      <c r="D131" t="n">
+        <v>9.348000000000001</v>
+      </c>
+      <c r="E131" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="F131" t="n">
+        <v>18025</v>
+      </c>
+      <c r="G131" t="n">
+        <v>2695.997296595422</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>9.348000000000001</v>
+      </c>
+      <c r="C132" t="n">
+        <v>9.348000000000001</v>
+      </c>
+      <c r="D132" t="n">
+        <v>9.348000000000001</v>
+      </c>
+      <c r="E132" t="n">
+        <v>9.348000000000001</v>
+      </c>
+      <c r="F132" t="n">
+        <v>5348.7377</v>
+      </c>
+      <c r="G132" t="n">
+        <v>2695.997296595422</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>9.348000000000001</v>
+      </c>
+      <c r="C133" t="n">
+        <v>9.348000000000001</v>
+      </c>
+      <c r="D133" t="n">
+        <v>9.348000000000001</v>
+      </c>
+      <c r="E133" t="n">
+        <v>9.348000000000001</v>
+      </c>
+      <c r="F133" t="n">
+        <v>75310.103</v>
+      </c>
+      <c r="G133" t="n">
+        <v>2695.997296595422</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>9.260999999999999</v>
+      </c>
+      <c r="C134" t="n">
+        <v>9.226000000000001</v>
+      </c>
+      <c r="D134" t="n">
+        <v>9.260999999999999</v>
+      </c>
+      <c r="E134" t="n">
+        <v>9.226000000000001</v>
+      </c>
+      <c r="F134" t="n">
+        <v>153787.3776</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-151091.3803034046</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>9.329000000000001</v>
+      </c>
+      <c r="C135" t="n">
+        <v>9.327999999999999</v>
+      </c>
+      <c r="D135" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="E135" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="F135" t="n">
+        <v>89376</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-61715.38030340458</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>9.327999999999999</v>
+      </c>
+      <c r="C136" t="n">
+        <v>9.327999999999999</v>
+      </c>
+      <c r="D136" t="n">
+        <v>9.327999999999999</v>
+      </c>
+      <c r="E136" t="n">
+        <v>9.327999999999999</v>
+      </c>
+      <c r="F136" t="n">
+        <v>13298</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-61715.38030340458</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>9.398999999999999</v>
+      </c>
+      <c r="C137" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="D137" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="E137" t="n">
+        <v>9.398999999999999</v>
+      </c>
+      <c r="F137" t="n">
+        <v>15689</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-46026.38030340458</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="C138" t="n">
+        <v>9.557</v>
+      </c>
+      <c r="D138" t="n">
+        <v>9.557</v>
+      </c>
+      <c r="E138" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1597</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-44429.38030340458</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>9.353999999999999</v>
+      </c>
+      <c r="C139" t="n">
+        <v>9.353999999999999</v>
+      </c>
+      <c r="D139" t="n">
+        <v>9.353999999999999</v>
+      </c>
+      <c r="E139" t="n">
+        <v>9.353999999999999</v>
+      </c>
+      <c r="F139" t="n">
+        <v>129387.7176</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-173817.0979034046</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>9.381</v>
+      </c>
+      <c r="C140" t="n">
+        <v>9.353999999999999</v>
+      </c>
+      <c r="D140" t="n">
+        <v>9.381</v>
+      </c>
+      <c r="E140" t="n">
+        <v>9.353999999999999</v>
+      </c>
+      <c r="F140" t="n">
+        <v>60048.8107</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-173817.0979034046</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="C141" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="D141" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="E141" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="F141" t="n">
+        <v>800</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-173017.0979034046</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>9.571</v>
+      </c>
+      <c r="C142" t="n">
+        <v>9.571</v>
+      </c>
+      <c r="D142" t="n">
+        <v>9.571</v>
+      </c>
+      <c r="E142" t="n">
+        <v>9.571</v>
+      </c>
+      <c r="F142" t="n">
+        <v>64.1121</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-172952.9858034046</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>9.516999999999999</v>
+      </c>
+      <c r="C143" t="n">
+        <v>9.516999999999999</v>
+      </c>
+      <c r="D143" t="n">
+        <v>9.516999999999999</v>
+      </c>
+      <c r="E143" t="n">
+        <v>9.516999999999999</v>
+      </c>
+      <c r="F143" t="n">
+        <v>5789</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-178741.9858034046</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>9.398999999999999</v>
+      </c>
+      <c r="C144" t="n">
+        <v>9.388</v>
+      </c>
+      <c r="D144" t="n">
+        <v>9.398999999999999</v>
+      </c>
+      <c r="E144" t="n">
+        <v>9.353999999999999</v>
+      </c>
+      <c r="F144" t="n">
+        <v>74664.5131</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-253406.4989034046</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>9.388</v>
+      </c>
+      <c r="C145" t="n">
+        <v>9.478999999999999</v>
+      </c>
+      <c r="D145" t="n">
+        <v>9.478999999999999</v>
+      </c>
+      <c r="E145" t="n">
+        <v>9.388</v>
+      </c>
+      <c r="F145" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-243406.4989034046</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>9.539</v>
+      </c>
+      <c r="C146" t="n">
+        <v>9.539</v>
+      </c>
+      <c r="D146" t="n">
+        <v>9.539</v>
+      </c>
+      <c r="E146" t="n">
+        <v>9.539</v>
+      </c>
+      <c r="F146" t="n">
+        <v>102.2269</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-243304.2720034046</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="C147" t="n">
+        <v>9.471</v>
+      </c>
+      <c r="D147" t="n">
+        <v>9.545999999999999</v>
+      </c>
+      <c r="E147" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="F147" t="n">
+        <v>46906.1453</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-290210.4173034045</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>9.355</v>
+      </c>
+      <c r="C148" t="n">
+        <v>9.355</v>
+      </c>
+      <c r="D148" t="n">
+        <v>9.355</v>
+      </c>
+      <c r="E148" t="n">
+        <v>9.355</v>
+      </c>
+      <c r="F148" t="n">
+        <v>59067.4799</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-349277.8972034045</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>9.477</v>
+      </c>
+      <c r="C149" t="n">
+        <v>9.477</v>
+      </c>
+      <c r="D149" t="n">
+        <v>9.477</v>
+      </c>
+      <c r="E149" t="n">
+        <v>9.477</v>
+      </c>
+      <c r="F149" t="n">
+        <v>108</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-349169.8972034045</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>9.355</v>
+      </c>
+      <c r="C150" t="n">
+        <v>9.355</v>
+      </c>
+      <c r="D150" t="n">
+        <v>9.355</v>
+      </c>
+      <c r="E150" t="n">
+        <v>9.355</v>
+      </c>
+      <c r="F150" t="n">
+        <v>108</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-349277.8972034045</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>9.475</v>
+      </c>
+      <c r="C151" t="n">
+        <v>9.475</v>
+      </c>
+      <c r="D151" t="n">
+        <v>9.475</v>
+      </c>
+      <c r="E151" t="n">
+        <v>9.475</v>
+      </c>
+      <c r="F151" t="n">
+        <v>109.2177</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-349168.6795034045</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>9.407999999999999</v>
+      </c>
+      <c r="C152" t="n">
+        <v>9.407999999999999</v>
+      </c>
+      <c r="D152" t="n">
+        <v>9.407999999999999</v>
+      </c>
+      <c r="E152" t="n">
+        <v>9.407999999999999</v>
+      </c>
+      <c r="F152" t="n">
+        <v>6351</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-355519.6795034045</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="C153" t="n">
+        <v>9.398999999999999</v>
+      </c>
+      <c r="D153" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="E153" t="n">
+        <v>9.398999999999999</v>
+      </c>
+      <c r="F153" t="n">
+        <v>29152.9999</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-384672.6794034045</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="C154" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="D154" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="E154" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-382672.6794034045</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="C155" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="D155" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="E155" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="F155" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-388672.6794034045</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="K155" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="C156" t="n">
+        <v>9.488</v>
+      </c>
+      <c r="D156" t="n">
+        <v>9.488</v>
+      </c>
+      <c r="E156" t="n">
+        <v>9.467000000000001</v>
+      </c>
+      <c r="F156" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-380672.6794034045</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="C157" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="D157" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="E157" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="F157" t="n">
+        <v>37040.1478</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-417712.8272034045</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>9.488</v>
+      </c>
+      <c r="K157" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="C158" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="D158" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="E158" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="F158" t="n">
+        <v>21588</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-396124.8272034045</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="C159" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="D159" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="E159" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="F159" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-396124.8272034045</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="C160" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="D160" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="E160" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="F160" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-396124.8272034045</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="C161" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="D161" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="E161" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-396124.8272034045</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="C162" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="D162" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="E162" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-396124.8272034045</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="C163" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="D163" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="E163" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="F163" t="n">
+        <v>165</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-396124.8272034045</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="C164" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="D164" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="E164" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="F164" t="n">
+        <v>165</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-396124.8272034045</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="C165" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="D165" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="E165" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="F165" t="n">
+        <v>600</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-396124.8272034045</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="C166" t="n">
+        <v>9.539</v>
+      </c>
+      <c r="D166" t="n">
+        <v>9.539</v>
+      </c>
+      <c r="E166" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="F166" t="n">
+        <v>100</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-396024.8272034045</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="C167" t="n">
+        <v>9.535</v>
+      </c>
+      <c r="D167" t="n">
+        <v>9.535</v>
+      </c>
+      <c r="E167" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="F167" t="n">
+        <v>10309.6884</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-406334.5156034045</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="C168" t="n">
+        <v>9.481</v>
+      </c>
+      <c r="D168" t="n">
+        <v>9.526999999999999</v>
+      </c>
+      <c r="E168" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="F168" t="n">
+        <v>15886.236</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-422220.7516034045</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>9.468</v>
+      </c>
+      <c r="C169" t="n">
+        <v>9.526999999999999</v>
+      </c>
+      <c r="D169" t="n">
+        <v>9.526999999999999</v>
+      </c>
+      <c r="E169" t="n">
+        <v>9.468</v>
+      </c>
+      <c r="F169" t="n">
+        <v>261.6698</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-421959.0818034045</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>9.526999999999999</v>
+      </c>
+      <c r="C170" t="n">
+        <v>9.526999999999999</v>
+      </c>
+      <c r="D170" t="n">
+        <v>9.526999999999999</v>
+      </c>
+      <c r="E170" t="n">
+        <v>9.526999999999999</v>
+      </c>
+      <c r="F170" t="n">
+        <v>165</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-421959.0818034045</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>9.481</v>
+      </c>
+      <c r="C171" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="D171" t="n">
+        <v>9.481</v>
+      </c>
+      <c r="E171" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="F171" t="n">
+        <v>15674</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-437633.0818034045</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="C172" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="D172" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="E172" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="F172" t="n">
+        <v>7001.651</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-437633.0818034045</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>9.433</v>
+      </c>
+      <c r="C173" t="n">
+        <v>9.433</v>
+      </c>
+      <c r="D173" t="n">
+        <v>9.433</v>
+      </c>
+      <c r="E173" t="n">
+        <v>9.433</v>
+      </c>
+      <c r="F173" t="n">
+        <v>72674</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-510307.0818034045</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="K173" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>9.433</v>
+      </c>
+      <c r="C174" t="n">
+        <v>9.432</v>
+      </c>
+      <c r="D174" t="n">
+        <v>9.433</v>
+      </c>
+      <c r="E174" t="n">
+        <v>9.432</v>
+      </c>
+      <c r="F174" t="n">
+        <v>838.3200000000001</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-511145.4018034045</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>9.433</v>
+      </c>
+      <c r="K174" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="C175" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="D175" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="E175" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="F175" t="n">
+        <v>822.0015</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-511967.4033034045</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>9.432</v>
+      </c>
+      <c r="K175" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>9.523</v>
+      </c>
+      <c r="C176" t="n">
+        <v>9.523999999999999</v>
+      </c>
+      <c r="D176" t="n">
+        <v>9.523999999999999</v>
+      </c>
+      <c r="E176" t="n">
+        <v>9.523</v>
+      </c>
+      <c r="F176" t="n">
+        <v>7781.834</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-504185.5693034045</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="K176" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="C177" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="D177" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="E177" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1868</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-502317.5693034045</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>9.523999999999999</v>
+      </c>
+      <c r="K177" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>9.545</v>
+      </c>
+      <c r="C178" t="n">
+        <v>9.545</v>
+      </c>
+      <c r="D178" t="n">
+        <v>9.545</v>
+      </c>
+      <c r="E178" t="n">
+        <v>9.545</v>
+      </c>
+      <c r="F178" t="n">
+        <v>2567.0774</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-499750.4919034045</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>9.545999999999999</v>
+      </c>
+      <c r="C179" t="n">
+        <v>9.545</v>
+      </c>
+      <c r="D179" t="n">
+        <v>9.545999999999999</v>
+      </c>
+      <c r="E179" t="n">
+        <v>9.545</v>
+      </c>
+      <c r="F179" t="n">
+        <v>47238.9371</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-499750.4919034045</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>9.545</v>
+      </c>
+      <c r="K179" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>9.545999999999999</v>
+      </c>
+      <c r="C180" t="n">
+        <v>9.545999999999999</v>
+      </c>
+      <c r="D180" t="n">
+        <v>9.545999999999999</v>
+      </c>
+      <c r="E180" t="n">
+        <v>9.545999999999999</v>
+      </c>
+      <c r="F180" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-484750.4919034045</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>9.545</v>
+      </c>
+      <c r="K180" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="C181" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="D181" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="E181" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="F181" t="n">
+        <v>25645.5252</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-510396.0171034045</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>9.545999999999999</v>
+      </c>
+      <c r="K181" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>9.433</v>
+      </c>
+      <c r="C182" t="n">
+        <v>9.422000000000001</v>
+      </c>
+      <c r="D182" t="n">
+        <v>9.433</v>
+      </c>
+      <c r="E182" t="n">
+        <v>9.422000000000001</v>
+      </c>
+      <c r="F182" t="n">
+        <v>15674</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-526070.0171034045</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="K182" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>9.422000000000001</v>
+      </c>
+      <c r="C183" t="n">
+        <v>9.422000000000001</v>
+      </c>
+      <c r="D183" t="n">
+        <v>9.422000000000001</v>
+      </c>
+      <c r="E183" t="n">
+        <v>9.422000000000001</v>
+      </c>
+      <c r="F183" t="n">
+        <v>15674</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-526070.0171034045</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>9.422000000000001</v>
+      </c>
+      <c r="K183" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>9.449</v>
+      </c>
+      <c r="C184" t="n">
+        <v>9.449</v>
+      </c>
+      <c r="D184" t="n">
+        <v>9.449</v>
+      </c>
+      <c r="E184" t="n">
+        <v>9.449</v>
+      </c>
+      <c r="F184" t="n">
+        <v>130654.7648</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-395415.2523034045</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>9.422000000000001</v>
+      </c>
+      <c r="K184" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>9.449</v>
+      </c>
+      <c r="C185" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="D185" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E185" t="n">
+        <v>9.449</v>
+      </c>
+      <c r="F185" t="n">
+        <v>63365</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-332050.2523034045</v>
+      </c>
+      <c r="H185" t="n">
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>9.449</v>
+      </c>
+      <c r="K185" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C186" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="D186" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E186" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F186" t="n">
+        <v>54.0998</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-332050.2523034045</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K186" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C187" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="D187" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E187" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F187" t="n">
+        <v>19890.9002</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-332050.2523034045</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K187" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C188" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="D188" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E188" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F188" t="n">
+        <v>17400.55</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-332050.2523034045</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K188" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>9.547000000000001</v>
+      </c>
+      <c r="C189" t="n">
+        <v>9.547000000000001</v>
+      </c>
+      <c r="D189" t="n">
+        <v>9.547000000000001</v>
+      </c>
+      <c r="E189" t="n">
+        <v>9.547000000000001</v>
+      </c>
+      <c r="F189" t="n">
+        <v>66.93680000000001</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-331983.3155034045</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K189" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="C190" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="D190" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="E190" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="F190" t="n">
+        <v>6060</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-338043.3155034045</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="C191" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="D191" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="E191" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2200</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-338043.3155034045</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="K191" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>9.423</v>
+      </c>
+      <c r="C192" t="n">
+        <v>9.422000000000001</v>
+      </c>
+      <c r="D192" t="n">
+        <v>9.423</v>
+      </c>
+      <c r="E192" t="n">
+        <v>9.422000000000001</v>
+      </c>
+      <c r="F192" t="n">
+        <v>30379.53</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-368422.8455034045</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>9.422000000000001</v>
+      </c>
+      <c r="C193" t="n">
+        <v>9.403</v>
+      </c>
+      <c r="D193" t="n">
+        <v>9.422000000000001</v>
+      </c>
+      <c r="E193" t="n">
+        <v>9.403</v>
+      </c>
+      <c r="F193" t="n">
+        <v>129303.01</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-497725.8555034045</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>9.422000000000001</v>
+      </c>
+      <c r="K193" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>9.403</v>
+      </c>
+      <c r="C194" t="n">
+        <v>9.403</v>
+      </c>
+      <c r="D194" t="n">
+        <v>9.403</v>
+      </c>
+      <c r="E194" t="n">
+        <v>9.403</v>
+      </c>
+      <c r="F194" t="n">
+        <v>47.1657</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-497725.8555034045</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>9.403</v>
+      </c>
+      <c r="K194" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>9.356</v>
+      </c>
+      <c r="C195" t="n">
+        <v>9.356</v>
+      </c>
+      <c r="D195" t="n">
+        <v>9.356</v>
+      </c>
+      <c r="E195" t="n">
+        <v>9.356</v>
+      </c>
+      <c r="F195" t="n">
+        <v>20062.4446</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-517788.3001034045</v>
+      </c>
+      <c r="H195" t="n">
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>9.403</v>
+      </c>
+      <c r="K195" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="C196" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="D196" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="E196" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="F196" t="n">
+        <v>10601.081</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-507187.2191034045</v>
+      </c>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>9.356</v>
+      </c>
+      <c r="K196" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>9.497</v>
+      </c>
+      <c r="C197" t="n">
+        <v>9.497</v>
+      </c>
+      <c r="D197" t="n">
+        <v>9.497</v>
+      </c>
+      <c r="E197" t="n">
+        <v>9.497</v>
+      </c>
+      <c r="F197" t="n">
+        <v>2472.6538</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-504714.5653034045</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="K197" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-12 BackTest OGO.xlsx
+++ b/BackTest/2020-01-12 BackTest OGO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N197"/>
+  <dimension ref="A1:M197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>1068543.370238404</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>1034075.176738404</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>1073025.176738404</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>1095241.560138404</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2796,18 +2596,15 @@
         <v>1006839.798438404</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3228,18 +2992,15 @@
         <v>1108012.148238404</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3408,18 +3157,15 @@
         <v>1139836.807838404</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3444,18 +3190,15 @@
         <v>1139784.807838404</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3696,18 +3421,15 @@
         <v>1182462.522438404</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5964,22 +5500,15 @@
         <v>-388672.6794034045</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="K155" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6006,1792 +5535,1538 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="C157" t="n">
         <v>9.470000000000001</v>
       </c>
-      <c r="L156" t="inlineStr">
+      <c r="D157" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="E157" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="F157" t="n">
+        <v>37040.1478</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-417712.8272034045</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="C158" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="D158" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="E158" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="F158" t="n">
+        <v>21588</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-396124.8272034045</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="C159" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="D159" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="E159" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="F159" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-396124.8272034045</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="C160" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="D160" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="E160" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="F160" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-396124.8272034045</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="C161" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="D161" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="E161" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-396124.8272034045</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="C162" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="D162" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="E162" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-396124.8272034045</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="C163" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="D163" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="E163" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="F163" t="n">
+        <v>165</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-396124.8272034045</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="C164" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="D164" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="E164" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="F164" t="n">
+        <v>165</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-396124.8272034045</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="C165" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="D165" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="E165" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="F165" t="n">
+        <v>600</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-396124.8272034045</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="C166" t="n">
+        <v>9.539</v>
+      </c>
+      <c r="D166" t="n">
+        <v>9.539</v>
+      </c>
+      <c r="E166" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="F166" t="n">
+        <v>100</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-396024.8272034045</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="C167" t="n">
+        <v>9.535</v>
+      </c>
+      <c r="D167" t="n">
+        <v>9.535</v>
+      </c>
+      <c r="E167" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="F167" t="n">
+        <v>10309.6884</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-406334.5156034045</v>
+      </c>
+      <c r="H167" t="n">
+        <v>2</v>
+      </c>
+      <c r="I167" t="n">
+        <v>9.539</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="C157" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="D157" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="E157" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="F157" t="n">
-        <v>37040.1478</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-417712.8272034045</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="n">
-        <v>9.488</v>
-      </c>
-      <c r="K157" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="L157" t="inlineStr">
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="C168" t="n">
+        <v>9.481</v>
+      </c>
+      <c r="D168" t="n">
+        <v>9.526999999999999</v>
+      </c>
+      <c r="E168" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="F168" t="n">
+        <v>15886.236</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-422220.7516034045</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="C158" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="D158" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="E158" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="F158" t="n">
-        <v>21588</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-396124.8272034045</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="L158" t="inlineStr">
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>9.468</v>
+      </c>
+      <c r="C169" t="n">
+        <v>9.526999999999999</v>
+      </c>
+      <c r="D169" t="n">
+        <v>9.526999999999999</v>
+      </c>
+      <c r="E169" t="n">
+        <v>9.468</v>
+      </c>
+      <c r="F169" t="n">
+        <v>261.6698</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-421959.0818034045</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="C159" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="D159" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="E159" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="F159" t="n">
-        <v>6000</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-396124.8272034045</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="L159" t="inlineStr">
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>9.526999999999999</v>
+      </c>
+      <c r="C170" t="n">
+        <v>9.526999999999999</v>
+      </c>
+      <c r="D170" t="n">
+        <v>9.526999999999999</v>
+      </c>
+      <c r="E170" t="n">
+        <v>9.526999999999999</v>
+      </c>
+      <c r="F170" t="n">
+        <v>165</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-421959.0818034045</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="C160" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="D160" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="E160" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="F160" t="n">
-        <v>6000</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-396124.8272034045</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="L160" t="inlineStr">
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>9.481</v>
+      </c>
+      <c r="C171" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="D171" t="n">
+        <v>9.481</v>
+      </c>
+      <c r="E171" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="F171" t="n">
+        <v>15674</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-437633.0818034045</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="C161" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="D161" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="E161" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="F161" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-396124.8272034045</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="L161" t="inlineStr">
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="C172" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="D172" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="E172" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="F172" t="n">
+        <v>7001.651</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-437633.0818034045</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="C162" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="D162" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="E162" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="F162" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-396124.8272034045</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="L162" t="inlineStr">
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>9.433</v>
+      </c>
+      <c r="C173" t="n">
+        <v>9.433</v>
+      </c>
+      <c r="D173" t="n">
+        <v>9.433</v>
+      </c>
+      <c r="E173" t="n">
+        <v>9.433</v>
+      </c>
+      <c r="F173" t="n">
+        <v>72674</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-510307.0818034045</v>
+      </c>
+      <c r="H173" t="n">
+        <v>2</v>
+      </c>
+      <c r="I173" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="C163" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="D163" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="E163" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="F163" t="n">
-        <v>165</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-396124.8272034045</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="L163" t="inlineStr">
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>9.433</v>
+      </c>
+      <c r="C174" t="n">
+        <v>9.432</v>
+      </c>
+      <c r="D174" t="n">
+        <v>9.433</v>
+      </c>
+      <c r="E174" t="n">
+        <v>9.432</v>
+      </c>
+      <c r="F174" t="n">
+        <v>838.3200000000001</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-511145.4018034045</v>
+      </c>
+      <c r="H174" t="n">
+        <v>2</v>
+      </c>
+      <c r="I174" t="n">
+        <v>9.433</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="C164" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="D164" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="E164" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="F164" t="n">
-        <v>165</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-396124.8272034045</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="L164" t="inlineStr">
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="C175" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="D175" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="E175" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="F175" t="n">
+        <v>822.0015</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-511967.4033034045</v>
+      </c>
+      <c r="H175" t="n">
+        <v>2</v>
+      </c>
+      <c r="I175" t="n">
+        <v>9.432</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="C165" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="D165" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="E165" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="F165" t="n">
-        <v>600</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-396124.8272034045</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="L165" t="inlineStr">
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>9.523</v>
+      </c>
+      <c r="C176" t="n">
+        <v>9.523999999999999</v>
+      </c>
+      <c r="D176" t="n">
+        <v>9.523999999999999</v>
+      </c>
+      <c r="E176" t="n">
+        <v>9.523</v>
+      </c>
+      <c r="F176" t="n">
+        <v>7781.834</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-504185.5693034045</v>
+      </c>
+      <c r="H176" t="n">
+        <v>2</v>
+      </c>
+      <c r="I176" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="C166" t="n">
-        <v>9.539</v>
-      </c>
-      <c r="D166" t="n">
-        <v>9.539</v>
-      </c>
-      <c r="E166" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="F166" t="n">
-        <v>100</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-396024.8272034045</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="L166" t="inlineStr">
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="C177" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="D177" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="E177" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1868</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-502317.5693034045</v>
+      </c>
+      <c r="H177" t="n">
+        <v>2</v>
+      </c>
+      <c r="I177" t="n">
+        <v>9.523999999999999</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="C167" t="n">
-        <v>9.535</v>
-      </c>
-      <c r="D167" t="n">
-        <v>9.535</v>
-      </c>
-      <c r="E167" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="F167" t="n">
-        <v>10309.6884</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-406334.5156034045</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="L167" t="inlineStr">
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>9.545</v>
+      </c>
+      <c r="C178" t="n">
+        <v>9.545</v>
+      </c>
+      <c r="D178" t="n">
+        <v>9.545</v>
+      </c>
+      <c r="E178" t="n">
+        <v>9.545</v>
+      </c>
+      <c r="F178" t="n">
+        <v>2567.0774</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-499750.4919034045</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="C168" t="n">
-        <v>9.481</v>
-      </c>
-      <c r="D168" t="n">
-        <v>9.526999999999999</v>
-      </c>
-      <c r="E168" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="F168" t="n">
-        <v>15886.236</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-422220.7516034045</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="L168" t="inlineStr">
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>9.545999999999999</v>
+      </c>
+      <c r="C179" t="n">
+        <v>9.545</v>
+      </c>
+      <c r="D179" t="n">
+        <v>9.545999999999999</v>
+      </c>
+      <c r="E179" t="n">
+        <v>9.545</v>
+      </c>
+      <c r="F179" t="n">
+        <v>47238.9371</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-499750.4919034045</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>9.468</v>
-      </c>
-      <c r="C169" t="n">
-        <v>9.526999999999999</v>
-      </c>
-      <c r="D169" t="n">
-        <v>9.526999999999999</v>
-      </c>
-      <c r="E169" t="n">
-        <v>9.468</v>
-      </c>
-      <c r="F169" t="n">
-        <v>261.6698</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-421959.0818034045</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="L169" t="inlineStr">
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>9.545999999999999</v>
+      </c>
+      <c r="C180" t="n">
+        <v>9.545999999999999</v>
+      </c>
+      <c r="D180" t="n">
+        <v>9.545999999999999</v>
+      </c>
+      <c r="E180" t="n">
+        <v>9.545999999999999</v>
+      </c>
+      <c r="F180" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-484750.4919034045</v>
+      </c>
+      <c r="H180" t="n">
+        <v>2</v>
+      </c>
+      <c r="I180" t="n">
+        <v>9.545</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>9.526999999999999</v>
-      </c>
-      <c r="C170" t="n">
-        <v>9.526999999999999</v>
-      </c>
-      <c r="D170" t="n">
-        <v>9.526999999999999</v>
-      </c>
-      <c r="E170" t="n">
-        <v>9.526999999999999</v>
-      </c>
-      <c r="F170" t="n">
-        <v>165</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-421959.0818034045</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="L170" t="inlineStr">
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="C181" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="D181" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="E181" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="F181" t="n">
+        <v>25645.5252</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-510396.0171034045</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>9.481</v>
-      </c>
-      <c r="C171" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="D171" t="n">
-        <v>9.481</v>
-      </c>
-      <c r="E171" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="F171" t="n">
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>9.433</v>
+      </c>
+      <c r="C182" t="n">
+        <v>9.422000000000001</v>
+      </c>
+      <c r="D182" t="n">
+        <v>9.433</v>
+      </c>
+      <c r="E182" t="n">
+        <v>9.422000000000001</v>
+      </c>
+      <c r="F182" t="n">
         <v>15674</v>
       </c>
-      <c r="G171" t="n">
-        <v>-437633.0818034045</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="L171" t="inlineStr">
+      <c r="G182" t="n">
+        <v>-526070.0171034045</v>
+      </c>
+      <c r="H182" t="n">
+        <v>2</v>
+      </c>
+      <c r="I182" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="C172" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="D172" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="E172" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="F172" t="n">
-        <v>7001.651</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-437633.0818034045</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="L172" t="inlineStr">
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>9.422000000000001</v>
+      </c>
+      <c r="C183" t="n">
+        <v>9.422000000000001</v>
+      </c>
+      <c r="D183" t="n">
+        <v>9.422000000000001</v>
+      </c>
+      <c r="E183" t="n">
+        <v>9.422000000000001</v>
+      </c>
+      <c r="F183" t="n">
+        <v>15674</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-526070.0171034045</v>
+      </c>
+      <c r="H183" t="n">
+        <v>2</v>
+      </c>
+      <c r="I183" t="n">
+        <v>9.422000000000001</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>9.433</v>
-      </c>
-      <c r="C173" t="n">
-        <v>9.433</v>
-      </c>
-      <c r="D173" t="n">
-        <v>9.433</v>
-      </c>
-      <c r="E173" t="n">
-        <v>9.433</v>
-      </c>
-      <c r="F173" t="n">
-        <v>72674</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-510307.0818034045</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K173" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="L173" t="inlineStr">
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>9.449</v>
+      </c>
+      <c r="C184" t="n">
+        <v>9.449</v>
+      </c>
+      <c r="D184" t="n">
+        <v>9.449</v>
+      </c>
+      <c r="E184" t="n">
+        <v>9.449</v>
+      </c>
+      <c r="F184" t="n">
+        <v>130654.7648</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-395415.2523034045</v>
+      </c>
+      <c r="H184" t="n">
+        <v>2</v>
+      </c>
+      <c r="I184" t="n">
+        <v>9.422000000000001</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>9.433</v>
-      </c>
-      <c r="C174" t="n">
-        <v>9.432</v>
-      </c>
-      <c r="D174" t="n">
-        <v>9.433</v>
-      </c>
-      <c r="E174" t="n">
-        <v>9.432</v>
-      </c>
-      <c r="F174" t="n">
-        <v>838.3200000000001</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-511145.4018034045</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="n">
-        <v>9.433</v>
-      </c>
-      <c r="K174" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="L174" t="inlineStr">
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>9.449</v>
+      </c>
+      <c r="C185" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="D185" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E185" t="n">
+        <v>9.449</v>
+      </c>
+      <c r="F185" t="n">
+        <v>63365</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-332050.2523034045</v>
+      </c>
+      <c r="H185" t="n">
+        <v>2</v>
+      </c>
+      <c r="I185" t="n">
+        <v>9.449</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="C175" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="D175" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="E175" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="F175" t="n">
-        <v>822.0015</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-511967.4033034045</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="n">
-        <v>9.432</v>
-      </c>
-      <c r="K175" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="L175" t="inlineStr">
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C186" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="D186" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E186" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F186" t="n">
+        <v>54.0998</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-332050.2523034045</v>
+      </c>
+      <c r="H186" t="n">
+        <v>2</v>
+      </c>
+      <c r="I186" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>9.523</v>
-      </c>
-      <c r="C176" t="n">
-        <v>9.523999999999999</v>
-      </c>
-      <c r="D176" t="n">
-        <v>9.523999999999999</v>
-      </c>
-      <c r="E176" t="n">
-        <v>9.523</v>
-      </c>
-      <c r="F176" t="n">
-        <v>7781.834</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-504185.5693034045</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="K176" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="L176" t="inlineStr">
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C187" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="D187" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E187" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F187" t="n">
+        <v>19890.9002</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-332050.2523034045</v>
+      </c>
+      <c r="H187" t="n">
+        <v>2</v>
+      </c>
+      <c r="I187" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="C177" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="D177" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="E177" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="F177" t="n">
-        <v>1868</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-502317.5693034045</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="n">
-        <v>9.523999999999999</v>
-      </c>
-      <c r="K177" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="L177" t="inlineStr">
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C188" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="D188" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E188" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F188" t="n">
+        <v>17400.55</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-332050.2523034045</v>
+      </c>
+      <c r="H188" t="n">
+        <v>2</v>
+      </c>
+      <c r="I188" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>9.545</v>
-      </c>
-      <c r="C178" t="n">
-        <v>9.545</v>
-      </c>
-      <c r="D178" t="n">
-        <v>9.545</v>
-      </c>
-      <c r="E178" t="n">
-        <v>9.545</v>
-      </c>
-      <c r="F178" t="n">
-        <v>2567.0774</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-499750.4919034045</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="L178" t="inlineStr">
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>9.547000000000001</v>
+      </c>
+      <c r="C189" t="n">
+        <v>9.547000000000001</v>
+      </c>
+      <c r="D189" t="n">
+        <v>9.547000000000001</v>
+      </c>
+      <c r="E189" t="n">
+        <v>9.547000000000001</v>
+      </c>
+      <c r="F189" t="n">
+        <v>66.93680000000001</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-331983.3155034045</v>
+      </c>
+      <c r="H189" t="n">
+        <v>2</v>
+      </c>
+      <c r="I189" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>9.545999999999999</v>
-      </c>
-      <c r="C179" t="n">
-        <v>9.545</v>
-      </c>
-      <c r="D179" t="n">
-        <v>9.545999999999999</v>
-      </c>
-      <c r="E179" t="n">
-        <v>9.545</v>
-      </c>
-      <c r="F179" t="n">
-        <v>47238.9371</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-499750.4919034045</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="n">
-        <v>9.545</v>
-      </c>
-      <c r="K179" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="L179" t="inlineStr">
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="C190" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="D190" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="E190" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="F190" t="n">
+        <v>6060</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-338043.3155034045</v>
+      </c>
+      <c r="H190" t="n">
+        <v>2</v>
+      </c>
+      <c r="I190" t="n">
+        <v>9.547000000000001</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>9.545999999999999</v>
-      </c>
-      <c r="C180" t="n">
-        <v>9.545999999999999</v>
-      </c>
-      <c r="D180" t="n">
-        <v>9.545999999999999</v>
-      </c>
-      <c r="E180" t="n">
-        <v>9.545999999999999</v>
-      </c>
-      <c r="F180" t="n">
-        <v>15000</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-484750.4919034045</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="n">
-        <v>9.545</v>
-      </c>
-      <c r="K180" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="L180" t="inlineStr">
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="C191" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="D191" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="E191" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2200</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-338043.3155034045</v>
+      </c>
+      <c r="H191" t="n">
+        <v>2</v>
+      </c>
+      <c r="I191" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>9.423</v>
+      </c>
+      <c r="C192" t="n">
+        <v>9.422000000000001</v>
+      </c>
+      <c r="D192" t="n">
+        <v>9.423</v>
+      </c>
+      <c r="E192" t="n">
+        <v>9.422000000000001</v>
+      </c>
+      <c r="F192" t="n">
+        <v>30379.53</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-368422.8455034045</v>
+      </c>
+      <c r="H192" t="n">
+        <v>2</v>
+      </c>
+      <c r="I192" t="n">
         <v>9.449999999999999</v>
       </c>
-      <c r="C181" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="D181" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="E181" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="F181" t="n">
-        <v>25645.5252</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-510396.0171034045</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="n">
-        <v>9.545999999999999</v>
-      </c>
-      <c r="K181" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="L181" t="inlineStr">
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>9.433</v>
-      </c>
-      <c r="C182" t="n">
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
         <v>9.422000000000001</v>
       </c>
-      <c r="D182" t="n">
-        <v>9.433</v>
-      </c>
-      <c r="E182" t="n">
+      <c r="C193" t="n">
+        <v>9.403</v>
+      </c>
+      <c r="D193" t="n">
         <v>9.422000000000001</v>
       </c>
-      <c r="F182" t="n">
-        <v>15674</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-526070.0171034045</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="K182" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="L182" t="inlineStr">
+      <c r="E193" t="n">
+        <v>9.403</v>
+      </c>
+      <c r="F193" t="n">
+        <v>129303.01</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-497725.8555034045</v>
+      </c>
+      <c r="H193" t="n">
+        <v>2</v>
+      </c>
+      <c r="I193" t="n">
+        <v>9.422000000000001</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>9.422000000000001</v>
-      </c>
-      <c r="C183" t="n">
-        <v>9.422000000000001</v>
-      </c>
-      <c r="D183" t="n">
-        <v>9.422000000000001</v>
-      </c>
-      <c r="E183" t="n">
-        <v>9.422000000000001</v>
-      </c>
-      <c r="F183" t="n">
-        <v>15674</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-526070.0171034045</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>9.422000000000001</v>
-      </c>
-      <c r="K183" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="L183" t="inlineStr">
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>9.403</v>
+      </c>
+      <c r="C194" t="n">
+        <v>9.403</v>
+      </c>
+      <c r="D194" t="n">
+        <v>9.403</v>
+      </c>
+      <c r="E194" t="n">
+        <v>9.403</v>
+      </c>
+      <c r="F194" t="n">
+        <v>47.1657</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-497725.8555034045</v>
+      </c>
+      <c r="H194" t="n">
+        <v>2</v>
+      </c>
+      <c r="I194" t="n">
+        <v>9.403</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>9.449</v>
-      </c>
-      <c r="C184" t="n">
-        <v>9.449</v>
-      </c>
-      <c r="D184" t="n">
-        <v>9.449</v>
-      </c>
-      <c r="E184" t="n">
-        <v>9.449</v>
-      </c>
-      <c r="F184" t="n">
-        <v>130654.7648</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-395415.2523034045</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="n">
-        <v>9.422000000000001</v>
-      </c>
-      <c r="K184" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="L184" t="inlineStr">
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>9.356</v>
+      </c>
+      <c r="C195" t="n">
+        <v>9.356</v>
+      </c>
+      <c r="D195" t="n">
+        <v>9.356</v>
+      </c>
+      <c r="E195" t="n">
+        <v>9.356</v>
+      </c>
+      <c r="F195" t="n">
+        <v>20062.4446</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-517788.3001034045</v>
+      </c>
+      <c r="H195" t="n">
+        <v>2</v>
+      </c>
+      <c r="I195" t="n">
+        <v>9.403</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>9.449</v>
-      </c>
-      <c r="C185" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="D185" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="E185" t="n">
-        <v>9.449</v>
-      </c>
-      <c r="F185" t="n">
-        <v>63365</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-332050.2523034045</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="n">
-        <v>9.449</v>
-      </c>
-      <c r="K185" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="L185" t="inlineStr">
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="C196" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="D196" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="E196" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="F196" t="n">
+        <v>10601.081</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-507187.2191034045</v>
+      </c>
+      <c r="H196" t="n">
+        <v>2</v>
+      </c>
+      <c r="I196" t="n">
+        <v>9.356</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="C186" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="D186" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="E186" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="F186" t="n">
-        <v>54.0998</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-332050.2523034045</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="K186" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="L186" t="inlineStr">
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>9.497</v>
+      </c>
+      <c r="C197" t="n">
+        <v>9.497</v>
+      </c>
+      <c r="D197" t="n">
+        <v>9.497</v>
+      </c>
+      <c r="E197" t="n">
+        <v>9.497</v>
+      </c>
+      <c r="F197" t="n">
+        <v>2472.6538</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-504714.5653034045</v>
+      </c>
+      <c r="H197" t="n">
+        <v>2</v>
+      </c>
+      <c r="I197" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="C187" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="D187" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="E187" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="F187" t="n">
-        <v>19890.9002</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-332050.2523034045</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="K187" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="C188" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="D188" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="E188" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="F188" t="n">
-        <v>17400.55</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-332050.2523034045</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="K188" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>9.547000000000001</v>
-      </c>
-      <c r="C189" t="n">
-        <v>9.547000000000001</v>
-      </c>
-      <c r="D189" t="n">
-        <v>9.547000000000001</v>
-      </c>
-      <c r="E189" t="n">
-        <v>9.547000000000001</v>
-      </c>
-      <c r="F189" t="n">
-        <v>66.93680000000001</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-331983.3155034045</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="K189" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="C190" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="D190" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="E190" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="F190" t="n">
-        <v>6060</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-338043.3155034045</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="C191" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="D191" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="E191" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="F191" t="n">
-        <v>2200</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-338043.3155034045</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="K191" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>9.423</v>
-      </c>
-      <c r="C192" t="n">
-        <v>9.422000000000001</v>
-      </c>
-      <c r="D192" t="n">
-        <v>9.423</v>
-      </c>
-      <c r="E192" t="n">
-        <v>9.422000000000001</v>
-      </c>
-      <c r="F192" t="n">
-        <v>30379.53</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-368422.8455034045</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>9.422000000000001</v>
-      </c>
-      <c r="C193" t="n">
-        <v>9.403</v>
-      </c>
-      <c r="D193" t="n">
-        <v>9.422000000000001</v>
-      </c>
-      <c r="E193" t="n">
-        <v>9.403</v>
-      </c>
-      <c r="F193" t="n">
-        <v>129303.01</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-497725.8555034045</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="n">
-        <v>9.422000000000001</v>
-      </c>
-      <c r="K193" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>9.403</v>
-      </c>
-      <c r="C194" t="n">
-        <v>9.403</v>
-      </c>
-      <c r="D194" t="n">
-        <v>9.403</v>
-      </c>
-      <c r="E194" t="n">
-        <v>9.403</v>
-      </c>
-      <c r="F194" t="n">
-        <v>47.1657</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-497725.8555034045</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="n">
-        <v>9.403</v>
-      </c>
-      <c r="K194" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>9.356</v>
-      </c>
-      <c r="C195" t="n">
-        <v>9.356</v>
-      </c>
-      <c r="D195" t="n">
-        <v>9.356</v>
-      </c>
-      <c r="E195" t="n">
-        <v>9.356</v>
-      </c>
-      <c r="F195" t="n">
-        <v>20062.4446</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-517788.3001034045</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="n">
-        <v>9.403</v>
-      </c>
-      <c r="K195" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="C196" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="D196" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="E196" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="F196" t="n">
-        <v>10601.081</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-507187.2191034045</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="n">
-        <v>9.356</v>
-      </c>
-      <c r="K196" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>9.497</v>
-      </c>
-      <c r="C197" t="n">
-        <v>9.497</v>
-      </c>
-      <c r="D197" t="n">
-        <v>9.497</v>
-      </c>
-      <c r="E197" t="n">
-        <v>9.497</v>
-      </c>
-      <c r="F197" t="n">
-        <v>2472.6538</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-504714.5653034045</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="K197" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest OGO.xlsx
+++ b/BackTest/2020-01-12 BackTest OGO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1076805.2954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1067877.4054</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>1068543.370238404</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>1065168.212338404</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1033548.176738404</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>1034075.176738404</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>1073025.176738404</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>1095241.560138404</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>1006839.798438404</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>1108012.148238404</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>1139836.807838404</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>1139784.807838404</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>1182462.522438404</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>978359.386538404</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>808470.115338404</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -5896,280 +5896,254 @@
         <v>-406334.5156034045</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
-      </c>
-      <c r="I167" t="n">
-        <v>9.539</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="C168" t="n">
+        <v>9.481</v>
+      </c>
+      <c r="D168" t="n">
+        <v>9.526999999999999</v>
+      </c>
+      <c r="E168" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="F168" t="n">
+        <v>15886.236</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-422220.7516034045</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>9.468</v>
+      </c>
+      <c r="C169" t="n">
+        <v>9.526999999999999</v>
+      </c>
+      <c r="D169" t="n">
+        <v>9.526999999999999</v>
+      </c>
+      <c r="E169" t="n">
+        <v>9.468</v>
+      </c>
+      <c r="F169" t="n">
+        <v>261.6698</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-421959.0818034045</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>9.526999999999999</v>
+      </c>
+      <c r="C170" t="n">
+        <v>9.526999999999999</v>
+      </c>
+      <c r="D170" t="n">
+        <v>9.526999999999999</v>
+      </c>
+      <c r="E170" t="n">
+        <v>9.526999999999999</v>
+      </c>
+      <c r="F170" t="n">
+        <v>165</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-421959.0818034045</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>9.481</v>
+      </c>
+      <c r="C171" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="D171" t="n">
+        <v>9.481</v>
+      </c>
+      <c r="E171" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="F171" t="n">
+        <v>15674</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-437633.0818034045</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="C172" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="D172" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="E172" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="F172" t="n">
+        <v>7001.651</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-437633.0818034045</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>9.433</v>
+      </c>
+      <c r="C173" t="n">
+        <v>9.433</v>
+      </c>
+      <c r="D173" t="n">
+        <v>9.433</v>
+      </c>
+      <c r="E173" t="n">
+        <v>9.433</v>
+      </c>
+      <c r="F173" t="n">
+        <v>72674</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-510307.0818034045</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="J173" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>9.433</v>
+      </c>
+      <c r="C174" t="n">
+        <v>9.432</v>
+      </c>
+      <c r="D174" t="n">
+        <v>9.433</v>
+      </c>
+      <c r="E174" t="n">
+        <v>9.432</v>
+      </c>
+      <c r="F174" t="n">
+        <v>838.3200000000001</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-511145.4018034045</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>9.433</v>
+      </c>
+      <c r="J174" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="K174" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="C168" t="n">
-        <v>9.481</v>
-      </c>
-      <c r="D168" t="n">
-        <v>9.526999999999999</v>
-      </c>
-      <c r="E168" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="F168" t="n">
-        <v>15886.236</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-422220.7516034045</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>9.468</v>
-      </c>
-      <c r="C169" t="n">
-        <v>9.526999999999999</v>
-      </c>
-      <c r="D169" t="n">
-        <v>9.526999999999999</v>
-      </c>
-      <c r="E169" t="n">
-        <v>9.468</v>
-      </c>
-      <c r="F169" t="n">
-        <v>261.6698</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-421959.0818034045</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>9.526999999999999</v>
-      </c>
-      <c r="C170" t="n">
-        <v>9.526999999999999</v>
-      </c>
-      <c r="D170" t="n">
-        <v>9.526999999999999</v>
-      </c>
-      <c r="E170" t="n">
-        <v>9.526999999999999</v>
-      </c>
-      <c r="F170" t="n">
-        <v>165</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-421959.0818034045</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>9.481</v>
-      </c>
-      <c r="C171" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="D171" t="n">
-        <v>9.481</v>
-      </c>
-      <c r="E171" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="F171" t="n">
-        <v>15674</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-437633.0818034045</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="C172" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="D172" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="E172" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="F172" t="n">
-        <v>7001.651</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-437633.0818034045</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>9.433</v>
-      </c>
-      <c r="C173" t="n">
-        <v>9.433</v>
-      </c>
-      <c r="D173" t="n">
-        <v>9.433</v>
-      </c>
-      <c r="E173" t="n">
-        <v>9.433</v>
-      </c>
-      <c r="F173" t="n">
-        <v>72674</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-510307.0818034045</v>
-      </c>
-      <c r="H173" t="n">
-        <v>2</v>
-      </c>
-      <c r="I173" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>9.433</v>
-      </c>
-      <c r="C174" t="n">
-        <v>9.432</v>
-      </c>
-      <c r="D174" t="n">
-        <v>9.433</v>
-      </c>
-      <c r="E174" t="n">
-        <v>9.432</v>
-      </c>
-      <c r="F174" t="n">
-        <v>838.3200000000001</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-511145.4018034045</v>
-      </c>
-      <c r="H174" t="n">
-        <v>2</v>
-      </c>
-      <c r="I174" t="n">
-        <v>9.433</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6198,12 +6172,14 @@
         <v>-511967.4033034045</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>9.432</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>9.44</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6237,12 +6213,14 @@
         <v>-504185.5693034045</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>9.369999999999999</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>9.44</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6276,12 +6254,14 @@
         <v>-502317.5693034045</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>9.523999999999999</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>9.44</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6315,10 +6295,14 @@
         <v>-499750.4919034045</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="J178" t="n">
+        <v>9.44</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6352,10 +6336,14 @@
         <v>-499750.4919034045</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>9.545</v>
+      </c>
+      <c r="J179" t="n">
+        <v>9.44</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6389,12 +6377,12 @@
         <v>-484750.4919034045</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
-      </c>
-      <c r="I180" t="n">
-        <v>9.545</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>9.44</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6428,10 +6416,14 @@
         <v>-510396.0171034045</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>9.545999999999999</v>
+      </c>
+      <c r="J181" t="n">
+        <v>9.44</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6465,12 +6457,14 @@
         <v>-526070.0171034045</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>9.460000000000001</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>9.44</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6504,12 +6498,14 @@
         <v>-526070.0171034045</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>9.422000000000001</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>9.44</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6543,12 +6539,14 @@
         <v>-395415.2523034045</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>9.422000000000001</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>9.44</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6582,12 +6580,14 @@
         <v>-332050.2523034045</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>9.449</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>9.44</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6621,12 +6621,14 @@
         <v>-332050.2523034045</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>9.5</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>9.44</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6660,12 +6662,14 @@
         <v>-332050.2523034045</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>9.5</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>9.44</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6699,12 +6703,14 @@
         <v>-332050.2523034045</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>9.5</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>9.44</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6738,12 +6744,14 @@
         <v>-331983.3155034045</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>9.5</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>9.44</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6777,12 +6785,14 @@
         <v>-338043.3155034045</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>9.547000000000001</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>9.44</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6816,12 +6826,14 @@
         <v>-338043.3155034045</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>9.449999999999999</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>9.44</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6855,12 +6867,14 @@
         <v>-368422.8455034045</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>9.449999999999999</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>9.44</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6894,12 +6908,14 @@
         <v>-497725.8555034045</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>9.422000000000001</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>9.44</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6933,12 +6949,14 @@
         <v>-497725.8555034045</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>9.403</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>9.44</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6972,12 +6990,14 @@
         <v>-517788.3001034045</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>9.403</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>9.44</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7011,12 +7031,14 @@
         <v>-507187.2191034045</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>9.356</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>9.44</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7050,12 +7072,14 @@
         <v>-504714.5653034045</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I197" t="n">
         <v>9.359999999999999</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>9.44</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7067,6 +7091,6 @@
       <c r="M197" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest OGO.xlsx
+++ b/BackTest/2020-01-12 BackTest OGO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1076805.2954</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1067877.4054</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>1068543.370238404</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>1065168.212338404</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1033548.176738404</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>1072670.948638404</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>1072670.948638404</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>1134353.348238404</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>1106012.148238404</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>1108012.148238404</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>1108012.148238404</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>1108012.148238404</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>1108012.148238404</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>1064977.138238404</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>1134894.361038404</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>1139836.807838404</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>1139784.807838404</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>1139784.807838404</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>1182462.522438404</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>1182462.522438404</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>1173666.344938404</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>1082880.275538404</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>957152.386538404</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>977836.2290384041</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>814905.853638404</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>814905.853638404</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>716973.662738404</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>719421.115338404</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>719421.115338404</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>735095.115338404</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>808470.115338404</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>808470.115338404</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -6094,14 +6094,10 @@
         <v>-510307.0818034045</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="J173" t="n">
-        <v>9.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
@@ -6131,19 +6127,11 @@
         <v>-511145.4018034045</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>9.433</v>
-      </c>
-      <c r="J174" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6172,19 +6160,11 @@
         <v>-511967.4033034045</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>9.432</v>
-      </c>
-      <c r="J175" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6213,19 +6193,11 @@
         <v>-504185.5693034045</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="J176" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6254,19 +6226,11 @@
         <v>-502317.5693034045</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>9.523999999999999</v>
-      </c>
-      <c r="J177" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6295,19 +6259,11 @@
         <v>-499750.4919034045</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="J178" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6336,19 +6292,11 @@
         <v>-499750.4919034045</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>9.545</v>
-      </c>
-      <c r="J179" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6377,17 +6325,11 @@
         <v>-484750.4919034045</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6416,19 +6358,11 @@
         <v>-510396.0171034045</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>9.545999999999999</v>
-      </c>
-      <c r="J181" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6457,19 +6391,11 @@
         <v>-526070.0171034045</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="J182" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6498,19 +6424,11 @@
         <v>-526070.0171034045</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>9.422000000000001</v>
-      </c>
-      <c r="J183" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6539,19 +6457,11 @@
         <v>-395415.2523034045</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>9.422000000000001</v>
-      </c>
-      <c r="J184" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6580,19 +6490,11 @@
         <v>-332050.2523034045</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>9.449</v>
-      </c>
-      <c r="J185" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6621,19 +6523,11 @@
         <v>-332050.2523034045</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="J186" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6662,19 +6556,11 @@
         <v>-332050.2523034045</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="J187" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6703,19 +6589,11 @@
         <v>-332050.2523034045</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="J188" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6744,19 +6622,11 @@
         <v>-331983.3155034045</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="J189" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6785,19 +6655,11 @@
         <v>-338043.3155034045</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>9.547000000000001</v>
-      </c>
-      <c r="J190" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6826,19 +6688,11 @@
         <v>-338043.3155034045</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="J191" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6867,19 +6721,11 @@
         <v>-368422.8455034045</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="J192" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6908,19 +6754,11 @@
         <v>-497725.8555034045</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>9.422000000000001</v>
-      </c>
-      <c r="J193" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6949,19 +6787,11 @@
         <v>-497725.8555034045</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>9.403</v>
-      </c>
-      <c r="J194" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6990,19 +6820,11 @@
         <v>-517788.3001034045</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>9.403</v>
-      </c>
-      <c r="J195" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7037,13 +6859,9 @@
         <v>9.356</v>
       </c>
       <c r="J196" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>9.356</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7078,11 +6896,11 @@
         <v>9.359999999999999</v>
       </c>
       <c r="J197" t="n">
-        <v>9.44</v>
+        <v>9.356</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L197" t="n">
@@ -7091,6 +6909,6 @@
       <c r="M197" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest OGO.xlsx
+++ b/BackTest/2020-01-12 BackTest OGO.xlsx
@@ -2002,7 +2002,7 @@
         <v>1072670.948638404</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>1072670.948638404</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>1134353.348238404</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>1106012.148238404</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>1108012.148238404</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>1108012.148238404</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>1108012.148238404</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>1108012.148238404</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>1064977.138238404</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>1134894.361038404</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>1139784.807838404</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>1139784.807838404</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>1182462.522438404</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>1178066.490538404</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>978359.386538404</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>977836.2290384041</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>814905.853638404</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>814905.853638404</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>716973.662738404</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>719421.115338404</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>719421.115338404</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>735095.115338404</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>808470.115338404</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -6094,10 +6094,14 @@
         <v>-510307.0818034045</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="J173" t="n">
+        <v>9.44</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
@@ -6127,11 +6131,19 @@
         <v>-511145.4018034045</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>9.433</v>
+      </c>
+      <c r="J174" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6160,11 +6172,19 @@
         <v>-511967.4033034045</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>9.432</v>
+      </c>
+      <c r="J175" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6193,11 +6213,19 @@
         <v>-504185.5693034045</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="J176" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6226,11 +6254,19 @@
         <v>-502317.5693034045</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>9.523999999999999</v>
+      </c>
+      <c r="J177" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6259,11 +6295,17 @@
         <v>-499750.4919034045</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6292,11 +6334,19 @@
         <v>-499750.4919034045</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>9.545</v>
+      </c>
+      <c r="J179" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6325,11 +6375,19 @@
         <v>-484750.4919034045</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>9.545</v>
+      </c>
+      <c r="J180" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6358,11 +6416,19 @@
         <v>-510396.0171034045</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>9.545999999999999</v>
+      </c>
+      <c r="J181" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6391,11 +6457,19 @@
         <v>-526070.0171034045</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="J182" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6424,11 +6498,19 @@
         <v>-526070.0171034045</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>9.422000000000001</v>
+      </c>
+      <c r="J183" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6457,11 +6539,19 @@
         <v>-395415.2523034045</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>9.422000000000001</v>
+      </c>
+      <c r="J184" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6490,11 +6580,19 @@
         <v>-332050.2523034045</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>9.449</v>
+      </c>
+      <c r="J185" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6523,11 +6621,19 @@
         <v>-332050.2523034045</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J186" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6556,11 +6662,19 @@
         <v>-332050.2523034045</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J187" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6592,8 +6706,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6622,11 +6742,19 @@
         <v>-331983.3155034045</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J189" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6658,8 +6786,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6688,11 +6822,19 @@
         <v>-338043.3155034045</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="J191" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6724,8 +6866,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6754,11 +6902,19 @@
         <v>-497725.8555034045</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>9.422000000000001</v>
+      </c>
+      <c r="J193" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6787,11 +6943,19 @@
         <v>-497725.8555034045</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>9.403</v>
+      </c>
+      <c r="J194" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6820,11 +6984,19 @@
         <v>-517788.3001034045</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>9.403</v>
+      </c>
+      <c r="J195" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6859,9 +7031,13 @@
         <v>9.356</v>
       </c>
       <c r="J196" t="n">
-        <v>9.356</v>
-      </c>
-      <c r="K196" t="inlineStr"/>
+        <v>9.44</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6896,11 +7072,11 @@
         <v>9.359999999999999</v>
       </c>
       <c r="J197" t="n">
-        <v>9.356</v>
+        <v>9.44</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L197" t="n">

--- a/BackTest/2020-01-12 BackTest OGO.xlsx
+++ b/BackTest/2020-01-12 BackTest OGO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M197"/>
+  <dimension ref="A1:L197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>115.6</v>
       </c>
       <c r="G2" t="n">
-        <v>1076805.2954</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>8927.889999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>1067877.4054</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>665.9648384040426</v>
       </c>
       <c r="G4" t="n">
-        <v>1068543.370238404</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>3375.1579</v>
       </c>
       <c r="G5" t="n">
-        <v>1065168.212338404</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>31620.0356</v>
       </c>
       <c r="G6" t="n">
-        <v>1033548.176738404</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>527</v>
       </c>
       <c r="G7" t="n">
-        <v>1034075.176738404</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>3455</v>
       </c>
       <c r="G8" t="n">
-        <v>1034075.176738404</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>50000</v>
       </c>
       <c r="G9" t="n">
-        <v>1034075.176738404</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>26529.3415</v>
       </c>
       <c r="G10" t="n">
-        <v>1034075.176738404</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>38950</v>
       </c>
       <c r="G11" t="n">
-        <v>1073025.176738404</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>207.9595</v>
       </c>
       <c r="G12" t="n">
-        <v>1073025.176738404</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>10000</v>
       </c>
       <c r="G13" t="n">
-        <v>1063025.176738404</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>546.6654</v>
       </c>
       <c r="G14" t="n">
-        <v>1063571.842138404</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>8469.933999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>1063571.842138404</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>269.0162</v>
       </c>
       <c r="G16" t="n">
-        <v>1063840.858338404</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>47145.67</v>
       </c>
       <c r="G17" t="n">
-        <v>1110986.528338404</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>119.1218</v>
       </c>
       <c r="G18" t="n">
-        <v>1111105.650138404</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>60.6444</v>
       </c>
       <c r="G19" t="n">
-        <v>1111105.650138404</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>15864.09</v>
       </c>
       <c r="G20" t="n">
-        <v>1095241.560138404</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>23.8004</v>
       </c>
       <c r="G21" t="n">
-        <v>1095241.560138404</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>72.0009</v>
       </c>
       <c r="G22" t="n">
-        <v>1095313.561038404</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>100.2006</v>
       </c>
       <c r="G23" t="n">
-        <v>1095313.561038404</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>12247.3729</v>
       </c>
       <c r="G24" t="n">
-        <v>1083066.188138404</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>3674.1494</v>
       </c>
       <c r="G25" t="n">
-        <v>1083066.188138404</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>5206.1586</v>
       </c>
       <c r="G26" t="n">
-        <v>1083066.188138404</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>515.9072</v>
       </c>
       <c r="G27" t="n">
-        <v>1082550.280938404</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>9802.2371</v>
       </c>
       <c r="G28" t="n">
-        <v>1092352.518038404</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>6264.2999</v>
       </c>
       <c r="G29" t="n">
-        <v>1098616.817938404</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>662.6831</v>
       </c>
       <c r="G30" t="n">
-        <v>1097954.134838404</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>16913.8827</v>
       </c>
       <c r="G31" t="n">
-        <v>1114868.017538404</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>19572.6755</v>
       </c>
       <c r="G32" t="n">
-        <v>1114868.017538404</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>20000</v>
       </c>
       <c r="G33" t="n">
-        <v>1114868.017538404</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>17249.1297</v>
       </c>
       <c r="G34" t="n">
-        <v>1114868.017538404</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>198.7817</v>
       </c>
       <c r="G35" t="n">
-        <v>1115066.799238404</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>9603.4553</v>
       </c>
       <c r="G36" t="n">
-        <v>1115066.799238404</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>663.1233999999999</v>
       </c>
       <c r="G37" t="n">
-        <v>1115729.922638404</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>102979.6475</v>
       </c>
       <c r="G38" t="n">
-        <v>1012750.275138404</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>36522.9283</v>
       </c>
       <c r="G39" t="n">
-        <v>976227.346838404</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>11488.4402</v>
       </c>
       <c r="G40" t="n">
-        <v>964738.906638404</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>8000</v>
       </c>
       <c r="G41" t="n">
-        <v>972738.906638404</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>2000</v>
       </c>
       <c r="G42" t="n">
-        <v>972738.906638404</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>68.9689</v>
       </c>
       <c r="G43" t="n">
-        <v>972738.906638404</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>2000</v>
       </c>
       <c r="G44" t="n">
-        <v>972738.906638404</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>99828.52099999999</v>
       </c>
       <c r="G45" t="n">
-        <v>1072567.427638404</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>220</v>
       </c>
       <c r="G46" t="n">
-        <v>1072787.427638404</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>55</v>
       </c>
       <c r="G47" t="n">
-        <v>1072842.427638404</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>110</v>
       </c>
       <c r="G48" t="n">
-        <v>1072842.427638404</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>171.479</v>
       </c>
       <c r="G49" t="n">
-        <v>1072670.948638404</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>110</v>
       </c>
       <c r="G50" t="n">
-        <v>1072670.948638404</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>165</v>
       </c>
       <c r="G51" t="n">
-        <v>1072670.948638404</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>2115.0354</v>
       </c>
       <c r="G52" t="n">
-        <v>1070555.913238404</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>48398.006</v>
       </c>
       <c r="G53" t="n">
-        <v>1022157.907238404</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>33177</v>
       </c>
       <c r="G54" t="n">
-        <v>1022157.907238404</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>1989</v>
       </c>
       <c r="G55" t="n">
-        <v>1022157.907238404</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>10023.8705</v>
       </c>
       <c r="G56" t="n">
-        <v>1012134.036738404</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>24291</v>
       </c>
       <c r="G57" t="n">
-        <v>1036425.036738404</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>34411</v>
       </c>
       <c r="G58" t="n">
-        <v>1036425.036738404</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>30106.1943</v>
       </c>
       <c r="G59" t="n">
-        <v>1036425.036738404</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>410.1799</v>
       </c>
       <c r="G60" t="n">
-        <v>1036425.036738404</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>50000</v>
       </c>
       <c r="G61" t="n">
-        <v>1036425.036738404</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>747</v>
       </c>
       <c r="G62" t="n">
-        <v>1037172.036738404</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>5196.969</v>
       </c>
       <c r="G63" t="n">
-        <v>1037172.036738404</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>137.3023</v>
       </c>
       <c r="G64" t="n">
-        <v>1037309.339038404</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>137.3023</v>
       </c>
       <c r="G65" t="n">
-        <v>1037172.036738404</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>151.3427</v>
       </c>
       <c r="G66" t="n">
-        <v>1037323.379438404</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>30483.581</v>
       </c>
       <c r="G67" t="n">
-        <v>1006839.798438404</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>29336</v>
       </c>
       <c r="G68" t="n">
-        <v>1036175.798438404</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>222</v>
       </c>
       <c r="G69" t="n">
-        <v>1035953.798438404</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>140436.7568</v>
       </c>
       <c r="G70" t="n">
-        <v>1176390.555238404</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>60819.17</v>
       </c>
       <c r="G71" t="n">
-        <v>1115571.385238404</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>18781.963</v>
       </c>
       <c r="G72" t="n">
-        <v>1134353.348238404</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>38000</v>
       </c>
       <c r="G73" t="n">
-        <v>1134353.348238404</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>28341.2</v>
       </c>
       <c r="G74" t="n">
-        <v>1106012.148238404</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>2000</v>
       </c>
       <c r="G75" t="n">
-        <v>1108012.148238404</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>55114.39</v>
       </c>
       <c r="G76" t="n">
-        <v>1108012.148238404</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>4000</v>
       </c>
       <c r="G77" t="n">
-        <v>1108012.148238404</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>38885.61</v>
       </c>
       <c r="G78" t="n">
-        <v>1108012.148238404</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>2910.7562</v>
       </c>
       <c r="G79" t="n">
-        <v>1108012.148238404</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>43035.01</v>
       </c>
       <c r="G80" t="n">
-        <v>1064977.138238404</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>69917.2228</v>
       </c>
       <c r="G81" t="n">
-        <v>1134894.361038404</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>5090.0368</v>
       </c>
       <c r="G82" t="n">
-        <v>1139984.397838404</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>147.59</v>
       </c>
       <c r="G83" t="n">
-        <v>1139836.807838404</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>38361.5343</v>
       </c>
       <c r="G84" t="n">
-        <v>1139836.807838404</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>52</v>
       </c>
       <c r="G85" t="n">
-        <v>1139784.807838404</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>62349.2914</v>
       </c>
       <c r="G86" t="n">
-        <v>1139784.807838404</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>72795.0733</v>
       </c>
       <c r="G87" t="n">
-        <v>1066989.734538404</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>55888.8212</v>
       </c>
       <c r="G88" t="n">
-        <v>1066989.734538404</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>83328.02370000001</v>
       </c>
       <c r="G89" t="n">
-        <v>983661.710838404</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>2473.3955</v>
       </c>
       <c r="G90" t="n">
-        <v>981188.315338404</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>71219.85799999999</v>
       </c>
       <c r="G91" t="n">
-        <v>1052408.173338404</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>130054.3491</v>
       </c>
       <c r="G92" t="n">
-        <v>1182462.522438404</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>48.1661</v>
       </c>
       <c r="G93" t="n">
-        <v>1182462.522438404</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>4396.0319</v>
       </c>
       <c r="G94" t="n">
-        <v>1178066.490538404</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>4400.1456</v>
       </c>
       <c r="G95" t="n">
-        <v>1173666.344938404</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>90786.06939999999</v>
       </c>
       <c r="G96" t="n">
-        <v>1082880.275538404</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>125727.889</v>
       </c>
       <c r="G97" t="n">
-        <v>957152.386538404</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>21207</v>
       </c>
       <c r="G98" t="n">
-        <v>978359.386538404</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>523.1575</v>
       </c>
       <c r="G99" t="n">
-        <v>977836.2290384041</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>162930.3754</v>
       </c>
       <c r="G100" t="n">
-        <v>814905.853638404</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>53917.6336</v>
       </c>
       <c r="G101" t="n">
-        <v>814905.853638404</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>13714.89</v>
       </c>
       <c r="G102" t="n">
-        <v>801190.963638404</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>54893.6145</v>
       </c>
       <c r="G103" t="n">
-        <v>746297.349138404</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>3648.5546</v>
       </c>
       <c r="G104" t="n">
-        <v>749945.903738404</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>32972.241</v>
       </c>
       <c r="G105" t="n">
-        <v>716973.662738404</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>2447.4526</v>
       </c>
       <c r="G106" t="n">
-        <v>719421.115338404</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>10321.4168</v>
       </c>
       <c r="G107" t="n">
-        <v>719421.115338404</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>15674</v>
       </c>
       <c r="G108" t="n">
-        <v>735095.115338404</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>15119.8981</v>
       </c>
       <c r="G109" t="n">
-        <v>735095.115338404</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>73375</v>
       </c>
       <c r="G110" t="n">
-        <v>808470.115338404</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>5225.2488</v>
       </c>
       <c r="G111" t="n">
-        <v>808470.115338404</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>22403.88</v>
       </c>
       <c r="G112" t="n">
-        <v>808470.115338404</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>6000</v>
       </c>
       <c r="G113" t="n">
-        <v>802470.115338404</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>319722.2921</v>
       </c>
       <c r="G114" t="n">
-        <v>482747.8232384039</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>30751.94</v>
       </c>
       <c r="G115" t="n">
-        <v>513499.7632384039</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>25960.64</v>
       </c>
       <c r="G116" t="n">
-        <v>487539.1232384039</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>240282.7586</v>
       </c>
       <c r="G117" t="n">
-        <v>247256.3646384039</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>396416.6184</v>
       </c>
       <c r="G118" t="n">
-        <v>-149160.253761596</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>21890</v>
       </c>
       <c r="G119" t="n">
-        <v>-127270.253761596</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>17553</v>
       </c>
       <c r="G120" t="n">
-        <v>-109717.253761596</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>4149.232658191489</v>
       </c>
       <c r="G121" t="n">
-        <v>-105568.0211034046</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>40811.6461</v>
       </c>
       <c r="G122" t="n">
-        <v>-105568.0211034046</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>5262.8227</v>
       </c>
       <c r="G123" t="n">
-        <v>-105568.0211034046</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>8500</v>
       </c>
       <c r="G124" t="n">
-        <v>-114068.0211034046</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>27278.2199</v>
       </c>
       <c r="G125" t="n">
-        <v>-86789.80120340457</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>2000</v>
       </c>
       <c r="G126" t="n">
-        <v>-88789.80120340457</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>166015.9533</v>
       </c>
       <c r="G127" t="n">
-        <v>77226.15209659543</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>80766.1548</v>
       </c>
       <c r="G128" t="n">
-        <v>-3540.002703404578</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>1243</v>
       </c>
       <c r="G129" t="n">
-        <v>-2297.002703404578</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>13032</v>
       </c>
       <c r="G130" t="n">
-        <v>-15329.00270340458</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>18025</v>
       </c>
       <c r="G131" t="n">
-        <v>2695.997296595422</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>5348.7377</v>
       </c>
       <c r="G132" t="n">
-        <v>2695.997296595422</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>75310.103</v>
       </c>
       <c r="G133" t="n">
-        <v>2695.997296595422</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>153787.3776</v>
       </c>
       <c r="G134" t="n">
-        <v>-151091.3803034046</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,19 @@
         <v>89376</v>
       </c>
       <c r="G135" t="n">
-        <v>-61715.38030340458</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>9.226000000000001</v>
+      </c>
+      <c r="I135" t="n">
+        <v>9.226000000000001</v>
+      </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4467,23 @@
         <v>13298</v>
       </c>
       <c r="G136" t="n">
-        <v>-61715.38030340458</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>9.327999999999999</v>
+      </c>
+      <c r="I136" t="n">
+        <v>9.226000000000001</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4505,23 @@
         <v>15689</v>
       </c>
       <c r="G137" t="n">
-        <v>-46026.38030340458</v>
+        <v>1</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>9.327999999999999</v>
+      </c>
+      <c r="I137" t="n">
+        <v>9.226000000000001</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4543,15 @@
         <v>1597</v>
       </c>
       <c r="G138" t="n">
-        <v>-44429.38030340458</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4573,15 @@
         <v>129387.7176</v>
       </c>
       <c r="G139" t="n">
-        <v>-173817.0979034046</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4603,15 @@
         <v>60048.8107</v>
       </c>
       <c r="G140" t="n">
-        <v>-173817.0979034046</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4633,15 @@
         <v>800</v>
       </c>
       <c r="G141" t="n">
-        <v>-173017.0979034046</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4663,15 @@
         <v>64.1121</v>
       </c>
       <c r="G142" t="n">
-        <v>-172952.9858034046</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4693,15 @@
         <v>5789</v>
       </c>
       <c r="G143" t="n">
-        <v>-178741.9858034046</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4723,15 @@
         <v>74664.5131</v>
       </c>
       <c r="G144" t="n">
-        <v>-253406.4989034046</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4753,15 @@
         <v>10000</v>
       </c>
       <c r="G145" t="n">
-        <v>-243406.4989034046</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4783,15 @@
         <v>102.2269</v>
       </c>
       <c r="G146" t="n">
-        <v>-243304.2720034046</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4813,15 @@
         <v>46906.1453</v>
       </c>
       <c r="G147" t="n">
-        <v>-290210.4173034045</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4843,15 @@
         <v>59067.4799</v>
       </c>
       <c r="G148" t="n">
-        <v>-349277.8972034045</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4873,15 @@
         <v>108</v>
       </c>
       <c r="G149" t="n">
-        <v>-349169.8972034045</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4903,15 @@
         <v>108</v>
       </c>
       <c r="G150" t="n">
-        <v>-349277.8972034045</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4933,15 @@
         <v>109.2177</v>
       </c>
       <c r="G151" t="n">
-        <v>-349168.6795034045</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4963,15 @@
         <v>6351</v>
       </c>
       <c r="G152" t="n">
-        <v>-355519.6795034045</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4993,15 @@
         <v>29152.9999</v>
       </c>
       <c r="G153" t="n">
-        <v>-384672.6794034045</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5023,15 @@
         <v>2000</v>
       </c>
       <c r="G154" t="n">
-        <v>-382672.6794034045</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5053,15 @@
         <v>6000</v>
       </c>
       <c r="G155" t="n">
-        <v>-388672.6794034045</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5083,15 @@
         <v>8000</v>
       </c>
       <c r="G156" t="n">
-        <v>-380672.6794034045</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5113,15 @@
         <v>37040.1478</v>
       </c>
       <c r="G157" t="n">
-        <v>-417712.8272034045</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5143,15 @@
         <v>21588</v>
       </c>
       <c r="G158" t="n">
-        <v>-396124.8272034045</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5173,15 @@
         <v>6000</v>
       </c>
       <c r="G159" t="n">
-        <v>-396124.8272034045</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5203,15 @@
         <v>6000</v>
       </c>
       <c r="G160" t="n">
-        <v>-396124.8272034045</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5233,15 @@
         <v>2000</v>
       </c>
       <c r="G161" t="n">
-        <v>-396124.8272034045</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5263,15 @@
         <v>2000</v>
       </c>
       <c r="G162" t="n">
-        <v>-396124.8272034045</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5293,15 @@
         <v>165</v>
       </c>
       <c r="G163" t="n">
-        <v>-396124.8272034045</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5323,15 @@
         <v>165</v>
       </c>
       <c r="G164" t="n">
-        <v>-396124.8272034045</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5353,15 @@
         <v>600</v>
       </c>
       <c r="G165" t="n">
-        <v>-396124.8272034045</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5383,15 @@
         <v>100</v>
       </c>
       <c r="G166" t="n">
-        <v>-396024.8272034045</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5413,15 @@
         <v>10309.6884</v>
       </c>
       <c r="G167" t="n">
-        <v>-406334.5156034045</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5443,15 @@
         <v>15886.236</v>
       </c>
       <c r="G168" t="n">
-        <v>-422220.7516034045</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5473,15 @@
         <v>261.6698</v>
       </c>
       <c r="G169" t="n">
-        <v>-421959.0818034045</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5503,15 @@
         <v>165</v>
       </c>
       <c r="G170" t="n">
-        <v>-421959.0818034045</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5533,15 @@
         <v>15674</v>
       </c>
       <c r="G171" t="n">
-        <v>-437633.0818034045</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5563,15 @@
         <v>7001.651</v>
       </c>
       <c r="G172" t="n">
-        <v>-437633.0818034045</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,22 +5593,15 @@
         <v>72674</v>
       </c>
       <c r="G173" t="n">
-        <v>-510307.0818034045</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="J173" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6128,26 +5623,15 @@
         <v>838.3200000000001</v>
       </c>
       <c r="G174" t="n">
-        <v>-511145.4018034045</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>9.433</v>
-      </c>
-      <c r="J174" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6169,26 +5653,15 @@
         <v>822.0015</v>
       </c>
       <c r="G175" t="n">
-        <v>-511967.4033034045</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>9.432</v>
-      </c>
-      <c r="J175" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6210,26 +5683,15 @@
         <v>7781.834</v>
       </c>
       <c r="G176" t="n">
-        <v>-504185.5693034045</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="J176" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6251,26 +5713,15 @@
         <v>1868</v>
       </c>
       <c r="G177" t="n">
-        <v>-502317.5693034045</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>9.523999999999999</v>
-      </c>
-      <c r="J177" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6292,24 +5743,15 @@
         <v>2567.0774</v>
       </c>
       <c r="G178" t="n">
-        <v>-499750.4919034045</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6331,26 +5773,15 @@
         <v>47238.9371</v>
       </c>
       <c r="G179" t="n">
-        <v>-499750.4919034045</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>9.545</v>
-      </c>
-      <c r="J179" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6372,26 +5803,15 @@
         <v>15000</v>
       </c>
       <c r="G180" t="n">
-        <v>-484750.4919034045</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>9.545</v>
-      </c>
-      <c r="J180" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6413,26 +5833,15 @@
         <v>25645.5252</v>
       </c>
       <c r="G181" t="n">
-        <v>-510396.0171034045</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>9.545999999999999</v>
-      </c>
-      <c r="J181" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6454,26 +5863,15 @@
         <v>15674</v>
       </c>
       <c r="G182" t="n">
-        <v>-526070.0171034045</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="J182" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6495,26 +5893,15 @@
         <v>15674</v>
       </c>
       <c r="G183" t="n">
-        <v>-526070.0171034045</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>9.422000000000001</v>
-      </c>
-      <c r="J183" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6536,26 +5923,15 @@
         <v>130654.7648</v>
       </c>
       <c r="G184" t="n">
-        <v>-395415.2523034045</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>9.422000000000001</v>
-      </c>
-      <c r="J184" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6577,26 +5953,15 @@
         <v>63365</v>
       </c>
       <c r="G185" t="n">
-        <v>-332050.2523034045</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>9.449</v>
-      </c>
-      <c r="J185" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6618,26 +5983,15 @@
         <v>54.0998</v>
       </c>
       <c r="G186" t="n">
-        <v>-332050.2523034045</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="J186" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6659,26 +6013,15 @@
         <v>19890.9002</v>
       </c>
       <c r="G187" t="n">
-        <v>-332050.2523034045</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="J187" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6700,24 +6043,15 @@
         <v>17400.55</v>
       </c>
       <c r="G188" t="n">
-        <v>-332050.2523034045</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6739,26 +6073,15 @@
         <v>66.93680000000001</v>
       </c>
       <c r="G189" t="n">
-        <v>-331983.3155034045</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="J189" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6780,24 +6103,15 @@
         <v>6060</v>
       </c>
       <c r="G190" t="n">
-        <v>-338043.3155034045</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6819,26 +6133,15 @@
         <v>2200</v>
       </c>
       <c r="G191" t="n">
-        <v>-338043.3155034045</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="J191" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6860,24 +6163,15 @@
         <v>30379.53</v>
       </c>
       <c r="G192" t="n">
-        <v>-368422.8455034045</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6899,26 +6193,15 @@
         <v>129303.01</v>
       </c>
       <c r="G193" t="n">
-        <v>-497725.8555034045</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>9.422000000000001</v>
-      </c>
-      <c r="J193" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6940,26 +6223,15 @@
         <v>47.1657</v>
       </c>
       <c r="G194" t="n">
-        <v>-497725.8555034045</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>9.403</v>
-      </c>
-      <c r="J194" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6981,26 +6253,15 @@
         <v>20062.4446</v>
       </c>
       <c r="G195" t="n">
-        <v>-517788.3001034045</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>9.403</v>
-      </c>
-      <c r="J195" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7022,26 +6283,15 @@
         <v>10601.081</v>
       </c>
       <c r="G196" t="n">
-        <v>-507187.2191034045</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>9.356</v>
-      </c>
-      <c r="J196" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7063,26 +6313,15 @@
         <v>2472.6538</v>
       </c>
       <c r="G197" t="n">
-        <v>-504714.5653034045</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="J197" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
